--- a/dados/Excel/Eixo3_EstudaTrabalha.xlsx
+++ b/dados/Excel/Eixo3_EstudaTrabalha.xlsx
@@ -13,15 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="9" r:id="rId1"/>
-    <sheet name="2010" sheetId="10" r:id="rId2"/>
-    <sheet name="2018" sheetId="1" r:id="rId3"/>
-    <sheet name="2017" sheetId="2" r:id="rId4"/>
-    <sheet name="2016" sheetId="3" r:id="rId5"/>
-    <sheet name="2015" sheetId="4" r:id="rId6"/>
-    <sheet name="2014" sheetId="5" r:id="rId7"/>
-    <sheet name="2013" sheetId="6" r:id="rId8"/>
-    <sheet name="2012" sheetId="7" r:id="rId9"/>
-    <sheet name="2011" sheetId="8" r:id="rId10"/>
+    <sheet name="2018" sheetId="1" r:id="rId2"/>
+    <sheet name="2017" sheetId="2" r:id="rId3"/>
+    <sheet name="2016" sheetId="3" r:id="rId4"/>
+    <sheet name="2015" sheetId="4" r:id="rId5"/>
+    <sheet name="2014" sheetId="5" r:id="rId6"/>
+    <sheet name="2013" sheetId="6" r:id="rId7"/>
+    <sheet name="2012" sheetId="7" r:id="rId8"/>
+    <sheet name="2011" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="69">
   <si>
     <t>Total</t>
   </si>
@@ -248,24 +247,6 @@
   </si>
   <si>
     <t>NaoEstudaNaoEconomicamenteAtivo(%)</t>
-  </si>
-  <si>
-    <t>Ocupados</t>
-  </si>
-  <si>
-    <t>Desocupados</t>
-  </si>
-  <si>
-    <t>Ocupados%</t>
-  </si>
-  <si>
-    <t>Desocupados%</t>
-  </si>
-  <si>
-    <t>NaoAplicavel</t>
-  </si>
-  <si>
-    <t>NaoAplicavel%</t>
   </si>
 </sst>
 </file>
@@ -569,7 +550,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -612,8 +593,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="39">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -1997,2367 +1976,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="N1" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="24">
-        <v>31174</v>
-      </c>
-      <c r="D2" s="25">
-        <f t="shared" ref="D2:D28" si="0">C2/O2</f>
-        <v>0.15118991614570956</v>
-      </c>
-      <c r="E2" s="26">
-        <v>3690</v>
-      </c>
-      <c r="F2" s="25">
-        <f t="shared" ref="F2:F28" si="1">E2/O2</f>
-        <v>1.7896028439650616E-2</v>
-      </c>
-      <c r="G2" s="27">
-        <v>44627</v>
-      </c>
-      <c r="H2" s="3">
-        <f>G2/O2</f>
-        <v>0.21643524693124336</v>
-      </c>
-      <c r="I2" s="26">
-        <v>83361</v>
-      </c>
-      <c r="J2" s="25">
-        <f t="shared" ref="J2:J28" si="2">I2/O2</f>
-        <v>0.40429019695331025</v>
-      </c>
-      <c r="K2" s="26">
-        <v>7011</v>
-      </c>
-      <c r="L2" s="25">
-        <f t="shared" ref="L2:L28" si="3">K2/O2</f>
-        <v>3.4002454035336166E-2</v>
-      </c>
-      <c r="M2" s="27">
-        <v>36328</v>
-      </c>
-      <c r="N2" s="28">
-        <f>M2/O2</f>
-        <v>0.17618615749475</v>
-      </c>
-      <c r="O2" s="29">
-        <f>SUM(C2,E2,I2,K2,G2,M2)</f>
-        <v>206191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="24">
-        <v>86628</v>
-      </c>
-      <c r="D3" s="25">
-        <f t="shared" si="0"/>
-        <v>9.8266597546851547E-2</v>
-      </c>
-      <c r="E3" s="26">
-        <v>24157</v>
-      </c>
-      <c r="F3" s="25">
-        <f t="shared" si="1"/>
-        <v>2.7402528015644974E-2</v>
-      </c>
-      <c r="G3" s="27">
-        <v>204480</v>
-      </c>
-      <c r="H3" s="3">
-        <f t="shared" ref="H3:H28" si="4">G3/O3</f>
-        <v>0.23195218481761329</v>
-      </c>
-      <c r="I3" s="26">
-        <v>321153</v>
-      </c>
-      <c r="J3" s="25">
-        <f t="shared" si="2"/>
-        <v>0.36430037172697066</v>
-      </c>
-      <c r="K3" s="26">
-        <v>50090</v>
-      </c>
-      <c r="L3" s="25">
-        <f t="shared" si="3"/>
-        <v>5.6819664209283305E-2</v>
-      </c>
-      <c r="M3" s="27">
-        <v>195053</v>
-      </c>
-      <c r="N3" s="28">
-        <f t="shared" ref="N3:N28" si="5">M3/O3</f>
-        <v>0.22125865368363618</v>
-      </c>
-      <c r="O3" s="29">
-        <f t="shared" ref="O3:O28" si="6">SUM(C3,E3,I3,K3,G3,M3)</f>
-        <v>881561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="24">
-        <v>19526</v>
-      </c>
-      <c r="D4" s="25">
-        <f t="shared" si="0"/>
-        <v>9.3711905241838728E-2</v>
-      </c>
-      <c r="E4" s="26">
-        <v>8960</v>
-      </c>
-      <c r="F4" s="25">
-        <f t="shared" si="1"/>
-        <v>4.3002082913391117E-2</v>
-      </c>
-      <c r="G4" s="27">
-        <v>57199</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" si="4"/>
-        <v>0.27451742640212706</v>
-      </c>
-      <c r="I4" s="26">
-        <v>63639</v>
-      </c>
-      <c r="J4" s="25">
-        <f t="shared" si="2"/>
-        <v>0.30542517349612691</v>
-      </c>
-      <c r="K4" s="26">
-        <v>15617</v>
-      </c>
-      <c r="L4" s="25">
-        <f t="shared" si="3"/>
-        <v>7.4951286702949677E-2</v>
-      </c>
-      <c r="M4" s="27">
-        <v>43421</v>
-      </c>
-      <c r="N4" s="28">
-        <f t="shared" si="5"/>
-        <v>0.20839212524356648</v>
-      </c>
-      <c r="O4" s="29">
-        <f t="shared" si="6"/>
-        <v>208362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="24">
-        <v>148727</v>
-      </c>
-      <c r="D5" s="25">
-        <f t="shared" si="0"/>
-        <v>0.14707825278626596</v>
-      </c>
-      <c r="E5" s="26">
-        <v>31313</v>
-      </c>
-      <c r="F5" s="25">
-        <f t="shared" si="1"/>
-        <v>3.0965872568507035E-2</v>
-      </c>
-      <c r="G5" s="27">
-        <v>243026</v>
-      </c>
-      <c r="H5" s="3">
-        <f t="shared" si="4"/>
-        <v>0.24033187962935493</v>
-      </c>
-      <c r="I5" s="26">
-        <v>357526</v>
-      </c>
-      <c r="J5" s="25">
-        <f t="shared" si="2"/>
-        <v>0.35356256366135619</v>
-      </c>
-      <c r="K5" s="26">
-        <v>52842</v>
-      </c>
-      <c r="L5" s="25">
-        <f t="shared" si="3"/>
-        <v>5.2256207909336341E-2</v>
-      </c>
-      <c r="M5" s="27">
-        <v>177776</v>
-      </c>
-      <c r="N5" s="28">
-        <f t="shared" si="5"/>
-        <v>0.17580522344517954</v>
-      </c>
-      <c r="O5" s="29">
-        <f t="shared" si="6"/>
-        <v>1011210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="24">
-        <v>497724</v>
-      </c>
-      <c r="D6" s="25">
-        <f t="shared" si="0"/>
-        <v>0.13081912689999903</v>
-      </c>
-      <c r="E6" s="26">
-        <v>146488</v>
-      </c>
-      <c r="F6" s="25">
-        <f t="shared" si="1"/>
-        <v>3.8502126201121624E-2</v>
-      </c>
-      <c r="G6" s="27">
-        <v>743344</v>
-      </c>
-      <c r="H6" s="3">
-        <f t="shared" si="4"/>
-        <v>0.1953765803263513</v>
-      </c>
-      <c r="I6" s="26">
-        <v>1603289</v>
-      </c>
-      <c r="J6" s="25">
-        <f t="shared" si="2"/>
-        <v>0.42139994685482823</v>
-      </c>
-      <c r="K6" s="26">
-        <v>275330</v>
-      </c>
-      <c r="L6" s="25">
-        <f t="shared" si="3"/>
-        <v>7.2366271687474851E-2</v>
-      </c>
-      <c r="M6" s="27">
-        <v>538498</v>
-      </c>
-      <c r="N6" s="28">
-        <f t="shared" si="5"/>
-        <v>0.14153594803022493</v>
-      </c>
-      <c r="O6" s="29">
-        <f t="shared" si="6"/>
-        <v>3804673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="24">
-        <v>273004</v>
-      </c>
-      <c r="D7" s="25">
-        <f t="shared" si="0"/>
-        <v>0.11873141043455494</v>
-      </c>
-      <c r="E7" s="26">
-        <v>38073</v>
-      </c>
-      <c r="F7" s="25">
-        <f t="shared" si="1"/>
-        <v>1.6558222551591957E-2</v>
-      </c>
-      <c r="G7" s="27">
-        <v>509665</v>
-      </c>
-      <c r="H7" s="3">
-        <f t="shared" si="4"/>
-        <v>0.22165698780650631</v>
-      </c>
-      <c r="I7" s="26">
-        <v>936478</v>
-      </c>
-      <c r="J7" s="25">
-        <f t="shared" si="2"/>
-        <v>0.40728104269875587</v>
-      </c>
-      <c r="K7" s="26">
-        <v>101468</v>
-      </c>
-      <c r="L7" s="25">
-        <f t="shared" si="3"/>
-        <v>4.4129165704434446E-2</v>
-      </c>
-      <c r="M7" s="27">
-        <v>440653</v>
-      </c>
-      <c r="N7" s="28">
-        <f t="shared" si="5"/>
-        <v>0.19164317080415649</v>
-      </c>
-      <c r="O7" s="29">
-        <f t="shared" si="6"/>
-        <v>2299341</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="24">
-        <v>104574</v>
-      </c>
-      <c r="D8" s="25">
-        <f t="shared" si="0"/>
-        <v>0.14610653619061723</v>
-      </c>
-      <c r="E8" s="26">
-        <v>25154</v>
-      </c>
-      <c r="F8" s="25">
-        <f t="shared" si="1"/>
-        <v>3.5144144924539426E-2</v>
-      </c>
-      <c r="G8" s="27">
-        <v>159758</v>
-      </c>
-      <c r="H8" s="3">
-        <f t="shared" si="4"/>
-        <v>0.22320737476562652</v>
-      </c>
-      <c r="I8" s="26">
-        <v>293159</v>
-      </c>
-      <c r="J8" s="25">
-        <f t="shared" si="2"/>
-        <v>0.40958982197396254</v>
-      </c>
-      <c r="K8" s="26">
-        <v>43548</v>
-      </c>
-      <c r="L8" s="25">
-        <f t="shared" si="3"/>
-        <v>6.0843493010012045E-2</v>
-      </c>
-      <c r="M8" s="27">
-        <v>89545</v>
-      </c>
-      <c r="N8" s="28">
-        <f t="shared" si="5"/>
-        <v>0.12510862913524223</v>
-      </c>
-      <c r="O8" s="29">
-        <f t="shared" si="6"/>
-        <v>715738</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="24">
-        <v>131059</v>
-      </c>
-      <c r="D9" s="25">
-        <f t="shared" si="0"/>
-        <v>0.13452282830605256</v>
-      </c>
-      <c r="E9" s="26">
-        <v>29476</v>
-      </c>
-      <c r="F9" s="25">
-        <f t="shared" si="1"/>
-        <v>3.0255036946331079E-2</v>
-      </c>
-      <c r="G9" s="27">
-        <v>153156</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="4"/>
-        <v>0.15720384172046012</v>
-      </c>
-      <c r="I9" s="26">
-        <v>476335</v>
-      </c>
-      <c r="J9" s="25">
-        <f t="shared" si="2"/>
-        <v>0.48892431211258702</v>
-      </c>
-      <c r="K9" s="26">
-        <v>67368</v>
-      </c>
-      <c r="L9" s="25">
-        <f t="shared" si="3"/>
-        <v>6.9148504851419199E-2</v>
-      </c>
-      <c r="M9" s="27">
-        <v>116857</v>
-      </c>
-      <c r="N9" s="28">
-        <f t="shared" si="5"/>
-        <v>0.11994547606315005</v>
-      </c>
-      <c r="O9" s="29">
-        <f t="shared" si="6"/>
-        <v>974251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="24">
-        <v>244923</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" si="0"/>
-        <v>0.15303459919197321</v>
-      </c>
-      <c r="E10" s="26">
-        <v>38581</v>
-      </c>
-      <c r="F10" s="25">
-        <f t="shared" si="1"/>
-        <v>2.4106465588881073E-2</v>
-      </c>
-      <c r="G10" s="27">
-        <v>276385</v>
-      </c>
-      <c r="H10" s="3">
-        <f t="shared" si="4"/>
-        <v>0.17269291858124194</v>
-      </c>
-      <c r="I10" s="26">
-        <v>769194</v>
-      </c>
-      <c r="J10" s="25">
-        <f t="shared" si="2"/>
-        <v>0.48061348052600467</v>
-      </c>
-      <c r="K10" s="26">
-        <v>58714</v>
-      </c>
-      <c r="L10" s="25">
-        <f t="shared" si="3"/>
-        <v>3.6686115460604012E-2</v>
-      </c>
-      <c r="M10" s="27">
-        <v>212645</v>
-      </c>
-      <c r="N10" s="28">
-        <f t="shared" si="5"/>
-        <v>0.13286642065129509</v>
-      </c>
-      <c r="O10" s="29">
-        <f t="shared" si="6"/>
-        <v>1600442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="24">
-        <v>231724</v>
-      </c>
-      <c r="D11" s="25">
-        <f t="shared" si="0"/>
-        <v>0.12720206400614811</v>
-      </c>
-      <c r="E11" s="26">
-        <v>30605</v>
-      </c>
-      <c r="F11" s="25">
-        <f t="shared" si="1"/>
-        <v>1.6800241532634354E-2</v>
-      </c>
-      <c r="G11" s="27">
-        <v>353409</v>
-      </c>
-      <c r="H11" s="3">
-        <f t="shared" si="4"/>
-        <v>0.19399956084975573</v>
-      </c>
-      <c r="I11" s="26">
-        <v>760728</v>
-      </c>
-      <c r="J11" s="25">
-        <f t="shared" si="2"/>
-        <v>0.41759235878574957</v>
-      </c>
-      <c r="K11" s="26">
-        <v>102743</v>
-      </c>
-      <c r="L11" s="25">
-        <f t="shared" si="3"/>
-        <v>5.6399516934731296E-2</v>
-      </c>
-      <c r="M11" s="27">
-        <v>342491</v>
-      </c>
-      <c r="N11" s="28">
-        <f t="shared" si="5"/>
-        <v>0.18800625789098097</v>
-      </c>
-      <c r="O11" s="29">
-        <f t="shared" si="6"/>
-        <v>1821700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="24">
-        <v>135490</v>
-      </c>
-      <c r="D12" s="25">
-        <f t="shared" si="0"/>
-        <v>0.16165865671428095</v>
-      </c>
-      <c r="E12" s="26">
-        <v>35762</v>
-      </c>
-      <c r="F12" s="25">
-        <f t="shared" si="1"/>
-        <v>4.2669103855754044E-2</v>
-      </c>
-      <c r="G12" s="27">
-        <v>145576</v>
-      </c>
-      <c r="H12" s="3">
-        <f t="shared" si="4"/>
-        <v>0.17369267554681647</v>
-      </c>
-      <c r="I12" s="26">
-        <v>366466</v>
-      </c>
-      <c r="J12" s="25">
-        <f t="shared" si="2"/>
-        <v>0.43724556270909792</v>
-      </c>
-      <c r="K12" s="26">
-        <v>42916</v>
-      </c>
-      <c r="L12" s="25">
-        <f t="shared" si="3"/>
-        <v>5.1204833652299657E-2</v>
-      </c>
-      <c r="M12" s="27">
-        <v>111914</v>
-      </c>
-      <c r="N12" s="28">
-        <f t="shared" si="5"/>
-        <v>0.13352916752175095</v>
-      </c>
-      <c r="O12" s="29">
-        <f t="shared" si="6"/>
-        <v>838124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="24">
-        <v>87521</v>
-      </c>
-      <c r="D13" s="25">
-        <f t="shared" si="0"/>
-        <v>0.13712716236817407</v>
-      </c>
-      <c r="E13" s="26">
-        <v>15378</v>
-      </c>
-      <c r="F13" s="25">
-        <f t="shared" si="1"/>
-        <v>2.4094120301388022E-2</v>
-      </c>
-      <c r="G13" s="27">
-        <v>117072</v>
-      </c>
-      <c r="H13" s="3">
-        <f t="shared" si="4"/>
-        <v>0.18342741916530747</v>
-      </c>
-      <c r="I13" s="26">
-        <v>300798</v>
-      </c>
-      <c r="J13" s="25">
-        <f t="shared" si="2"/>
-        <v>0.47128776163460229</v>
-      </c>
-      <c r="K13" s="26">
-        <v>24051</v>
-      </c>
-      <c r="L13" s="25">
-        <f t="shared" si="3"/>
-        <v>3.7682903327395191E-2</v>
-      </c>
-      <c r="M13" s="27">
-        <v>93427</v>
-      </c>
-      <c r="N13" s="28">
-        <f t="shared" si="5"/>
-        <v>0.14638063320313296</v>
-      </c>
-      <c r="O13" s="29">
-        <f t="shared" si="6"/>
-        <v>638247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="24">
-        <v>678102</v>
-      </c>
-      <c r="D14" s="25">
-        <f t="shared" si="0"/>
-        <v>0.13504266048989214</v>
-      </c>
-      <c r="E14" s="26">
-        <v>145035</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="1"/>
-        <v>2.8883430905898386E-2</v>
-      </c>
-      <c r="G14" s="27">
-        <v>865047</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="4"/>
-        <v>0.17227238428554956</v>
-      </c>
-      <c r="I14" s="26">
-        <v>2433073</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="2"/>
-        <v>0.48454163398150035</v>
-      </c>
-      <c r="K14" s="26">
-        <v>252790</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" si="3"/>
-        <v>5.0342624185210828E-2</v>
-      </c>
-      <c r="M14" s="27">
-        <v>647344</v>
-      </c>
-      <c r="N14" s="28">
-        <f t="shared" si="5"/>
-        <v>0.12891726615194873</v>
-      </c>
-      <c r="O14" s="29">
-        <f t="shared" si="6"/>
-        <v>5021391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="24">
-        <v>289388</v>
-      </c>
-      <c r="D15" s="25">
-        <f t="shared" si="0"/>
-        <v>0.13098255017396418</v>
-      </c>
-      <c r="E15" s="26">
-        <v>62698</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" si="1"/>
-        <v>2.8378315378686073E-2</v>
-      </c>
-      <c r="G15" s="27">
-        <v>479118</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="4"/>
-        <v>0.21685798123712582</v>
-      </c>
-      <c r="I15" s="26">
-        <v>914644</v>
-      </c>
-      <c r="J15" s="25">
-        <f t="shared" si="2"/>
-        <v>0.41398538854864503</v>
-      </c>
-      <c r="K15" s="26">
-        <v>102441</v>
-      </c>
-      <c r="L15" s="25">
-        <f t="shared" si="3"/>
-        <v>4.6366758201345816E-2</v>
-      </c>
-      <c r="M15" s="27">
-        <v>361074</v>
-      </c>
-      <c r="N15" s="28">
-        <f t="shared" si="5"/>
-        <v>0.16342900646023312</v>
-      </c>
-      <c r="O15" s="29">
-        <f t="shared" si="6"/>
-        <v>2209363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="24">
-        <v>118807</v>
-      </c>
-      <c r="D16" s="25">
-        <f t="shared" si="0"/>
-        <v>0.11706207274368266</v>
-      </c>
-      <c r="E16" s="26">
-        <v>30018</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="1"/>
-        <v>2.9577123398620168E-2</v>
-      </c>
-      <c r="G16" s="27">
-        <v>226362</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="4"/>
-        <v>0.22303740444927905</v>
-      </c>
-      <c r="I16" s="26">
-        <v>381450</v>
-      </c>
-      <c r="J16" s="25">
-        <f t="shared" si="2"/>
-        <v>0.37584761544418893</v>
-      </c>
-      <c r="K16" s="26">
-        <v>73791</v>
-      </c>
-      <c r="L16" s="25">
-        <f t="shared" si="3"/>
-        <v>7.2707226087933272E-2</v>
-      </c>
-      <c r="M16" s="27">
-        <v>184478</v>
-      </c>
-      <c r="N16" s="28">
-        <f t="shared" si="5"/>
-        <v>0.18176855787629592</v>
-      </c>
-      <c r="O16" s="29">
-        <f t="shared" si="6"/>
-        <v>1014906</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="24">
-        <v>443189</v>
-      </c>
-      <c r="D17" s="25">
-        <f t="shared" si="0"/>
-        <v>0.1626540425597508</v>
-      </c>
-      <c r="E17" s="26">
-        <v>69098</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="1"/>
-        <v>2.535953968350672E-2</v>
-      </c>
-      <c r="G17" s="27">
-        <v>452942</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="4"/>
-        <v>0.16623347453366091</v>
-      </c>
-      <c r="I17" s="26">
-        <v>1341956</v>
-      </c>
-      <c r="J17" s="25">
-        <f t="shared" si="2"/>
-        <v>0.49250899353845184</v>
-      </c>
-      <c r="K17" s="26">
-        <v>114919</v>
-      </c>
-      <c r="L17" s="25">
-        <f t="shared" si="3"/>
-        <v>4.2176227110609699E-2</v>
-      </c>
-      <c r="M17" s="27">
-        <v>302630</v>
-      </c>
-      <c r="N17" s="28">
-        <f t="shared" si="5"/>
-        <v>0.11106772257402008</v>
-      </c>
-      <c r="O17" s="29">
-        <f t="shared" si="6"/>
-        <v>2724734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="24">
-        <v>208612</v>
-      </c>
-      <c r="D18" s="25">
-        <f t="shared" si="0"/>
-        <v>8.8178467008736605E-2</v>
-      </c>
-      <c r="E18" s="26">
-        <v>51146</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="1"/>
-        <v>2.1618966663609199E-2</v>
-      </c>
-      <c r="G18" s="27">
-        <v>541146</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="4"/>
-        <v>0.22873767907843162</v>
-      </c>
-      <c r="I18" s="26">
-        <v>923724</v>
-      </c>
-      <c r="J18" s="25">
-        <f t="shared" si="2"/>
-        <v>0.3904500520544274</v>
-      </c>
-      <c r="K18" s="26">
-        <v>124697</v>
-      </c>
-      <c r="L18" s="25">
-        <f t="shared" si="3"/>
-        <v>5.2708330779573702E-2</v>
-      </c>
-      <c r="M18" s="27">
-        <v>516468</v>
-      </c>
-      <c r="N18" s="28">
-        <f t="shared" si="5"/>
-        <v>0.21830650441522145</v>
-      </c>
-      <c r="O18" s="29">
-        <f t="shared" si="6"/>
-        <v>2365793</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="24">
-        <v>125457</v>
-      </c>
-      <c r="D19" s="25">
-        <f t="shared" si="0"/>
-        <v>0.15616146779855111</v>
-      </c>
-      <c r="E19" s="26">
-        <v>30383</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="1"/>
-        <v>3.7818964873409841E-2</v>
-      </c>
-      <c r="G19" s="27">
-        <v>173838</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="4"/>
-        <v>0.21638328063929896</v>
-      </c>
-      <c r="I19" s="26">
-        <v>314479</v>
-      </c>
-      <c r="J19" s="25">
-        <f t="shared" si="2"/>
-        <v>0.39144489531728449</v>
-      </c>
-      <c r="K19" s="26">
-        <v>40512</v>
-      </c>
-      <c r="L19" s="25">
-        <f t="shared" si="3"/>
-        <v>5.0426946152505661E-2</v>
-      </c>
-      <c r="M19" s="27">
-        <v>118711</v>
-      </c>
-      <c r="N19" s="28">
-        <f t="shared" si="5"/>
-        <v>0.14776444521894994</v>
-      </c>
-      <c r="O19" s="29">
-        <f t="shared" si="6"/>
-        <v>803380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="24">
-        <v>344197</v>
-      </c>
-      <c r="D20" s="25">
-        <f t="shared" si="0"/>
-        <v>9.3110569359051765E-2</v>
-      </c>
-      <c r="E20" s="26">
-        <v>100488</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="1"/>
-        <v>2.7183545741980304E-2</v>
-      </c>
-      <c r="G20" s="27">
-        <v>961558</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="4"/>
-        <v>0.26011619174993128</v>
-      </c>
-      <c r="I20" s="26">
-        <v>1518982</v>
-      </c>
-      <c r="J20" s="25">
-        <f t="shared" si="2"/>
-        <v>0.41090793605450127</v>
-      </c>
-      <c r="K20" s="26">
-        <v>250577</v>
-      </c>
-      <c r="L20" s="25">
-        <f t="shared" si="3"/>
-        <v>6.7784922989692284E-2</v>
-      </c>
-      <c r="M20" s="27">
-        <v>520846</v>
-      </c>
-      <c r="N20" s="28">
-        <f t="shared" si="5"/>
-        <v>0.14089683410484308</v>
-      </c>
-      <c r="O20" s="29">
-        <f t="shared" si="6"/>
-        <v>3696648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="24">
-        <v>86615</v>
-      </c>
-      <c r="D21" s="25">
-        <f t="shared" si="0"/>
-        <v>9.9650134435354254E-2</v>
-      </c>
-      <c r="E21" s="26">
-        <v>31717</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="1"/>
-        <v>3.6490253580628421E-2</v>
-      </c>
-      <c r="G21" s="27">
-        <v>183596</v>
-      </c>
-      <c r="H21" s="3">
-        <f t="shared" si="4"/>
-        <v>0.21122630123873809</v>
-      </c>
-      <c r="I21" s="26">
-        <v>340968</v>
-      </c>
-      <c r="J21" s="25">
-        <f t="shared" si="2"/>
-        <v>0.39228201856669015</v>
-      </c>
-      <c r="K21" s="26">
-        <v>59780</v>
-      </c>
-      <c r="L21" s="25">
-        <f t="shared" si="3"/>
-        <v>6.8776598008953152E-2</v>
-      </c>
-      <c r="M21" s="27">
-        <v>166515</v>
-      </c>
-      <c r="N21" s="28">
-        <f t="shared" si="5"/>
-        <v>0.19157469416963591</v>
-      </c>
-      <c r="O21" s="29">
-        <f t="shared" si="6"/>
-        <v>869191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="24">
-        <v>408436</v>
-      </c>
-      <c r="D22" s="25">
-        <f t="shared" si="0"/>
-        <v>0.15891041572965511</v>
-      </c>
-      <c r="E22" s="26">
-        <v>60653</v>
-      </c>
-      <c r="F22" s="25">
-        <f t="shared" si="1"/>
-        <v>2.3598295559771353E-2</v>
-      </c>
-      <c r="G22" s="27">
-        <v>438850</v>
-      </c>
-      <c r="H22" s="3">
-        <f t="shared" si="4"/>
-        <v>0.17074360718193093</v>
-      </c>
-      <c r="I22" s="26">
-        <v>1268157</v>
-      </c>
-      <c r="J22" s="25">
-        <f t="shared" si="2"/>
-        <v>0.493402530826059</v>
-      </c>
-      <c r="K22" s="26">
-        <v>113358</v>
-      </c>
-      <c r="L22" s="25">
-        <f t="shared" si="3"/>
-        <v>4.4104258454891937E-2</v>
-      </c>
-      <c r="M22" s="27">
-        <v>280774</v>
-      </c>
-      <c r="N22" s="28">
-        <f t="shared" si="5"/>
-        <v>0.10924089224769165</v>
-      </c>
-      <c r="O22" s="29">
-        <f t="shared" si="6"/>
-        <v>2570228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="24">
-        <v>65160</v>
-      </c>
-      <c r="D23" s="25">
-        <f t="shared" si="0"/>
-        <v>0.14225831805082526</v>
-      </c>
-      <c r="E23" s="26">
-        <v>6937</v>
-      </c>
-      <c r="F23" s="25">
-        <f t="shared" si="1"/>
-        <v>1.5144965505196053E-2</v>
-      </c>
-      <c r="G23" s="27">
-        <v>89179</v>
-      </c>
-      <c r="H23" s="3">
-        <f t="shared" si="4"/>
-        <v>0.1946969696969697</v>
-      </c>
-      <c r="I23" s="26">
-        <v>202379</v>
-      </c>
-      <c r="J23" s="25">
-        <f t="shared" si="2"/>
-        <v>0.44183695747096324</v>
-      </c>
-      <c r="K23" s="26">
-        <v>10649</v>
-      </c>
-      <c r="L23" s="25">
-        <f t="shared" si="3"/>
-        <v>2.3249061217360929E-2</v>
-      </c>
-      <c r="M23" s="27">
-        <v>83736</v>
-      </c>
-      <c r="N23" s="28">
-        <f t="shared" si="5"/>
-        <v>0.18281372805868484</v>
-      </c>
-      <c r="O23" s="29">
-        <f t="shared" si="6"/>
-        <v>458040</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="24">
-        <v>28165</v>
-      </c>
-      <c r="D24" s="25">
-        <f t="shared" si="0"/>
-        <v>0.20629619049711778</v>
-      </c>
-      <c r="E24" s="26">
-        <v>3778</v>
-      </c>
-      <c r="F24" s="25">
-        <f t="shared" si="1"/>
-        <v>2.7672182059226381E-2</v>
-      </c>
-      <c r="G24" s="27">
-        <v>29193</v>
-      </c>
-      <c r="H24" s="3">
-        <f t="shared" si="4"/>
-        <v>0.21382583664769605</v>
-      </c>
-      <c r="I24" s="26">
-        <v>48256</v>
-      </c>
-      <c r="J24" s="25">
-        <f t="shared" si="2"/>
-        <v>0.35345389556644474</v>
-      </c>
-      <c r="K24" s="26">
-        <v>6700</v>
-      </c>
-      <c r="L24" s="25">
-        <f t="shared" si="3"/>
-        <v>4.9074542031979022E-2</v>
-      </c>
-      <c r="M24" s="27">
-        <v>20435</v>
-      </c>
-      <c r="N24" s="28">
-        <f t="shared" si="5"/>
-        <v>0.14967735319753603</v>
-      </c>
-      <c r="O24" s="29">
-        <f t="shared" si="6"/>
-        <v>136527</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="24">
-        <v>270017</v>
-      </c>
-      <c r="D25" s="25">
-        <f t="shared" si="0"/>
-        <v>0.16181220658402379</v>
-      </c>
-      <c r="E25" s="26">
-        <v>31258</v>
-      </c>
-      <c r="F25" s="25">
-        <f t="shared" si="1"/>
-        <v>1.87318796720333E-2</v>
-      </c>
-      <c r="G25" s="27">
-        <v>264037</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="4"/>
-        <v>0.15822859149544619</v>
-      </c>
-      <c r="I25" s="26">
-        <v>885241</v>
-      </c>
-      <c r="J25" s="25">
-        <f t="shared" si="2"/>
-        <v>0.53049548572366856</v>
-      </c>
-      <c r="K25" s="26">
-        <v>49878</v>
-      </c>
-      <c r="L25" s="25">
-        <f t="shared" si="3"/>
-        <v>2.989022631907598E-2</v>
-      </c>
-      <c r="M25" s="27">
-        <v>168275</v>
-      </c>
-      <c r="N25" s="28">
-        <f t="shared" si="5"/>
-        <v>0.10084161020575225</v>
-      </c>
-      <c r="O25" s="29">
-        <f t="shared" si="6"/>
-        <v>1668706</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="24">
-        <v>1332711</v>
-      </c>
-      <c r="D26" s="25">
-        <f t="shared" si="0"/>
-        <v>0.12692032427413308</v>
-      </c>
-      <c r="E26" s="26">
-        <v>286845</v>
-      </c>
-      <c r="F26" s="25">
-        <f t="shared" si="1"/>
-        <v>2.7317595800149995E-2</v>
-      </c>
-      <c r="G26" s="27">
-        <v>1607485</v>
-      </c>
-      <c r="H26" s="3">
-        <f t="shared" si="4"/>
-        <v>0.15308834208302086</v>
-      </c>
-      <c r="I26" s="26">
-        <v>5374650</v>
-      </c>
-      <c r="J26" s="25">
-        <f t="shared" si="2"/>
-        <v>0.51185314810185345</v>
-      </c>
-      <c r="K26" s="26">
-        <v>666408</v>
-      </c>
-      <c r="L26" s="25">
-        <f t="shared" si="3"/>
-        <v>6.3465161958501479E-2</v>
-      </c>
-      <c r="M26" s="27">
-        <v>1232276</v>
-      </c>
-      <c r="N26" s="28">
-        <f t="shared" si="5"/>
-        <v>0.11735542778234111</v>
-      </c>
-      <c r="O26" s="29">
-        <f t="shared" si="6"/>
-        <v>10500375</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="24">
-        <v>76664</v>
-      </c>
-      <c r="D27" s="25">
-        <f t="shared" si="0"/>
-        <v>0.12995087685991599</v>
-      </c>
-      <c r="E27" s="26">
-        <v>16060</v>
-      </c>
-      <c r="F27" s="25">
-        <f t="shared" si="1"/>
-        <v>2.7222830564153328E-2</v>
-      </c>
-      <c r="G27" s="27">
-        <v>111353</v>
-      </c>
-      <c r="H27" s="3">
-        <f t="shared" si="4"/>
-        <v>0.18875117383624943</v>
-      </c>
-      <c r="I27" s="26">
-        <v>244226</v>
-      </c>
-      <c r="J27" s="25">
-        <f t="shared" si="2"/>
-        <v>0.41398026260030579</v>
-      </c>
-      <c r="K27" s="26">
-        <v>42712</v>
-      </c>
-      <c r="L27" s="25">
-        <f t="shared" si="3"/>
-        <v>7.2399846765636183E-2</v>
-      </c>
-      <c r="M27" s="27">
-        <v>98931</v>
-      </c>
-      <c r="N27" s="28">
-        <f t="shared" si="5"/>
-        <v>0.1676950093737393</v>
-      </c>
-      <c r="O27" s="29">
-        <f t="shared" si="6"/>
-        <v>589946</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="24">
-        <v>63951</v>
-      </c>
-      <c r="D28" s="25">
-        <f t="shared" si="0"/>
-        <v>0.16720046224518342</v>
-      </c>
-      <c r="E28" s="26">
-        <v>11760</v>
-      </c>
-      <c r="F28" s="25">
-        <f t="shared" si="1"/>
-        <v>3.0746625322565044E-2</v>
-      </c>
-      <c r="G28" s="27">
-        <v>68358</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="4"/>
-        <v>0.1787226032142773</v>
-      </c>
-      <c r="I28" s="26">
-        <v>165150</v>
-      </c>
-      <c r="J28" s="25">
-        <f t="shared" si="2"/>
-        <v>0.43178615408347082</v>
-      </c>
-      <c r="K28" s="26">
-        <v>18866</v>
-      </c>
-      <c r="L28" s="25">
-        <f t="shared" si="3"/>
-        <v>4.9325325963904092E-2</v>
-      </c>
-      <c r="M28" s="27">
-        <v>54396</v>
-      </c>
-      <c r="N28" s="28">
-        <f t="shared" si="5"/>
-        <v>0.14221882917059933</v>
-      </c>
-      <c r="O28" s="29">
-        <f t="shared" si="6"/>
-        <v>382481</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="36">
-        <v>101387</v>
-      </c>
-      <c r="D2" s="37">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="E2" s="36">
-        <v>16007</v>
-      </c>
-      <c r="F2" s="37">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G2" s="36">
-        <v>97342</v>
-      </c>
-      <c r="H2" s="37">
-        <v>0.45300000000000001</v>
-      </c>
-      <c r="I2" s="36">
-        <v>214736</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="36">
-        <v>374318</v>
-      </c>
-      <c r="D3" s="37">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E3" s="36">
-        <v>84422</v>
-      </c>
-      <c r="F3" s="37">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="G3" s="36">
-        <v>416329</v>
-      </c>
-      <c r="H3" s="37">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="I3" s="36">
-        <v>875069</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="36">
-        <v>93404</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="E4" s="36">
-        <v>22457</v>
-      </c>
-      <c r="F4" s="37">
-        <v>0.109</v>
-      </c>
-      <c r="G4" s="36">
-        <v>89655</v>
-      </c>
-      <c r="H4" s="37">
-        <v>0.436</v>
-      </c>
-      <c r="I4" s="36">
-        <v>205516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="36">
-        <v>469746</v>
-      </c>
-      <c r="D5" s="37">
-        <v>0.45700000000000002</v>
-      </c>
-      <c r="E5" s="36">
-        <v>85755</v>
-      </c>
-      <c r="F5" s="37">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G5" s="36">
-        <v>472226</v>
-      </c>
-      <c r="H5" s="37">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="I5" s="36">
-        <v>1027727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="36">
-        <v>1957486</v>
-      </c>
-      <c r="D6" s="37">
-        <v>0.497</v>
-      </c>
-      <c r="E6" s="36">
-        <v>412995</v>
-      </c>
-      <c r="F6" s="37">
-        <v>0.105</v>
-      </c>
-      <c r="G6" s="36">
-        <v>1568748</v>
-      </c>
-      <c r="H6" s="37">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="I6" s="36">
-        <v>3939229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="36">
-        <v>1167710</v>
-      </c>
-      <c r="D7" s="37">
-        <v>0.48399999999999999</v>
-      </c>
-      <c r="E7" s="36">
-        <v>176406</v>
-      </c>
-      <c r="F7" s="37">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G7" s="36">
-        <v>1068369</v>
-      </c>
-      <c r="H7" s="37">
-        <v>0.443</v>
-      </c>
-      <c r="I7" s="36">
-        <v>2412485</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="36">
-        <v>427430</v>
-      </c>
-      <c r="D8" s="37">
-        <v>0.58299999999999996</v>
-      </c>
-      <c r="E8" s="36">
-        <v>71275</v>
-      </c>
-      <c r="F8" s="37">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="G8" s="36">
-        <v>234633</v>
-      </c>
-      <c r="H8" s="37">
-        <v>0.32</v>
-      </c>
-      <c r="I8" s="36">
-        <v>733338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="36">
-        <v>564181</v>
-      </c>
-      <c r="D9" s="37">
-        <v>0.59499999999999997</v>
-      </c>
-      <c r="E9" s="36">
-        <v>79297</v>
-      </c>
-      <c r="F9" s="37">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="G9" s="36">
-        <v>304039</v>
-      </c>
-      <c r="H9" s="37">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="I9" s="36">
-        <v>947517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="36">
-        <v>1005090</v>
-      </c>
-      <c r="D10" s="37">
-        <v>0.61099999999999999</v>
-      </c>
-      <c r="E10" s="36">
-        <v>116721</v>
-      </c>
-      <c r="F10" s="37">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G10" s="36">
-        <v>522369</v>
-      </c>
-      <c r="H10" s="37">
-        <v>0.318</v>
-      </c>
-      <c r="I10" s="36">
-        <v>1644180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="36">
-        <v>857882</v>
-      </c>
-      <c r="D11" s="37">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="E11" s="36">
-        <v>141377</v>
-      </c>
-      <c r="F11" s="37">
-        <v>7.2999999999999995E-2</v>
-      </c>
-      <c r="G11" s="36">
-        <v>934258</v>
-      </c>
-      <c r="H11" s="37">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="I11" s="36">
-        <v>1933517</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="36">
-        <v>501596</v>
-      </c>
-      <c r="D12" s="37">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="E12" s="36">
-        <v>56943</v>
-      </c>
-      <c r="F12" s="37">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="G12" s="36">
-        <v>295893</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0.34599999999999997</v>
-      </c>
-      <c r="I12" s="36">
-        <v>854432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="36">
-        <v>395194</v>
-      </c>
-      <c r="D13" s="37">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="E13" s="36">
-        <v>47369</v>
-      </c>
-      <c r="F13" s="37">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="G13" s="36">
-        <v>220612</v>
-      </c>
-      <c r="H13" s="37">
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="I13" s="36">
-        <v>663175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="36">
-        <v>3026004</v>
-      </c>
-      <c r="D14" s="37">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="E14" s="36">
-        <v>401501</v>
-      </c>
-      <c r="F14" s="37">
-        <v>7.8E-2</v>
-      </c>
-      <c r="G14" s="36">
-        <v>1728691</v>
-      </c>
-      <c r="H14" s="37">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="I14" s="36">
-        <v>5156196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="36">
-        <v>1033288</v>
-      </c>
-      <c r="D15" s="37">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="E15" s="36">
-        <v>174173</v>
-      </c>
-      <c r="F15" s="37">
-        <v>7.8E-2</v>
-      </c>
-      <c r="G15" s="36">
-        <v>1036318</v>
-      </c>
-      <c r="H15" s="37">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="I15" s="36">
-        <v>2243779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="36">
-        <v>474952</v>
-      </c>
-      <c r="D16" s="37">
-        <v>0.46300000000000002</v>
-      </c>
-      <c r="E16" s="36">
-        <v>85291</v>
-      </c>
-      <c r="F16" s="37">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G16" s="36">
-        <v>466092</v>
-      </c>
-      <c r="H16" s="37">
-        <v>0.45400000000000001</v>
-      </c>
-      <c r="I16" s="36">
-        <v>1026335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="36">
-        <v>1736753</v>
-      </c>
-      <c r="D17" s="37">
-        <v>0.64100000000000001</v>
-      </c>
-      <c r="E17" s="36">
-        <v>170358</v>
-      </c>
-      <c r="F17" s="37">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G17" s="36">
-        <v>801998</v>
-      </c>
-      <c r="H17" s="37">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="I17" s="36">
-        <v>2709109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="36">
-        <v>1128490</v>
-      </c>
-      <c r="D18" s="37">
-        <v>0.46800000000000003</v>
-      </c>
-      <c r="E18" s="36">
-        <v>243816</v>
-      </c>
-      <c r="F18" s="37">
-        <v>0.10100000000000001</v>
-      </c>
-      <c r="G18" s="36">
-        <v>1038728</v>
-      </c>
-      <c r="H18" s="37">
-        <v>0.43099999999999999</v>
-      </c>
-      <c r="I18" s="36">
-        <v>2411034</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="36">
-        <v>401000</v>
-      </c>
-      <c r="D19" s="37">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="E19" s="36">
-        <v>63719</v>
-      </c>
-      <c r="F19" s="37">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G19" s="36">
-        <v>414771</v>
-      </c>
-      <c r="H19" s="37">
-        <v>0.47199999999999998</v>
-      </c>
-      <c r="I19" s="36">
-        <v>879490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="36">
-        <v>2001814</v>
-      </c>
-      <c r="D20" s="37">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="E20" s="36">
-        <v>352561</v>
-      </c>
-      <c r="F20" s="37">
-        <v>0.09</v>
-      </c>
-      <c r="G20" s="36">
-        <v>1582890</v>
-      </c>
-      <c r="H20" s="37">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="I20" s="36">
-        <v>3937265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="36">
-        <v>412094</v>
-      </c>
-      <c r="D21" s="37">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="E21" s="36">
-        <v>83680</v>
-      </c>
-      <c r="F21" s="37">
-        <v>9.4E-2</v>
-      </c>
-      <c r="G21" s="36">
-        <v>399052</v>
-      </c>
-      <c r="H21" s="37">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="I21" s="36">
-        <v>894826</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="36">
-        <v>1710790</v>
-      </c>
-      <c r="D22" s="37">
-        <v>0.64800000000000002</v>
-      </c>
-      <c r="E22" s="36">
-        <v>167577</v>
-      </c>
-      <c r="F22" s="37">
-        <v>6.3E-2</v>
-      </c>
-      <c r="G22" s="36">
-        <v>761972</v>
-      </c>
-      <c r="H22" s="37">
-        <v>0.28899999999999998</v>
-      </c>
-      <c r="I22" s="36">
-        <v>2640339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="36">
-        <v>261405</v>
-      </c>
-      <c r="D23" s="37">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="E23" s="36">
-        <v>25982</v>
-      </c>
-      <c r="F23" s="37">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="G23" s="36">
-        <v>165804</v>
-      </c>
-      <c r="H23" s="37">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="I23" s="36">
-        <v>453191</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="36">
-        <v>66912</v>
-      </c>
-      <c r="D24" s="37">
-        <v>0.502</v>
-      </c>
-      <c r="E24" s="36">
-        <v>9329</v>
-      </c>
-      <c r="F24" s="37">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G24" s="36">
-        <v>57016</v>
-      </c>
-      <c r="H24" s="37">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="I24" s="36">
-        <v>133257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="36">
-        <v>1196345</v>
-      </c>
-      <c r="D25" s="37">
-        <v>0.71299999999999997</v>
-      </c>
-      <c r="E25" s="36">
-        <v>82759</v>
-      </c>
-      <c r="F25" s="37">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G25" s="36">
-        <v>398617</v>
-      </c>
-      <c r="H25" s="37">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="I25" s="36">
-        <v>1677721</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="36">
-        <v>6484166</v>
-      </c>
-      <c r="D26" s="37">
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="E26" s="36">
-        <v>945793</v>
-      </c>
-      <c r="F26" s="37">
-        <v>8.7999999999999995E-2</v>
-      </c>
-      <c r="G26" s="36">
-        <v>3298607</v>
-      </c>
-      <c r="H26" s="37">
-        <v>0.307</v>
-      </c>
-      <c r="I26" s="36">
-        <v>10728566</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="36">
-        <v>282087</v>
-      </c>
-      <c r="D27" s="37">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="E27" s="36">
-        <v>58317</v>
-      </c>
-      <c r="F27" s="37">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="G27" s="36">
-        <v>251801</v>
-      </c>
-      <c r="H27" s="37">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="I27" s="36">
-        <v>592205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="36">
-        <v>209868</v>
-      </c>
-      <c r="D28" s="37">
-        <v>0.53</v>
-      </c>
-      <c r="E28" s="36">
-        <v>28651</v>
-      </c>
-      <c r="F28" s="37">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="G28" s="36">
-        <v>157817</v>
-      </c>
-      <c r="H28" s="37">
-        <v>0.39800000000000002</v>
-      </c>
-      <c r="I28" s="36">
-        <v>396336</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -5500,7 +3123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -6649,7 +4272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
@@ -7798,7 +5421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -9341,6 +6964,1532 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="24">
+        <v>23854</v>
+      </c>
+      <c r="D2" s="25">
+        <f t="shared" ref="D2:D28" si="0">C2/O2</f>
+        <v>0.10956475408330119</v>
+      </c>
+      <c r="E2" s="26">
+        <v>8231</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="shared" ref="F2:F28" si="1">E2/O2</f>
+        <v>3.7806132760109502E-2</v>
+      </c>
+      <c r="G2" s="27">
+        <v>51069</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/O2</f>
+        <v>0.23456705065314445</v>
+      </c>
+      <c r="I2" s="26">
+        <v>81141</v>
+      </c>
+      <c r="J2" s="25">
+        <f t="shared" ref="J2:J28" si="2">I2/O2</f>
+        <v>0.37269194730750149</v>
+      </c>
+      <c r="K2" s="26">
+        <v>13608</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="shared" ref="L2:L28" si="3">K2/O2</f>
+        <v>6.2503444854764917E-2</v>
+      </c>
+      <c r="M2" s="27">
+        <v>39813</v>
+      </c>
+      <c r="N2" s="28">
+        <f>M2/O2</f>
+        <v>0.18286667034117843</v>
+      </c>
+      <c r="O2" s="29">
+        <f>SUM(C2,E2,I2,K2,G2,M2)</f>
+        <v>217716</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="24">
+        <v>86746</v>
+      </c>
+      <c r="D3" s="25">
+        <f t="shared" si="0"/>
+        <v>9.5764634449258965E-2</v>
+      </c>
+      <c r="E3" s="26">
+        <v>26332</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" si="1"/>
+        <v>2.9069632655314218E-2</v>
+      </c>
+      <c r="G3" s="27">
+        <v>205204</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H28" si="4">G3/O3</f>
+        <v>0.22653823862225045</v>
+      </c>
+      <c r="I3" s="26">
+        <v>297361</v>
+      </c>
+      <c r="J3" s="25">
+        <f t="shared" si="2"/>
+        <v>0.32827643308586096</v>
+      </c>
+      <c r="K3" s="26">
+        <v>81963</v>
+      </c>
+      <c r="L3" s="25">
+        <f t="shared" si="3"/>
+        <v>9.0484365081555482E-2</v>
+      </c>
+      <c r="M3" s="27">
+        <v>208219</v>
+      </c>
+      <c r="N3" s="28">
+        <f t="shared" ref="N3:N28" si="5">M3/O3</f>
+        <v>0.22986669610575994</v>
+      </c>
+      <c r="O3" s="29">
+        <f t="shared" ref="O3:O28" si="6">SUM(C3,E3,I3,K3,G3,M3)</f>
+        <v>905825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="24">
+        <v>23232</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" si="0"/>
+        <v>0.10766770941953424</v>
+      </c>
+      <c r="E4" s="26">
+        <v>10839</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" si="1"/>
+        <v>5.0232881473757388E-2</v>
+      </c>
+      <c r="G4" s="27">
+        <v>53170</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="4"/>
+        <v>0.24641408874985518</v>
+      </c>
+      <c r="I4" s="26">
+        <v>73042</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" si="2"/>
+        <v>0.33851002201367164</v>
+      </c>
+      <c r="K4" s="26">
+        <v>12649</v>
+      </c>
+      <c r="L4" s="25">
+        <f t="shared" si="3"/>
+        <v>5.8621248986212487E-2</v>
+      </c>
+      <c r="M4" s="27">
+        <v>42843</v>
+      </c>
+      <c r="N4" s="28">
+        <f t="shared" si="5"/>
+        <v>0.19855404935696908</v>
+      </c>
+      <c r="O4" s="29">
+        <f t="shared" si="6"/>
+        <v>215775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="24">
+        <v>151102</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14072717078799654</v>
+      </c>
+      <c r="E5" s="26">
+        <v>38872</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="1"/>
+        <v>3.6203005803172698E-2</v>
+      </c>
+      <c r="G5" s="27">
+        <v>238564</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2221839338451351</v>
+      </c>
+      <c r="I5" s="26">
+        <v>399725</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="2"/>
+        <v>0.37227944264954743</v>
+      </c>
+      <c r="K5" s="26">
+        <v>73352</v>
+      </c>
+      <c r="L5" s="25">
+        <f t="shared" si="3"/>
+        <v>6.8315571148238413E-2</v>
+      </c>
+      <c r="M5" s="27">
+        <v>172108</v>
+      </c>
+      <c r="N5" s="28">
+        <f t="shared" si="5"/>
+        <v>0.16029087576590983</v>
+      </c>
+      <c r="O5" s="29">
+        <f t="shared" si="6"/>
+        <v>1073723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="24">
+        <v>460470</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12381437657887059</v>
+      </c>
+      <c r="E6" s="26">
+        <v>155613</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="1"/>
+        <v>4.1842305866978936E-2</v>
+      </c>
+      <c r="G6" s="27">
+        <v>782415</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.21038118759301808</v>
+      </c>
+      <c r="I6" s="26">
+        <v>1511111</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="2"/>
+        <v>0.40631803680255763</v>
+      </c>
+      <c r="K6" s="26">
+        <v>260814</v>
+      </c>
+      <c r="L6" s="25">
+        <f t="shared" si="3"/>
+        <v>7.0129482513609037E-2</v>
+      </c>
+      <c r="M6" s="27">
+        <v>548612</v>
+      </c>
+      <c r="N6" s="28">
+        <f t="shared" si="5"/>
+        <v>0.14751461064496571</v>
+      </c>
+      <c r="O6" s="29">
+        <f t="shared" si="6"/>
+        <v>3719035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="24">
+        <v>240938</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.10473379468632633</v>
+      </c>
+      <c r="E7" s="26">
+        <v>48828</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="1"/>
+        <v>2.1225135623869802E-2</v>
+      </c>
+      <c r="G7" s="27">
+        <v>500708</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.21765370705244122</v>
+      </c>
+      <c r="I7" s="26">
+        <v>967554</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="2"/>
+        <v>0.42058787731256086</v>
+      </c>
+      <c r="K7" s="26">
+        <v>135270</v>
+      </c>
+      <c r="L7" s="25">
+        <f t="shared" si="3"/>
+        <v>5.8800772012797327E-2</v>
+      </c>
+      <c r="M7" s="27">
+        <v>407182</v>
+      </c>
+      <c r="N7" s="28">
+        <f t="shared" si="5"/>
+        <v>0.17699871331200445</v>
+      </c>
+      <c r="O7" s="29">
+        <f t="shared" si="6"/>
+        <v>2300480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="24">
+        <v>108250</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.15241541472480746</v>
+      </c>
+      <c r="E8" s="26">
+        <v>39035</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="1"/>
+        <v>5.4961068949495234E-2</v>
+      </c>
+      <c r="G8" s="27">
+        <v>153395</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="4"/>
+        <v>0.21597933063937033</v>
+      </c>
+      <c r="I8" s="26">
+        <v>293668</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41348295622544812</v>
+      </c>
+      <c r="K8" s="26">
+        <v>48181</v>
+      </c>
+      <c r="L8" s="25">
+        <f t="shared" si="3"/>
+        <v>6.7838587499824007E-2</v>
+      </c>
+      <c r="M8" s="27">
+        <v>67701</v>
+      </c>
+      <c r="N8" s="28">
+        <f t="shared" si="5"/>
+        <v>9.5322641961054874E-2</v>
+      </c>
+      <c r="O8" s="29">
+        <f t="shared" si="6"/>
+        <v>710230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24">
+        <v>138703</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.15314841825507328</v>
+      </c>
+      <c r="E9" s="26">
+        <v>35265</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="1"/>
+        <v>3.893772283054555E-2</v>
+      </c>
+      <c r="G9" s="27">
+        <v>151636</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16742834365894244</v>
+      </c>
+      <c r="I9" s="26">
+        <v>427852</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="2"/>
+        <v>0.47241124595192324</v>
+      </c>
+      <c r="K9" s="26">
+        <v>52893</v>
+      </c>
+      <c r="L9" s="25">
+        <f t="shared" si="3"/>
+        <v>5.8401615587013914E-2</v>
+      </c>
+      <c r="M9" s="27">
+        <v>99328</v>
+      </c>
+      <c r="N9" s="28">
+        <f t="shared" si="5"/>
+        <v>0.10967265371650158</v>
+      </c>
+      <c r="O9" s="29">
+        <f t="shared" si="6"/>
+        <v>905677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="24">
+        <v>245512</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>0.15283775648875064</v>
+      </c>
+      <c r="E10" s="26">
+        <v>45892</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="1"/>
+        <v>2.8568991824357848E-2</v>
+      </c>
+      <c r="G10" s="27">
+        <v>286962</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="4"/>
+        <v>0.17864148504971186</v>
+      </c>
+      <c r="I10" s="26">
+        <v>749499</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="2"/>
+        <v>0.46658308209196336</v>
+      </c>
+      <c r="K10" s="26">
+        <v>65501</v>
+      </c>
+      <c r="L10" s="25">
+        <f t="shared" si="3"/>
+        <v>4.0776116392557821E-2</v>
+      </c>
+      <c r="M10" s="27">
+        <v>212991</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" si="5"/>
+        <v>0.13259256815265846</v>
+      </c>
+      <c r="O10" s="29">
+        <f t="shared" si="6"/>
+        <v>1606357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="24">
+        <v>244559</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13597655429020683</v>
+      </c>
+      <c r="E11" s="26">
+        <v>45999</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="1"/>
+        <v>2.5575773211352775E-2</v>
+      </c>
+      <c r="G11" s="27">
+        <v>363387</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="4"/>
+        <v>0.20204577273318663</v>
+      </c>
+      <c r="I11" s="26">
+        <v>740555</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="2"/>
+        <v>0.4117538800959446</v>
+      </c>
+      <c r="K11" s="26">
+        <v>91994</v>
+      </c>
+      <c r="L11" s="25">
+        <f t="shared" si="3"/>
+        <v>5.1149322394077858E-2</v>
+      </c>
+      <c r="M11" s="27">
+        <v>312044</v>
+      </c>
+      <c r="N11" s="28">
+        <f t="shared" si="5"/>
+        <v>0.17349869727523132</v>
+      </c>
+      <c r="O11" s="29">
+        <f t="shared" si="6"/>
+        <v>1798538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="24">
+        <v>101097</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12846686574750618</v>
+      </c>
+      <c r="E12" s="26">
+        <v>19279</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="1"/>
+        <v>2.4498379820827244E-2</v>
+      </c>
+      <c r="G12" s="27">
+        <v>131079</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16656585551813965</v>
+      </c>
+      <c r="I12" s="26">
+        <v>394112</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" si="2"/>
+        <v>0.5008094542219963</v>
+      </c>
+      <c r="K12" s="26">
+        <v>29140</v>
+      </c>
+      <c r="L12" s="25">
+        <f t="shared" si="3"/>
+        <v>3.7029036152233304E-2</v>
+      </c>
+      <c r="M12" s="27">
+        <v>112243</v>
+      </c>
+      <c r="N12" s="28">
+        <f t="shared" si="5"/>
+        <v>0.14263040853929729</v>
+      </c>
+      <c r="O12" s="29">
+        <f t="shared" si="6"/>
+        <v>786950</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="24">
+        <v>91869</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14789909202137935</v>
+      </c>
+      <c r="E13" s="26">
+        <v>13909</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" si="1"/>
+        <v>2.2391976302401959E-2</v>
+      </c>
+      <c r="G13" s="27">
+        <v>96493</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.15534322879773327</v>
+      </c>
+      <c r="I13" s="26">
+        <v>314373</v>
+      </c>
+      <c r="J13" s="25">
+        <f t="shared" si="2"/>
+        <v>0.5061063172129564</v>
+      </c>
+      <c r="K13" s="26">
+        <v>20228</v>
+      </c>
+      <c r="L13" s="25">
+        <f t="shared" si="3"/>
+        <v>3.2564878614205678E-2</v>
+      </c>
+      <c r="M13" s="27">
+        <v>84288</v>
+      </c>
+      <c r="N13" s="28">
+        <f t="shared" si="5"/>
+        <v>0.13569450705132333</v>
+      </c>
+      <c r="O13" s="29">
+        <f t="shared" si="6"/>
+        <v>621160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="24">
+        <v>661257</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13327801388535612</v>
+      </c>
+      <c r="E14" s="26">
+        <v>145408</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="1"/>
+        <v>2.9307348645143814E-2</v>
+      </c>
+      <c r="G14" s="27">
+        <v>934420</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1883347045623025</v>
+      </c>
+      <c r="I14" s="26">
+        <v>2337467</v>
+      </c>
+      <c r="J14" s="25">
+        <f t="shared" si="2"/>
+        <v>0.47112236132481278</v>
+      </c>
+      <c r="K14" s="26">
+        <v>297231</v>
+      </c>
+      <c r="L14" s="25">
+        <f t="shared" si="3"/>
+        <v>5.9907656698013456E-2</v>
+      </c>
+      <c r="M14" s="27">
+        <v>585703</v>
+      </c>
+      <c r="N14" s="28">
+        <f t="shared" si="5"/>
+        <v>0.11804991488437133</v>
+      </c>
+      <c r="O14" s="29">
+        <f t="shared" si="6"/>
+        <v>4961486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="24">
+        <v>259185</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12072028348551553</v>
+      </c>
+      <c r="E15" s="26">
+        <v>52238</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="1"/>
+        <v>2.4330829981350617E-2</v>
+      </c>
+      <c r="G15" s="27">
+        <v>498646</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.23225374338375435</v>
+      </c>
+      <c r="I15" s="26">
+        <v>843181</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" si="2"/>
+        <v>0.39272739298030546</v>
+      </c>
+      <c r="K15" s="26">
+        <v>117277</v>
+      </c>
+      <c r="L15" s="25">
+        <f t="shared" si="3"/>
+        <v>5.4623966226173597E-2</v>
+      </c>
+      <c r="M15" s="27">
+        <v>376461</v>
+      </c>
+      <c r="N15" s="28">
+        <f t="shared" si="5"/>
+        <v>0.17534378394290048</v>
+      </c>
+      <c r="O15" s="29">
+        <f t="shared" si="6"/>
+        <v>2146988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="24">
+        <v>117712</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12000199813032092</v>
+      </c>
+      <c r="E16" s="26">
+        <v>26780</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="1"/>
+        <v>2.7300984690855599E-2</v>
+      </c>
+      <c r="G16" s="27">
+        <v>193698</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1974662484185716</v>
+      </c>
+      <c r="I16" s="26">
+        <v>400455</v>
+      </c>
+      <c r="J16" s="25">
+        <f t="shared" si="2"/>
+        <v>0.40824554982735545</v>
+      </c>
+      <c r="K16" s="26">
+        <v>61033</v>
+      </c>
+      <c r="L16" s="25">
+        <f t="shared" si="3"/>
+        <v>6.222035095731851E-2</v>
+      </c>
+      <c r="M16" s="27">
+        <v>181239</v>
+      </c>
+      <c r="N16" s="28">
+        <f t="shared" si="5"/>
+        <v>0.18476486797557795</v>
+      </c>
+      <c r="O16" s="29">
+        <f t="shared" si="6"/>
+        <v>980917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="24">
+        <v>393165</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="0"/>
+        <v>0.15116288905224889</v>
+      </c>
+      <c r="E17" s="26">
+        <v>57648</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="1"/>
+        <v>2.2164328534035438E-2</v>
+      </c>
+      <c r="G17" s="27">
+        <v>431319</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16583222347647156</v>
+      </c>
+      <c r="I17" s="26">
+        <v>1301342</v>
+      </c>
+      <c r="J17" s="25">
+        <f t="shared" si="2"/>
+        <v>0.50033603287431905</v>
+      </c>
+      <c r="K17" s="26">
+        <v>106299</v>
+      </c>
+      <c r="L17" s="25">
+        <f t="shared" si="3"/>
+        <v>4.0869517742843343E-2</v>
+      </c>
+      <c r="M17" s="27">
+        <v>311163</v>
+      </c>
+      <c r="N17" s="28">
+        <f t="shared" si="5"/>
+        <v>0.1196350083200817</v>
+      </c>
+      <c r="O17" s="29">
+        <f t="shared" si="6"/>
+        <v>2600936</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="24">
+        <v>214407</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="0"/>
+        <v>9.425121524709805E-2</v>
+      </c>
+      <c r="E18" s="26">
+        <v>52532</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="1"/>
+        <v>2.3092552199137875E-2</v>
+      </c>
+      <c r="G18" s="27">
+        <v>492680</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="4"/>
+        <v>0.21657729797973138</v>
+      </c>
+      <c r="I18" s="26">
+        <v>923325</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" si="2"/>
+        <v>0.40588461812360044</v>
+      </c>
+      <c r="K18" s="26">
+        <v>155763</v>
+      </c>
+      <c r="L18" s="25">
+        <f t="shared" si="3"/>
+        <v>6.8471887767347764E-2</v>
+      </c>
+      <c r="M18" s="27">
+        <v>436139</v>
+      </c>
+      <c r="N18" s="28">
+        <f t="shared" si="5"/>
+        <v>0.19172242868308448</v>
+      </c>
+      <c r="O18" s="29">
+        <f t="shared" si="6"/>
+        <v>2274846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24">
+        <v>121080</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14724302395435321</v>
+      </c>
+      <c r="E19" s="26">
+        <v>20181</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="1"/>
+        <v>2.4541720072867541E-2</v>
+      </c>
+      <c r="G19" s="27">
+        <v>178813</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="4"/>
+        <v>0.2174509980372461</v>
+      </c>
+      <c r="I19" s="26">
+        <v>349208</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" si="2"/>
+        <v>0.42466503063306715</v>
+      </c>
+      <c r="K19" s="26">
+        <v>30831</v>
+      </c>
+      <c r="L19" s="25">
+        <f t="shared" si="3"/>
+        <v>3.7492977135254901E-2</v>
+      </c>
+      <c r="M19" s="27">
+        <v>122201</v>
+      </c>
+      <c r="N19" s="28">
+        <f t="shared" si="5"/>
+        <v>0.14860625016721107</v>
+      </c>
+      <c r="O19" s="29">
+        <f t="shared" si="6"/>
+        <v>822314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="24">
+        <v>345135</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="0"/>
+        <v>9.4581244339334375E-2</v>
+      </c>
+      <c r="E20" s="26">
+        <v>91299</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="1"/>
+        <v>2.5019696718492444E-2</v>
+      </c>
+      <c r="G20" s="27">
+        <v>927196</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="4"/>
+        <v>0.25408999790358405</v>
+      </c>
+      <c r="I20" s="26">
+        <v>1526659</v>
+      </c>
+      <c r="J20" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41836761818373647</v>
+      </c>
+      <c r="K20" s="26">
+        <v>242121</v>
+      </c>
+      <c r="L20" s="25">
+        <f t="shared" si="3"/>
+        <v>6.635115378238654E-2</v>
+      </c>
+      <c r="M20" s="27">
+        <v>516675</v>
+      </c>
+      <c r="N20" s="28">
+        <f t="shared" si="5"/>
+        <v>0.14159028907246612</v>
+      </c>
+      <c r="O20" s="29">
+        <f t="shared" si="6"/>
+        <v>3649085</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="24">
+        <v>91754</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="0"/>
+        <v>0.10043499867551989</v>
+      </c>
+      <c r="E21" s="26">
+        <v>33056</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="1"/>
+        <v>3.6183483185670218E-2</v>
+      </c>
+      <c r="G21" s="27">
+        <v>184874</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="4"/>
+        <v>0.20236523688491034</v>
+      </c>
+      <c r="I21" s="26">
+        <v>375821</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41137805040905639</v>
+      </c>
+      <c r="K21" s="26">
+        <v>82994</v>
+      </c>
+      <c r="L21" s="25">
+        <f t="shared" si="3"/>
+        <v>9.0846200493450935E-2</v>
+      </c>
+      <c r="M21" s="27">
+        <v>145067</v>
+      </c>
+      <c r="N21" s="28">
+        <f t="shared" si="5"/>
+        <v>0.15879203035139225</v>
+      </c>
+      <c r="O21" s="29">
+        <f t="shared" si="6"/>
+        <v>913566</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="24">
+        <v>426028</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="0"/>
+        <v>0.17313397413077014</v>
+      </c>
+      <c r="E22" s="26">
+        <v>61417</v>
+      </c>
+      <c r="F22" s="25">
+        <f t="shared" si="1"/>
+        <v>2.4959320254043186E-2</v>
+      </c>
+      <c r="G22" s="27">
+        <v>429925</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="4"/>
+        <v>0.17471768012471328</v>
+      </c>
+      <c r="I22" s="26">
+        <v>1159339</v>
+      </c>
+      <c r="J22" s="25">
+        <f t="shared" si="2"/>
+        <v>0.47114501496331912</v>
+      </c>
+      <c r="K22" s="26">
+        <v>112276</v>
+      </c>
+      <c r="L22" s="25">
+        <f t="shared" si="3"/>
+        <v>4.5627963606867036E-2</v>
+      </c>
+      <c r="M22" s="27">
+        <v>271699</v>
+      </c>
+      <c r="N22" s="28">
+        <f t="shared" si="5"/>
+        <v>0.11041604692028721</v>
+      </c>
+      <c r="O22" s="29">
+        <f t="shared" si="6"/>
+        <v>2460684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="24">
+        <v>64730</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14301116605025826</v>
+      </c>
+      <c r="E23" s="26">
+        <v>6297</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" si="1"/>
+        <v>1.3912271166668875E-2</v>
+      </c>
+      <c r="G23" s="27">
+        <v>82108</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="4"/>
+        <v>0.18140523438984407</v>
+      </c>
+      <c r="I23" s="26">
+        <v>203511</v>
+      </c>
+      <c r="J23" s="25">
+        <f t="shared" si="2"/>
+        <v>0.44962684094012223</v>
+      </c>
+      <c r="K23" s="26">
+        <v>18139</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" si="3"/>
+        <v>4.0075382990663294E-2</v>
+      </c>
+      <c r="M23" s="27">
+        <v>77837</v>
+      </c>
+      <c r="N23" s="28">
+        <f t="shared" si="5"/>
+        <v>0.17196910446244326</v>
+      </c>
+      <c r="O23" s="29">
+        <f t="shared" si="6"/>
+        <v>452622</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="24">
+        <v>20340</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="0"/>
+        <v>0.1434222494870222</v>
+      </c>
+      <c r="E24" s="26">
+        <v>6083</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" si="1"/>
+        <v>4.2892701260056836E-2</v>
+      </c>
+      <c r="G24" s="27">
+        <v>26999</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="4"/>
+        <v>0.19037646577680001</v>
+      </c>
+      <c r="I24" s="26">
+        <v>57030</v>
+      </c>
+      <c r="J24" s="25">
+        <f t="shared" si="2"/>
+        <v>0.40213229539060352</v>
+      </c>
+      <c r="K24" s="26">
+        <v>7415</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="3"/>
+        <v>5.2284954766286605E-2</v>
+      </c>
+      <c r="M24" s="27">
+        <v>23952</v>
+      </c>
+      <c r="N24" s="28">
+        <f t="shared" si="5"/>
+        <v>0.16889133331923084</v>
+      </c>
+      <c r="O24" s="29">
+        <f t="shared" si="6"/>
+        <v>141819</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="24">
+        <v>266382</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="0"/>
+        <v>0.17401091561141468</v>
+      </c>
+      <c r="E25" s="26">
+        <v>27130</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="1"/>
+        <v>1.7722354140060816E-2</v>
+      </c>
+      <c r="G25" s="27">
+        <v>253866</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="4"/>
+        <v>0.16583498548177955</v>
+      </c>
+      <c r="I25" s="26">
+        <v>802623</v>
+      </c>
+      <c r="J25" s="25">
+        <f t="shared" si="2"/>
+        <v>0.52430405628300891</v>
+      </c>
+      <c r="K25" s="26">
+        <v>46594</v>
+      </c>
+      <c r="L25" s="25">
+        <f t="shared" si="3"/>
+        <v>3.0436983737633382E-2</v>
+      </c>
+      <c r="M25" s="27">
+        <v>134240</v>
+      </c>
+      <c r="N25" s="28">
+        <f t="shared" si="5"/>
+        <v>8.7690704746102618E-2</v>
+      </c>
+      <c r="O25" s="29">
+        <f t="shared" si="6"/>
+        <v>1530835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="24">
+        <v>1414871</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="0"/>
+        <v>0.13845919132851328</v>
+      </c>
+      <c r="E26" s="26">
+        <v>371269</v>
+      </c>
+      <c r="F26" s="25">
+        <f t="shared" si="1"/>
+        <v>3.6332362106047685E-2</v>
+      </c>
+      <c r="G26" s="27">
+        <v>1747774</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="4"/>
+        <v>0.1710370589721614</v>
+      </c>
+      <c r="I26" s="26">
+        <v>4804936</v>
+      </c>
+      <c r="J26" s="25">
+        <f t="shared" si="2"/>
+        <v>0.47021074920982991</v>
+      </c>
+      <c r="K26" s="26">
+        <v>720247</v>
+      </c>
+      <c r="L26" s="25">
+        <f t="shared" si="3"/>
+        <v>7.0483328287022418E-2</v>
+      </c>
+      <c r="M26" s="27">
+        <v>1159589</v>
+      </c>
+      <c r="N26" s="28">
+        <f t="shared" si="5"/>
+        <v>0.11347731009642531</v>
+      </c>
+      <c r="O26" s="29">
+        <f t="shared" si="6"/>
+        <v>10218686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="24">
+        <v>72644</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12656212161072095</v>
+      </c>
+      <c r="E27" s="26">
+        <v>19886</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" si="1"/>
+        <v>3.4645866834849361E-2</v>
+      </c>
+      <c r="G27" s="27">
+        <v>119288</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="4"/>
+        <v>0.20782641873657398</v>
+      </c>
+      <c r="I27" s="26">
+        <v>235660</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" si="2"/>
+        <v>0.41057251223476815</v>
+      </c>
+      <c r="K27" s="26">
+        <v>37944</v>
+      </c>
+      <c r="L27" s="25">
+        <f t="shared" si="3"/>
+        <v>6.6106948163608778E-2</v>
+      </c>
+      <c r="M27" s="27">
+        <v>88557</v>
+      </c>
+      <c r="N27" s="28">
+        <f t="shared" si="5"/>
+        <v>0.15428613241947875</v>
+      </c>
+      <c r="O27" s="29">
+        <f t="shared" si="6"/>
+        <v>573979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="24">
+        <v>53314</v>
+      </c>
+      <c r="D28" s="25">
+        <f t="shared" si="0"/>
+        <v>0.14333878218226401</v>
+      </c>
+      <c r="E28" s="26">
+        <v>11223</v>
+      </c>
+      <c r="F28" s="25">
+        <f t="shared" si="1"/>
+        <v>3.0173897145806896E-2</v>
+      </c>
+      <c r="G28" s="27">
+        <v>69895</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="4"/>
+        <v>0.18791807368851224</v>
+      </c>
+      <c r="I28" s="26">
+        <v>160717</v>
+      </c>
+      <c r="J28" s="25">
+        <f t="shared" si="2"/>
+        <v>0.43209999354741574</v>
+      </c>
+      <c r="K28" s="26">
+        <v>18375</v>
+      </c>
+      <c r="L28" s="25">
+        <f t="shared" si="3"/>
+        <v>4.9402598240595355E-2</v>
+      </c>
+      <c r="M28" s="27">
+        <v>58420</v>
+      </c>
+      <c r="N28" s="28">
+        <f t="shared" si="5"/>
+        <v>0.15706665519540575</v>
+      </c>
+      <c r="O28" s="29">
+        <f t="shared" si="6"/>
+        <v>371944</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
@@ -9406,50 +8555,50 @@
         <v>2</v>
       </c>
       <c r="C2" s="24">
-        <v>23854</v>
+        <v>26479</v>
       </c>
       <c r="D2" s="25">
         <f t="shared" ref="D2:D28" si="0">C2/O2</f>
-        <v>0.10956475408330119</v>
+        <v>0.12024485829371188</v>
       </c>
       <c r="E2" s="26">
-        <v>8231</v>
+        <v>8190</v>
       </c>
       <c r="F2" s="25">
         <f t="shared" ref="F2:F28" si="1">E2/O2</f>
-        <v>3.7806132760109502E-2</v>
+        <v>3.7191940383908016E-2</v>
       </c>
       <c r="G2" s="27">
-        <v>51069</v>
+        <v>53136</v>
       </c>
       <c r="H2" s="3">
         <f>G2/O2</f>
-        <v>0.23456705065314445</v>
+        <v>0.24129803958966256</v>
       </c>
       <c r="I2" s="26">
-        <v>81141</v>
+        <v>79966</v>
       </c>
       <c r="J2" s="25">
         <f t="shared" ref="J2:J28" si="2">I2/O2</f>
-        <v>0.37269194730750149</v>
+        <v>0.36313683818554193</v>
       </c>
       <c r="K2" s="26">
-        <v>13608</v>
+        <v>10106</v>
       </c>
       <c r="L2" s="25">
         <f t="shared" ref="L2:L28" si="3">K2/O2</f>
-        <v>6.2503444854764917E-2</v>
+        <v>4.5892765509129962E-2</v>
       </c>
       <c r="M2" s="27">
-        <v>39813</v>
+        <v>42332</v>
       </c>
       <c r="N2" s="28">
         <f>M2/O2</f>
-        <v>0.18286667034117843</v>
+        <v>0.19223555803804568</v>
       </c>
       <c r="O2" s="29">
         <f>SUM(C2,E2,I2,K2,G2,M2)</f>
-        <v>217716</v>
+        <v>220209</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -9460,50 +8609,50 @@
         <v>4</v>
       </c>
       <c r="C3" s="24">
-        <v>86746</v>
+        <v>86566</v>
       </c>
       <c r="D3" s="25">
         <f t="shared" si="0"/>
-        <v>9.5764634449258965E-2</v>
+        <v>0.10199786969308498</v>
       </c>
       <c r="E3" s="26">
-        <v>26332</v>
+        <v>31478</v>
       </c>
       <c r="F3" s="25">
         <f t="shared" si="1"/>
-        <v>2.9069632655314218E-2</v>
+        <v>3.7089491742704171E-2</v>
       </c>
       <c r="G3" s="27">
-        <v>205204</v>
+        <v>182207</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H28" si="4">G3/O3</f>
-        <v>0.22653823862225045</v>
+        <v>0.21468851330970515</v>
       </c>
       <c r="I3" s="26">
-        <v>297361</v>
+        <v>297230</v>
       </c>
       <c r="J3" s="25">
         <f t="shared" si="2"/>
-        <v>0.32827643308586096</v>
+        <v>0.35021632983937862</v>
       </c>
       <c r="K3" s="26">
-        <v>81963</v>
+        <v>63564</v>
       </c>
       <c r="L3" s="25">
         <f t="shared" si="3"/>
-        <v>9.0484365081555482E-2</v>
+        <v>7.4895369881607721E-2</v>
       </c>
       <c r="M3" s="27">
-        <v>208219</v>
+        <v>187659</v>
       </c>
       <c r="N3" s="28">
         <f t="shared" ref="N3:N28" si="5">M3/O3</f>
-        <v>0.22986669610575994</v>
+        <v>0.22111242553351934</v>
       </c>
       <c r="O3" s="29">
         <f t="shared" ref="O3:O28" si="6">SUM(C3,E3,I3,K3,G3,M3)</f>
-        <v>905825</v>
+        <v>848704</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -9514,50 +8663,50 @@
         <v>6</v>
       </c>
       <c r="C4" s="24">
-        <v>23232</v>
+        <v>18674</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" si="0"/>
-        <v>0.10766770941953424</v>
+        <v>8.6804135212524641E-2</v>
       </c>
       <c r="E4" s="26">
-        <v>10839</v>
+        <v>9207</v>
       </c>
       <c r="F4" s="25">
         <f t="shared" si="1"/>
-        <v>5.0232881473757388E-2</v>
+        <v>4.279777620765312E-2</v>
       </c>
       <c r="G4" s="27">
-        <v>53170</v>
+        <v>56784</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="4"/>
-        <v>0.24641408874985518</v>
+        <v>0.26395448291249862</v>
       </c>
       <c r="I4" s="26">
-        <v>73042</v>
+        <v>68292</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" si="2"/>
-        <v>0.33851002201367164</v>
+        <v>0.31744821687553454</v>
       </c>
       <c r="K4" s="26">
-        <v>12649</v>
+        <v>18933</v>
       </c>
       <c r="L4" s="25">
         <f t="shared" si="3"/>
-        <v>5.8621248986212487E-2</v>
+        <v>8.8008069614369119E-2</v>
       </c>
       <c r="M4" s="27">
-        <v>42843</v>
+        <v>43238</v>
       </c>
       <c r="N4" s="28">
         <f t="shared" si="5"/>
-        <v>0.19855404935696908</v>
+        <v>0.20098731917741997</v>
       </c>
       <c r="O4" s="29">
         <f t="shared" si="6"/>
-        <v>215775</v>
+        <v>215128</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -9568,50 +8717,50 @@
         <v>8</v>
       </c>
       <c r="C5" s="24">
-        <v>151102</v>
+        <v>149141</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="0"/>
-        <v>0.14072717078799654</v>
+        <v>0.14233198039011719</v>
       </c>
       <c r="E5" s="26">
-        <v>38872</v>
+        <v>33475</v>
       </c>
       <c r="F5" s="25">
         <f t="shared" si="1"/>
-        <v>3.6203005803172698E-2</v>
+        <v>3.194670173566741E-2</v>
       </c>
       <c r="G5" s="27">
-        <v>238564</v>
+        <v>241928</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="4"/>
-        <v>0.2221839338451351</v>
+        <v>0.23088279783440013</v>
       </c>
       <c r="I5" s="26">
-        <v>399725</v>
+        <v>378736</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="2"/>
-        <v>0.37227944264954743</v>
+        <v>0.36144484028557822</v>
       </c>
       <c r="K5" s="26">
-        <v>73352</v>
+        <v>55196</v>
       </c>
       <c r="L5" s="25">
         <f t="shared" si="3"/>
-        <v>6.8315571148238413E-2</v>
+        <v>5.2676031336875227E-2</v>
       </c>
       <c r="M5" s="27">
-        <v>172108</v>
+        <v>189363</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" si="5"/>
-        <v>0.16029087576590983</v>
+        <v>0.18071764841736182</v>
       </c>
       <c r="O5" s="29">
         <f t="shared" si="6"/>
-        <v>1073723</v>
+        <v>1047839</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -9622,50 +8771,50 @@
         <v>10</v>
       </c>
       <c r="C6" s="24">
-        <v>460470</v>
+        <v>469335</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="0"/>
-        <v>0.12381437657887059</v>
+        <v>0.12763657427551997</v>
       </c>
       <c r="E6" s="26">
-        <v>155613</v>
+        <v>108821</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" si="1"/>
-        <v>4.1842305866978936E-2</v>
+        <v>2.9594084500913758E-2</v>
       </c>
       <c r="G6" s="27">
-        <v>782415</v>
+        <v>758799</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>0.21038118759301808</v>
+        <v>0.2063568771212253</v>
       </c>
       <c r="I6" s="26">
-        <v>1511111</v>
+        <v>1462098</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="2"/>
-        <v>0.40631803680255763</v>
+        <v>0.39762042032895312</v>
       </c>
       <c r="K6" s="26">
-        <v>260814</v>
+        <v>254152</v>
       </c>
       <c r="L6" s="25">
         <f t="shared" si="3"/>
-        <v>7.0129482513609037E-2</v>
+        <v>6.9117135149247236E-2</v>
       </c>
       <c r="M6" s="27">
-        <v>548612</v>
+        <v>623915</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" si="5"/>
-        <v>0.14751461064496571</v>
+        <v>0.16967490862414064</v>
       </c>
       <c r="O6" s="29">
         <f t="shared" si="6"/>
-        <v>3719035</v>
+        <v>3677120</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -9676,50 +8825,50 @@
         <v>12</v>
       </c>
       <c r="C7" s="24">
-        <v>240938</v>
+        <v>239400</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>0.10473379468632633</v>
+        <v>0.10206391656850369</v>
       </c>
       <c r="E7" s="26">
-        <v>48828</v>
+        <v>44492</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" si="1"/>
-        <v>2.1225135623869802E-2</v>
+        <v>1.8968369991503201E-2</v>
       </c>
       <c r="G7" s="27">
-        <v>500708</v>
+        <v>530730</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="4"/>
-        <v>0.21765370705244122</v>
+        <v>0.22626726165581437</v>
       </c>
       <c r="I7" s="26">
-        <v>967554</v>
+        <v>952062</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="2"/>
-        <v>0.42058787731256086</v>
+        <v>0.40589463883058796</v>
       </c>
       <c r="K7" s="26">
-        <v>135270</v>
+        <v>119982</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="3"/>
-        <v>5.8800772012797327E-2</v>
+        <v>5.115218395038517E-2</v>
       </c>
       <c r="M7" s="27">
-        <v>407182</v>
+        <v>458923</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" si="5"/>
-        <v>0.17699871331200445</v>
+        <v>0.1956536290032056</v>
       </c>
       <c r="O7" s="29">
         <f t="shared" si="6"/>
-        <v>2300480</v>
+        <v>2345589</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -9730,50 +8879,50 @@
         <v>14</v>
       </c>
       <c r="C8" s="24">
-        <v>108250</v>
+        <v>102632</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="0"/>
-        <v>0.15241541472480746</v>
+        <v>0.14565767494404713</v>
       </c>
       <c r="E8" s="26">
-        <v>39035</v>
+        <v>39795</v>
       </c>
       <c r="F8" s="25">
         <f t="shared" si="1"/>
-        <v>5.4961068949495234E-2</v>
+        <v>5.647797153322897E-2</v>
       </c>
       <c r="G8" s="27">
-        <v>153395</v>
+        <v>160060</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="4"/>
-        <v>0.21597933063937033</v>
+        <v>0.22716080220149842</v>
       </c>
       <c r="I8" s="26">
-        <v>293668</v>
+        <v>285439</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="2"/>
-        <v>0.41348295622544812</v>
+        <v>0.40510153829559858</v>
       </c>
       <c r="K8" s="26">
-        <v>48181</v>
+        <v>51169</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="3"/>
-        <v>6.7838587499824007E-2</v>
+        <v>7.2620211719658087E-2</v>
       </c>
       <c r="M8" s="27">
-        <v>67701</v>
+        <v>65516</v>
       </c>
       <c r="N8" s="28">
         <f t="shared" si="5"/>
-        <v>9.5322641961054874E-2</v>
+        <v>9.2981801305968823E-2</v>
       </c>
       <c r="O8" s="29">
         <f t="shared" si="6"/>
-        <v>710230</v>
+        <v>704611</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -9784,50 +8933,50 @@
         <v>16</v>
       </c>
       <c r="C9" s="24">
-        <v>138703</v>
+        <v>104545</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="0"/>
-        <v>0.15314841825507328</v>
+        <v>0.11029966439023155</v>
       </c>
       <c r="E9" s="26">
-        <v>35265</v>
+        <v>18854</v>
       </c>
       <c r="F9" s="25">
         <f t="shared" si="1"/>
-        <v>3.893772283054555E-2</v>
+        <v>1.9891815700544508E-2</v>
       </c>
       <c r="G9" s="27">
-        <v>151636</v>
+        <v>190264</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="4"/>
-        <v>0.16742834365894244</v>
+        <v>0.20073705433586508</v>
       </c>
       <c r="I9" s="26">
-        <v>427852</v>
+        <v>437643</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="2"/>
-        <v>0.47241124595192324</v>
+        <v>0.46173299557830699</v>
       </c>
       <c r="K9" s="26">
-        <v>52893</v>
+        <v>50842</v>
       </c>
       <c r="L9" s="25">
         <f t="shared" si="3"/>
-        <v>5.8401615587013914E-2</v>
+        <v>5.3640590529706371E-2</v>
       </c>
       <c r="M9" s="27">
-        <v>99328</v>
+        <v>145679</v>
       </c>
       <c r="N9" s="28">
         <f t="shared" si="5"/>
-        <v>0.10967265371650158</v>
+        <v>0.15369787946534547</v>
       </c>
       <c r="O9" s="29">
         <f t="shared" si="6"/>
-        <v>905677</v>
+        <v>947827</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -9838,50 +8987,50 @@
         <v>18</v>
       </c>
       <c r="C10" s="24">
-        <v>245512</v>
+        <v>253107</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="0"/>
-        <v>0.15283775648875064</v>
+        <v>0.1568609101771469</v>
       </c>
       <c r="E10" s="26">
-        <v>45892</v>
+        <v>39108</v>
       </c>
       <c r="F10" s="25">
         <f t="shared" si="1"/>
-        <v>2.8568991824357848E-2</v>
+        <v>2.423685032499244E-2</v>
       </c>
       <c r="G10" s="27">
-        <v>286962</v>
+        <v>309781</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="4"/>
-        <v>0.17864148504971186</v>
+        <v>0.19198413957570018</v>
       </c>
       <c r="I10" s="26">
-        <v>749499</v>
+        <v>731227</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="2"/>
-        <v>0.46658308209196336</v>
+        <v>0.45317171301506715</v>
       </c>
       <c r="K10" s="26">
-        <v>65501</v>
+        <v>72506</v>
       </c>
       <c r="L10" s="25">
         <f t="shared" si="3"/>
-        <v>4.0776116392557821E-2</v>
+        <v>4.4934976722509505E-2</v>
       </c>
       <c r="M10" s="27">
-        <v>212991</v>
+        <v>207847</v>
       </c>
       <c r="N10" s="28">
         <f t="shared" si="5"/>
-        <v>0.13259256815265846</v>
+        <v>0.12881141018458381</v>
       </c>
       <c r="O10" s="29">
         <f t="shared" si="6"/>
-        <v>1606357</v>
+        <v>1613576</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -9892,50 +9041,50 @@
         <v>20</v>
       </c>
       <c r="C11" s="24">
-        <v>244559</v>
+        <v>239201</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="0"/>
-        <v>0.13597655429020683</v>
+        <v>0.1330040496005169</v>
       </c>
       <c r="E11" s="26">
-        <v>45999</v>
+        <v>37423</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>2.5575773211352775E-2</v>
+        <v>2.0808485533923952E-2</v>
       </c>
       <c r="G11" s="27">
-        <v>363387</v>
+        <v>403566</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
-        <v>0.20204577273318663</v>
+        <v>0.22439668847990685</v>
       </c>
       <c r="I11" s="26">
-        <v>740555</v>
+        <v>693415</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="2"/>
-        <v>0.4117538800959446</v>
+        <v>0.3855627821528439</v>
       </c>
       <c r="K11" s="26">
-        <v>91994</v>
+        <v>93928</v>
       </c>
       <c r="L11" s="25">
         <f t="shared" si="3"/>
-        <v>5.1149322394077858E-2</v>
+        <v>5.22272246808222E-2</v>
       </c>
       <c r="M11" s="27">
-        <v>312044</v>
+        <v>330916</v>
       </c>
       <c r="N11" s="28">
         <f t="shared" si="5"/>
-        <v>0.17349869727523132</v>
+        <v>0.18400076955198619</v>
       </c>
       <c r="O11" s="29">
         <f t="shared" si="6"/>
-        <v>1798538</v>
+        <v>1798449</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -9946,50 +9095,50 @@
         <v>22</v>
       </c>
       <c r="C12" s="24">
-        <v>101097</v>
+        <v>119652</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="0"/>
-        <v>0.12846686574750618</v>
+        <v>0.14293103468871657</v>
       </c>
       <c r="E12" s="26">
-        <v>19279</v>
+        <v>16068</v>
       </c>
       <c r="F12" s="25">
         <f t="shared" si="1"/>
-        <v>2.4498379820827244E-2</v>
+        <v>1.9194128517519959E-2</v>
       </c>
       <c r="G12" s="27">
-        <v>131079</v>
+        <v>174133</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>0.16656585551813965</v>
+        <v>0.20801164931175647</v>
       </c>
       <c r="I12" s="26">
-        <v>394112</v>
+        <v>370570</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="2"/>
-        <v>0.5008094542219963</v>
+        <v>0.44266667940859911</v>
       </c>
       <c r="K12" s="26">
-        <v>29140</v>
+        <v>26791</v>
       </c>
       <c r="L12" s="25">
         <f t="shared" si="3"/>
-        <v>3.7029036152233304E-2</v>
+        <v>3.2003354313721512E-2</v>
       </c>
       <c r="M12" s="27">
-        <v>112243</v>
+        <v>129917</v>
       </c>
       <c r="N12" s="28">
         <f t="shared" si="5"/>
-        <v>0.14263040853929729</v>
+        <v>0.15519315375968637</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="6"/>
-        <v>786950</v>
+        <v>837131</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -10000,50 +9149,50 @@
         <v>24</v>
       </c>
       <c r="C13" s="24">
-        <v>91869</v>
+        <v>92299</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" si="0"/>
-        <v>0.14789909202137935</v>
+        <v>0.14470534192690654</v>
       </c>
       <c r="E13" s="26">
-        <v>13909</v>
+        <v>12715</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" si="1"/>
-        <v>2.2391976302401959E-2</v>
+        <v>1.9934435070809182E-2</v>
       </c>
       <c r="G13" s="27">
-        <v>96493</v>
+        <v>101728</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
-        <v>0.15534322879773327</v>
+        <v>0.15948802287717473</v>
       </c>
       <c r="I13" s="26">
-        <v>314373</v>
+        <v>321592</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="2"/>
-        <v>0.5061063172129564</v>
+        <v>0.50418834787980071</v>
       </c>
       <c r="K13" s="26">
-        <v>20228</v>
+        <v>15998</v>
       </c>
       <c r="L13" s="25">
         <f t="shared" si="3"/>
-        <v>3.2564878614205678E-2</v>
+        <v>2.5081485824837223E-2</v>
       </c>
       <c r="M13" s="27">
-        <v>84288</v>
+        <v>93509</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="5"/>
-        <v>0.13569450705132333</v>
+        <v>0.14660236642047156</v>
       </c>
       <c r="O13" s="29">
         <f t="shared" si="6"/>
-        <v>621160</v>
+        <v>637841</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -10054,50 +9203,50 @@
         <v>26</v>
       </c>
       <c r="C14" s="24">
-        <v>661257</v>
+        <v>691997</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="0"/>
-        <v>0.13327801388535612</v>
+        <v>0.13909708314966207</v>
       </c>
       <c r="E14" s="26">
-        <v>145408</v>
+        <v>141546</v>
       </c>
       <c r="F14" s="25">
         <f t="shared" si="1"/>
-        <v>2.9307348645143814E-2</v>
+        <v>2.845190908559151E-2</v>
       </c>
       <c r="G14" s="27">
-        <v>934420</v>
+        <v>941242</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
-        <v>0.1883347045623025</v>
+        <v>0.18919737619954166</v>
       </c>
       <c r="I14" s="26">
-        <v>2337467</v>
+        <v>2320511</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="2"/>
-        <v>0.47112236132481278</v>
+        <v>0.46644177867347042</v>
       </c>
       <c r="K14" s="26">
-        <v>297231</v>
+        <v>237787</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="3"/>
-        <v>5.9907656698013456E-2</v>
+        <v>4.7797140899322826E-2</v>
       </c>
       <c r="M14" s="27">
-        <v>585703</v>
+        <v>641838</v>
       </c>
       <c r="N14" s="28">
         <f t="shared" si="5"/>
-        <v>0.11804991488437133</v>
+        <v>0.12901471199241155</v>
       </c>
       <c r="O14" s="29">
         <f t="shared" si="6"/>
-        <v>4961486</v>
+        <v>4974921</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -10108,50 +9257,50 @@
         <v>28</v>
       </c>
       <c r="C15" s="24">
-        <v>259185</v>
+        <v>258593</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
-        <v>0.12072028348551553</v>
+        <v>0.12064628221170309</v>
       </c>
       <c r="E15" s="26">
-        <v>52238</v>
+        <v>57612</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>2.4330829981350617E-2</v>
+        <v>2.6878815786895386E-2</v>
       </c>
       <c r="G15" s="27">
-        <v>498646</v>
+        <v>478854</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>0.23225374338375435</v>
+        <v>0.22340881161594814</v>
       </c>
       <c r="I15" s="26">
-        <v>843181</v>
+        <v>856328</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="2"/>
-        <v>0.39272739298030546</v>
+        <v>0.39951889476429481</v>
       </c>
       <c r="K15" s="26">
-        <v>117277</v>
+        <v>110476</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="3"/>
-        <v>5.4623966226173597E-2</v>
+        <v>5.154245735043142E-2</v>
       </c>
       <c r="M15" s="27">
-        <v>376461</v>
+        <v>381535</v>
       </c>
       <c r="N15" s="28">
         <f t="shared" si="5"/>
-        <v>0.17534378394290048</v>
+        <v>0.17800473827072713</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="6"/>
-        <v>2146988</v>
+        <v>2143398</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -10162,50 +9311,50 @@
         <v>30</v>
       </c>
       <c r="C16" s="24">
-        <v>117712</v>
+        <v>104523</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="0"/>
-        <v>0.12000199813032092</v>
+        <v>0.10571162147182925</v>
       </c>
       <c r="E16" s="26">
-        <v>26780</v>
+        <v>25334</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="1"/>
-        <v>2.7300984690855599E-2</v>
+        <v>2.5622094834317061E-2</v>
       </c>
       <c r="G16" s="27">
-        <v>193698</v>
+        <v>226112</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>0.1974662484185716</v>
+        <v>0.22868331519606455</v>
       </c>
       <c r="I16" s="26">
-        <v>400455</v>
+        <v>379422</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="2"/>
-        <v>0.40824554982735545</v>
+        <v>0.38373673585798723</v>
       </c>
       <c r="K16" s="26">
-        <v>61033</v>
+        <v>63339</v>
       </c>
       <c r="L16" s="25">
         <f t="shared" si="3"/>
-        <v>6.222035095731851E-2</v>
+        <v>6.4059282573253662E-2</v>
       </c>
       <c r="M16" s="27">
-        <v>181239</v>
+        <v>190026</v>
       </c>
       <c r="N16" s="28">
         <f t="shared" si="5"/>
-        <v>0.18476486797557795</v>
+        <v>0.19218695006654826</v>
       </c>
       <c r="O16" s="29">
         <f t="shared" si="6"/>
-        <v>980917</v>
+        <v>988756</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -10216,50 +9365,50 @@
         <v>32</v>
       </c>
       <c r="C17" s="24">
-        <v>393165</v>
+        <v>413915</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="0"/>
-        <v>0.15116288905224889</v>
+        <v>0.15575581353780921</v>
       </c>
       <c r="E17" s="26">
-        <v>57648</v>
+        <v>62564</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>2.2164328534035438E-2</v>
+        <v>2.3542772593840511E-2</v>
       </c>
       <c r="G17" s="27">
-        <v>431319</v>
+        <v>444352</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>0.16583222347647156</v>
+        <v>0.16720922715328654</v>
       </c>
       <c r="I17" s="26">
-        <v>1301342</v>
+        <v>1315243</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="2"/>
-        <v>0.50033603287431905</v>
+        <v>0.49492466681543024</v>
       </c>
       <c r="K17" s="26">
-        <v>106299</v>
+        <v>99068</v>
       </c>
       <c r="L17" s="25">
         <f t="shared" si="3"/>
-        <v>4.0869517742843343E-2</v>
+        <v>3.7279192432174924E-2</v>
       </c>
       <c r="M17" s="27">
-        <v>311163</v>
+        <v>322319</v>
       </c>
       <c r="N17" s="28">
         <f t="shared" si="5"/>
-        <v>0.1196350083200817</v>
+        <v>0.1212883274674586</v>
       </c>
       <c r="O17" s="29">
         <f t="shared" si="6"/>
-        <v>2600936</v>
+        <v>2657461</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -10270,50 +9419,50 @@
         <v>34</v>
       </c>
       <c r="C18" s="24">
-        <v>214407</v>
+        <v>242352</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="0"/>
-        <v>9.425121524709805E-2</v>
+        <v>0.10594831373731942</v>
       </c>
       <c r="E18" s="26">
-        <v>52532</v>
+        <v>53477</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>2.3092552199137875E-2</v>
+        <v>2.3378383399892021E-2</v>
       </c>
       <c r="G18" s="27">
-        <v>492680</v>
+        <v>493489</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
-        <v>0.21657729797973138</v>
+        <v>0.2157371401841785</v>
       </c>
       <c r="I18" s="26">
-        <v>923325</v>
+        <v>909048</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="2"/>
-        <v>0.40588461812360044</v>
+        <v>0.3974058506068972</v>
       </c>
       <c r="K18" s="26">
-        <v>155763</v>
+        <v>137728</v>
       </c>
       <c r="L18" s="25">
         <f t="shared" si="3"/>
-        <v>6.8471887767347764E-2</v>
+        <v>6.0210146210526547E-2</v>
       </c>
       <c r="M18" s="27">
-        <v>436139</v>
+        <v>451361</v>
       </c>
       <c r="N18" s="28">
         <f t="shared" si="5"/>
-        <v>0.19172242868308448</v>
+        <v>0.19732016586118634</v>
       </c>
       <c r="O18" s="29">
         <f t="shared" si="6"/>
-        <v>2274846</v>
+        <v>2287455</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -10324,50 +9473,50 @@
         <v>36</v>
       </c>
       <c r="C19" s="24">
-        <v>121080</v>
+        <v>116257</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="0"/>
-        <v>0.14724302395435321</v>
+        <v>0.146662848405792</v>
       </c>
       <c r="E19" s="26">
-        <v>20181</v>
+        <v>23934</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="1"/>
-        <v>2.4541720072867541E-2</v>
+        <v>3.0193696841860924E-2</v>
       </c>
       <c r="G19" s="27">
-        <v>178813</v>
+        <v>183497</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>0.2174509980372461</v>
+        <v>0.23148879374074344</v>
       </c>
       <c r="I19" s="26">
-        <v>349208</v>
+        <v>292338</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="2"/>
-        <v>0.42466503063306715</v>
+        <v>0.36879606197693399</v>
       </c>
       <c r="K19" s="26">
-        <v>30831</v>
+        <v>37039</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="3"/>
-        <v>3.7492977135254901E-2</v>
+        <v>4.6726177710607782E-2</v>
       </c>
       <c r="M19" s="27">
-        <v>122201</v>
+        <v>139617</v>
       </c>
       <c r="N19" s="28">
         <f t="shared" si="5"/>
-        <v>0.14860625016721107</v>
+        <v>0.17613242132406184</v>
       </c>
       <c r="O19" s="29">
         <f t="shared" si="6"/>
-        <v>822314</v>
+        <v>792682</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -10378,50 +9527,50 @@
         <v>38</v>
       </c>
       <c r="C20" s="24">
-        <v>345135</v>
+        <v>347743</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="0"/>
-        <v>9.4581244339334375E-2</v>
+        <v>9.4414999404039981E-2</v>
       </c>
       <c r="E20" s="26">
-        <v>91299</v>
+        <v>75492</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="1"/>
-        <v>2.5019696718492444E-2</v>
+        <v>2.0496680407685521E-2</v>
       </c>
       <c r="G20" s="27">
-        <v>927196</v>
+        <v>955719</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>0.25408999790358405</v>
+        <v>0.25948533490373549</v>
       </c>
       <c r="I20" s="26">
-        <v>1526659</v>
+        <v>1493455</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="2"/>
-        <v>0.41836761818373647</v>
+        <v>0.40548494990542022</v>
       </c>
       <c r="K20" s="26">
-        <v>242121</v>
+        <v>235753</v>
       </c>
       <c r="L20" s="25">
         <f t="shared" si="3"/>
-        <v>6.635115378238654E-2</v>
+        <v>6.4008820751246295E-2</v>
       </c>
       <c r="M20" s="27">
-        <v>516675</v>
+        <v>574971</v>
       </c>
       <c r="N20" s="28">
         <f t="shared" si="5"/>
-        <v>0.14159028907246612</v>
+        <v>0.15610921462787253</v>
       </c>
       <c r="O20" s="29">
         <f t="shared" si="6"/>
-        <v>3649085</v>
+        <v>3683133</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -10432,50 +9581,50 @@
         <v>40</v>
       </c>
       <c r="C21" s="24">
-        <v>91754</v>
+        <v>90766</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="0"/>
-        <v>0.10043499867551989</v>
+        <v>0.10559183241371208</v>
       </c>
       <c r="E21" s="26">
-        <v>33056</v>
+        <v>38710</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="1"/>
-        <v>3.6183483185670218E-2</v>
+        <v>4.5032940007654787E-2</v>
       </c>
       <c r="G21" s="27">
-        <v>184874</v>
+        <v>171519</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>0.20236523688491034</v>
+        <v>0.19953512883422736</v>
       </c>
       <c r="I21" s="26">
-        <v>375821</v>
+        <v>331018</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" si="2"/>
-        <v>0.41137805040905639</v>
+        <v>0.38508689577509359</v>
       </c>
       <c r="K21" s="26">
-        <v>82994</v>
+        <v>80752</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" si="3"/>
-        <v>9.0846200493450935E-2</v>
+        <v>9.394213307925961E-2</v>
       </c>
       <c r="M21" s="27">
-        <v>145067</v>
+        <v>146828</v>
       </c>
       <c r="N21" s="28">
         <f t="shared" si="5"/>
-        <v>0.15879203035139225</v>
+        <v>0.17081106989005262</v>
       </c>
       <c r="O21" s="29">
         <f t="shared" si="6"/>
-        <v>913566</v>
+        <v>859593</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -10486,50 +9635,50 @@
         <v>42</v>
       </c>
       <c r="C22" s="24">
-        <v>426028</v>
+        <v>399392</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="0"/>
-        <v>0.17313397413077014</v>
+        <v>0.16366438540005762</v>
       </c>
       <c r="E22" s="26">
-        <v>61417</v>
+        <v>62257</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="1"/>
-        <v>2.4959320254043186E-2</v>
+        <v>2.5511912211189477E-2</v>
       </c>
       <c r="G22" s="27">
-        <v>429925</v>
+        <v>453656</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>0.17471768012471328</v>
+        <v>0.1859008954186577</v>
       </c>
       <c r="I22" s="26">
-        <v>1159339</v>
+        <v>1176513</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="2"/>
-        <v>0.47114501496331912</v>
+        <v>0.48211600898410079</v>
       </c>
       <c r="K22" s="26">
-        <v>112276</v>
+        <v>95409</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="3"/>
-        <v>4.5627963606867036E-2</v>
+        <v>3.9097065906763526E-2</v>
       </c>
       <c r="M22" s="27">
-        <v>271699</v>
+        <v>253084</v>
       </c>
       <c r="N22" s="28">
         <f t="shared" si="5"/>
-        <v>0.11041604692028721</v>
+        <v>0.10370973207923088</v>
       </c>
       <c r="O22" s="29">
         <f t="shared" si="6"/>
-        <v>2460684</v>
+        <v>2440311</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -10540,50 +9689,50 @@
         <v>44</v>
       </c>
       <c r="C23" s="24">
-        <v>64730</v>
+        <v>65971</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="0"/>
-        <v>0.14301116605025826</v>
+        <v>0.14436709871828818</v>
       </c>
       <c r="E23" s="26">
-        <v>6297</v>
+        <v>11444</v>
       </c>
       <c r="F23" s="25">
         <f t="shared" si="1"/>
-        <v>1.3912271166668875E-2</v>
+        <v>2.5043383876735083E-2</v>
       </c>
       <c r="G23" s="27">
-        <v>82108</v>
+        <v>84229</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
-        <v>0.18140523438984407</v>
+        <v>0.1843218438092904</v>
       </c>
       <c r="I23" s="26">
-        <v>203511</v>
+        <v>199401</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="2"/>
-        <v>0.44962684094012223</v>
+        <v>0.43635754879455191</v>
       </c>
       <c r="K23" s="26">
-        <v>18139</v>
+        <v>15084</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="3"/>
-        <v>4.0075382990663294E-2</v>
+        <v>3.3008948129733658E-2</v>
       </c>
       <c r="M23" s="27">
-        <v>77837</v>
+        <v>80838</v>
       </c>
       <c r="N23" s="28">
         <f t="shared" si="5"/>
-        <v>0.17196910446244326</v>
+        <v>0.17690117667140079</v>
       </c>
       <c r="O23" s="29">
         <f t="shared" si="6"/>
-        <v>452622</v>
+        <v>456967</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -10594,50 +9743,50 @@
         <v>46</v>
       </c>
       <c r="C24" s="24">
-        <v>20340</v>
+        <v>14387</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="0"/>
-        <v>0.1434222494870222</v>
+        <v>0.10861884125809715</v>
       </c>
       <c r="E24" s="26">
-        <v>6083</v>
+        <v>3020</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="1"/>
-        <v>4.2892701260056836E-2</v>
+        <v>2.2800368429794493E-2</v>
       </c>
       <c r="G24" s="27">
-        <v>26999</v>
+        <v>31614</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
-        <v>0.19037646577680001</v>
+        <v>0.23867908858924608</v>
       </c>
       <c r="I24" s="26">
-        <v>57030</v>
+        <v>49351</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" si="2"/>
-        <v>0.40213229539060352</v>
+        <v>0.37258972926449935</v>
       </c>
       <c r="K24" s="26">
-        <v>7415</v>
+        <v>6035</v>
       </c>
       <c r="L24" s="25">
         <f t="shared" si="3"/>
-        <v>5.2284954766286605E-2</v>
+        <v>4.5562987905235025E-2</v>
       </c>
       <c r="M24" s="27">
-        <v>23952</v>
+        <v>28047</v>
       </c>
       <c r="N24" s="28">
         <f t="shared" si="5"/>
-        <v>0.16889133331923084</v>
+        <v>0.21174898455312788</v>
       </c>
       <c r="O24" s="29">
         <f t="shared" si="6"/>
-        <v>141819</v>
+        <v>132454</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -10648,50 +9797,50 @@
         <v>48</v>
       </c>
       <c r="C25" s="24">
-        <v>266382</v>
+        <v>273386</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="0"/>
-        <v>0.17401091561141468</v>
+        <v>0.17813922938783169</v>
       </c>
       <c r="E25" s="26">
-        <v>27130</v>
+        <v>30310</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" si="1"/>
-        <v>1.7722354140060816E-2</v>
+        <v>1.975009708889694E-2</v>
       </c>
       <c r="G25" s="27">
-        <v>253866</v>
+        <v>253197</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
-        <v>0.16583498548177955</v>
+        <v>0.16498400965415502</v>
       </c>
       <c r="I25" s="26">
-        <v>802623</v>
+        <v>795975</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" si="2"/>
-        <v>0.52430405628300891</v>
+        <v>0.51865996470916331</v>
       </c>
       <c r="K25" s="26">
-        <v>46594</v>
+        <v>45793</v>
       </c>
       <c r="L25" s="25">
         <f t="shared" si="3"/>
-        <v>3.0436983737633382E-2</v>
+        <v>2.9838871527280025E-2</v>
       </c>
       <c r="M25" s="27">
-        <v>134240</v>
+        <v>136015</v>
       </c>
       <c r="N25" s="28">
         <f t="shared" si="5"/>
-        <v>8.7690704746102618E-2</v>
+        <v>8.8627827632672962E-2</v>
       </c>
       <c r="O25" s="29">
         <f t="shared" si="6"/>
-        <v>1530835</v>
+        <v>1534676</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -10702,50 +9851,50 @@
         <v>50</v>
       </c>
       <c r="C26" s="24">
-        <v>1414871</v>
+        <v>1311751</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" si="0"/>
-        <v>0.13845919132851328</v>
+        <v>0.12855122802956573</v>
       </c>
       <c r="E26" s="26">
-        <v>371269</v>
+        <v>253112</v>
       </c>
       <c r="F26" s="25">
         <f t="shared" si="1"/>
-        <v>3.6332362106047685E-2</v>
+        <v>2.4804904611484529E-2</v>
       </c>
       <c r="G26" s="27">
-        <v>1747774</v>
+        <v>1760417</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
-        <v>0.1710370589721614</v>
+        <v>0.17252036948637661</v>
       </c>
       <c r="I26" s="26">
-        <v>4804936</v>
+        <v>4986958</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" si="2"/>
-        <v>0.47021074920982991</v>
+        <v>0.48872047746246589</v>
       </c>
       <c r="K26" s="26">
-        <v>720247</v>
+        <v>571442</v>
       </c>
       <c r="L26" s="25">
         <f t="shared" si="3"/>
-        <v>7.0483328287022418E-2</v>
+        <v>5.6001154828676403E-2</v>
       </c>
       <c r="M26" s="27">
-        <v>1159589</v>
+        <v>1320431</v>
       </c>
       <c r="N26" s="28">
         <f t="shared" si="5"/>
-        <v>0.11347731009642531</v>
+        <v>0.12940186558143085</v>
       </c>
       <c r="O26" s="29">
         <f t="shared" si="6"/>
-        <v>10218686</v>
+        <v>10204111</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -10756,50 +9905,50 @@
         <v>52</v>
       </c>
       <c r="C27" s="24">
-        <v>72644</v>
+        <v>69783</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="0"/>
-        <v>0.12656212161072095</v>
+        <v>0.12107957108651143</v>
       </c>
       <c r="E27" s="26">
-        <v>19886</v>
+        <v>20252</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" si="1"/>
-        <v>3.4645866834849361E-2</v>
+        <v>3.5138980462921195E-2</v>
       </c>
       <c r="G27" s="27">
-        <v>119288</v>
+        <v>133775</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
-        <v>0.20782641873657398</v>
+        <v>0.23211125377381406</v>
       </c>
       <c r="I27" s="26">
-        <v>235660</v>
+        <v>224897</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" si="2"/>
-        <v>0.41057251223476815</v>
+        <v>0.39021584481382515</v>
       </c>
       <c r="K27" s="26">
-        <v>37944</v>
+        <v>32540</v>
       </c>
       <c r="L27" s="25">
         <f t="shared" si="3"/>
-        <v>6.6106948163608778E-2</v>
+        <v>5.6459728632404484E-2</v>
       </c>
       <c r="M27" s="27">
-        <v>88557</v>
+        <v>95093</v>
       </c>
       <c r="N27" s="28">
         <f t="shared" si="5"/>
-        <v>0.15428613241947875</v>
+        <v>0.16499462123052364</v>
       </c>
       <c r="O27" s="29">
         <f t="shared" si="6"/>
-        <v>573979</v>
+        <v>576340</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -10810,50 +9959,50 @@
         <v>54</v>
       </c>
       <c r="C28" s="24">
-        <v>53314</v>
+        <v>55567</v>
       </c>
       <c r="D28" s="25">
         <f t="shared" si="0"/>
-        <v>0.14333878218226401</v>
+        <v>0.14499269387329089</v>
       </c>
       <c r="E28" s="26">
-        <v>11223</v>
+        <v>13092</v>
       </c>
       <c r="F28" s="25">
         <f t="shared" si="1"/>
-        <v>3.0173897145806896E-2</v>
+        <v>3.4161361027032669E-2</v>
       </c>
       <c r="G28" s="27">
-        <v>69895</v>
+        <v>89314</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
-        <v>0.18791807368851224</v>
+        <v>0.23304978603486065</v>
       </c>
       <c r="I28" s="26">
-        <v>160717</v>
+        <v>148344</v>
       </c>
       <c r="J28" s="25">
         <f t="shared" si="2"/>
-        <v>0.43209999354741574</v>
+        <v>0.38707859304874231</v>
       </c>
       <c r="K28" s="26">
-        <v>18375</v>
+        <v>16764</v>
       </c>
       <c r="L28" s="25">
         <f t="shared" si="3"/>
-        <v>4.9402598240595355E-2</v>
+        <v>4.3742824339839267E-2</v>
       </c>
       <c r="M28" s="27">
-        <v>58420</v>
+        <v>60159</v>
       </c>
       <c r="N28" s="28">
         <f t="shared" si="5"/>
-        <v>0.15706665519540575</v>
+        <v>0.15697474167623421</v>
       </c>
       <c r="O28" s="29">
         <f t="shared" si="6"/>
-        <v>371944</v>
+        <v>383240</v>
       </c>
     </row>
   </sheetData>
@@ -10932,50 +10081,50 @@
         <v>2</v>
       </c>
       <c r="C2" s="24">
-        <v>26479</v>
+        <v>32805</v>
       </c>
       <c r="D2" s="25">
         <f t="shared" ref="D2:D28" si="0">C2/O2</f>
-        <v>0.12024485829371188</v>
+        <v>0.1481546715803165</v>
       </c>
       <c r="E2" s="26">
-        <v>8190</v>
+        <v>6338</v>
       </c>
       <c r="F2" s="25">
         <f t="shared" ref="F2:F28" si="1">E2/O2</f>
-        <v>3.7191940383908016E-2</v>
+        <v>2.8623816749765156E-2</v>
       </c>
       <c r="G2" s="27">
-        <v>53136</v>
+        <v>45107</v>
       </c>
       <c r="H2" s="3">
         <f>G2/O2</f>
-        <v>0.24129803958966256</v>
+        <v>0.20371323795071899</v>
       </c>
       <c r="I2" s="26">
-        <v>79966</v>
+        <v>92814</v>
       </c>
       <c r="J2" s="25">
         <f t="shared" ref="J2:J28" si="2">I2/O2</f>
-        <v>0.36313683818554193</v>
+        <v>0.41916865380446566</v>
       </c>
       <c r="K2" s="26">
-        <v>10106</v>
+        <v>9506</v>
       </c>
       <c r="L2" s="25">
         <f t="shared" ref="L2:L28" si="3">K2/O2</f>
-        <v>4.5892765509129962E-2</v>
+        <v>4.2931208902377338E-2</v>
       </c>
       <c r="M2" s="27">
-        <v>42332</v>
+        <v>34854</v>
       </c>
       <c r="N2" s="28">
         <f>M2/O2</f>
-        <v>0.19223555803804568</v>
+        <v>0.15740841101235639</v>
       </c>
       <c r="O2" s="29">
         <f>SUM(C2,E2,I2,K2,G2,M2)</f>
-        <v>220209</v>
+        <v>221424</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -10986,50 +10135,50 @@
         <v>4</v>
       </c>
       <c r="C3" s="24">
-        <v>86566</v>
+        <v>103077</v>
       </c>
       <c r="D3" s="25">
         <f t="shared" si="0"/>
-        <v>0.10199786969308498</v>
+        <v>0.11641620116148531</v>
       </c>
       <c r="E3" s="26">
-        <v>31478</v>
+        <v>29538</v>
       </c>
       <c r="F3" s="25">
         <f t="shared" si="1"/>
-        <v>3.7089491742704171E-2</v>
+        <v>3.3360514468872331E-2</v>
       </c>
       <c r="G3" s="27">
-        <v>182207</v>
+        <v>194071</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H28" si="4">G3/O3</f>
-        <v>0.21468851330970515</v>
+        <v>0.21918574052029663</v>
       </c>
       <c r="I3" s="26">
-        <v>297230</v>
+        <v>315828</v>
       </c>
       <c r="J3" s="25">
         <f t="shared" si="2"/>
-        <v>0.35021632983937862</v>
+        <v>0.35669932167631557</v>
       </c>
       <c r="K3" s="26">
-        <v>63564</v>
+        <v>57866</v>
       </c>
       <c r="L3" s="25">
         <f t="shared" si="3"/>
-        <v>7.4895369881607721E-2</v>
+        <v>6.5354442760368545E-2</v>
       </c>
       <c r="M3" s="27">
-        <v>187659</v>
+        <v>185038</v>
       </c>
       <c r="N3" s="28">
         <f t="shared" ref="N3:N28" si="5">M3/O3</f>
-        <v>0.22111242553351934</v>
+        <v>0.20898377941266158</v>
       </c>
       <c r="O3" s="29">
         <f t="shared" ref="O3:O28" si="6">SUM(C3,E3,I3,K3,G3,M3)</f>
-        <v>848704</v>
+        <v>885418</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11040,50 +10189,50 @@
         <v>6</v>
       </c>
       <c r="C4" s="24">
-        <v>18674</v>
+        <v>15454</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" si="0"/>
-        <v>8.6804135212524641E-2</v>
+        <v>7.4738242050538028E-2</v>
       </c>
       <c r="E4" s="26">
-        <v>9207</v>
+        <v>5393</v>
       </c>
       <c r="F4" s="25">
         <f t="shared" si="1"/>
-        <v>4.279777620765312E-2</v>
+        <v>2.608148954177246E-2</v>
       </c>
       <c r="G4" s="27">
-        <v>56784</v>
+        <v>64766</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="4"/>
-        <v>0.26395448291249862</v>
+        <v>0.31321968323056465</v>
       </c>
       <c r="I4" s="26">
-        <v>68292</v>
+        <v>63764</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" si="2"/>
-        <v>0.31744821687553454</v>
+        <v>0.30837383629549026</v>
       </c>
       <c r="K4" s="26">
-        <v>18933</v>
+        <v>12265</v>
       </c>
       <c r="L4" s="25">
         <f t="shared" si="3"/>
-        <v>8.8008069614369119E-2</v>
+        <v>5.931568129609479E-2</v>
       </c>
       <c r="M4" s="27">
-        <v>43238</v>
+        <v>45133</v>
       </c>
       <c r="N4" s="28">
         <f t="shared" si="5"/>
-        <v>0.20098731917741997</v>
+        <v>0.21827106758553982</v>
       </c>
       <c r="O4" s="29">
         <f t="shared" si="6"/>
-        <v>215128</v>
+        <v>206775</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -11094,50 +10243,50 @@
         <v>8</v>
       </c>
       <c r="C5" s="24">
-        <v>149141</v>
+        <v>143731</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="0"/>
-        <v>0.14233198039011719</v>
+        <v>0.14065955789383033</v>
       </c>
       <c r="E5" s="26">
-        <v>33475</v>
+        <v>27241</v>
       </c>
       <c r="F5" s="25">
         <f t="shared" si="1"/>
-        <v>3.194670173566741E-2</v>
+        <v>2.6658876766917586E-2</v>
       </c>
       <c r="G5" s="27">
-        <v>241928</v>
+        <v>237764</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="4"/>
-        <v>0.23088279783440013</v>
+        <v>0.23268313114824687</v>
       </c>
       <c r="I5" s="26">
-        <v>378736</v>
+        <v>379790</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="2"/>
-        <v>0.36144484028557822</v>
+        <v>0.37167412383200438</v>
       </c>
       <c r="K5" s="26">
-        <v>55196</v>
+        <v>47009</v>
       </c>
       <c r="L5" s="25">
         <f t="shared" si="3"/>
-        <v>5.2676031336875227E-2</v>
+        <v>4.6004446897545202E-2</v>
       </c>
       <c r="M5" s="27">
-        <v>189363</v>
+        <v>186301</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" si="5"/>
-        <v>0.18071764841736182</v>
+        <v>0.18231986346145565</v>
       </c>
       <c r="O5" s="29">
         <f t="shared" si="6"/>
-        <v>1047839</v>
+        <v>1021836</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -11148,50 +10297,50 @@
         <v>10</v>
       </c>
       <c r="C6" s="24">
-        <v>469335</v>
+        <v>489815</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="0"/>
-        <v>0.12763657427551997</v>
+        <v>0.12888650782728683</v>
       </c>
       <c r="E6" s="26">
-        <v>108821</v>
+        <v>135042</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" si="1"/>
-        <v>2.9594084500913758E-2</v>
+        <v>3.5534011392081642E-2</v>
       </c>
       <c r="G6" s="27">
-        <v>758799</v>
+        <v>759815</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>0.2063568771212253</v>
+        <v>0.19993242743646061</v>
       </c>
       <c r="I6" s="26">
-        <v>1462098</v>
+        <v>1515208</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="2"/>
-        <v>0.39762042032895312</v>
+        <v>0.39870128058954429</v>
       </c>
       <c r="K6" s="26">
-        <v>254152</v>
+        <v>251350</v>
       </c>
       <c r="L6" s="25">
         <f t="shared" si="3"/>
-        <v>6.9117135149247236E-2</v>
+        <v>6.6138488495428985E-2</v>
       </c>
       <c r="M6" s="27">
-        <v>623915</v>
+        <v>649129</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" si="5"/>
-        <v>0.16967490862414064</v>
+        <v>0.17080728425919761</v>
       </c>
       <c r="O6" s="29">
         <f t="shared" si="6"/>
-        <v>3677120</v>
+        <v>3800359</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -11202,50 +10351,50 @@
         <v>12</v>
       </c>
       <c r="C7" s="24">
-        <v>239400</v>
+        <v>283803</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>0.10206391656850369</v>
+        <v>0.12113036742062908</v>
       </c>
       <c r="E7" s="26">
-        <v>44492</v>
+        <v>45240</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" si="1"/>
-        <v>1.8968369991503201E-2</v>
+        <v>1.9308949595702861E-2</v>
       </c>
       <c r="G7" s="27">
-        <v>530730</v>
+        <v>499568</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="4"/>
-        <v>0.22626726165581437</v>
+        <v>0.21322133801118673</v>
       </c>
       <c r="I7" s="26">
-        <v>952062</v>
+        <v>999522</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="2"/>
-        <v>0.40589463883058796</v>
+        <v>0.42660742523864092</v>
       </c>
       <c r="K7" s="26">
-        <v>119982</v>
+        <v>108030</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="3"/>
-        <v>5.115218395038517E-2</v>
+        <v>4.6108439982842177E-2</v>
       </c>
       <c r="M7" s="27">
-        <v>458923</v>
+        <v>406792</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" si="5"/>
-        <v>0.1956536290032056</v>
+        <v>0.17362347975099821</v>
       </c>
       <c r="O7" s="29">
         <f t="shared" si="6"/>
-        <v>2345589</v>
+        <v>2342955</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -11256,50 +10405,50 @@
         <v>14</v>
       </c>
       <c r="C8" s="24">
-        <v>102632</v>
+        <v>103775</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="0"/>
-        <v>0.14565767494404713</v>
+        <v>0.14120815122437094</v>
       </c>
       <c r="E8" s="26">
-        <v>39795</v>
+        <v>32737</v>
       </c>
       <c r="F8" s="25">
         <f t="shared" si="1"/>
-        <v>5.647797153322897E-2</v>
+        <v>4.4545711844203625E-2</v>
       </c>
       <c r="G8" s="27">
-        <v>160060</v>
+        <v>152892</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="4"/>
-        <v>0.22716080220149842</v>
+        <v>0.2080423672078682</v>
       </c>
       <c r="I8" s="26">
-        <v>285439</v>
+        <v>319227</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="2"/>
-        <v>0.40510153829559858</v>
+        <v>0.43437681995569516</v>
       </c>
       <c r="K8" s="26">
-        <v>51169</v>
+        <v>45292</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="3"/>
-        <v>7.2620211719658087E-2</v>
+        <v>6.162948287404682E-2</v>
       </c>
       <c r="M8" s="27">
-        <v>65516</v>
+        <v>80985</v>
       </c>
       <c r="N8" s="28">
         <f t="shared" si="5"/>
-        <v>9.2981801305968823E-2</v>
+        <v>0.11019746689381528</v>
       </c>
       <c r="O8" s="29">
         <f t="shared" si="6"/>
-        <v>704611</v>
+        <v>734908</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -11310,50 +10459,50 @@
         <v>16</v>
       </c>
       <c r="C9" s="24">
-        <v>104545</v>
+        <v>123459</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="0"/>
-        <v>0.11029966439023155</v>
+        <v>0.13507637905719294</v>
       </c>
       <c r="E9" s="26">
-        <v>18854</v>
+        <v>21852</v>
       </c>
       <c r="F9" s="25">
         <f t="shared" si="1"/>
-        <v>1.9891815700544508E-2</v>
+        <v>2.3908253227045255E-2</v>
       </c>
       <c r="G9" s="27">
-        <v>190264</v>
+        <v>155145</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="4"/>
-        <v>0.20073705433586508</v>
+        <v>0.16974400269586015</v>
       </c>
       <c r="I9" s="26">
-        <v>437643</v>
+        <v>458920</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="2"/>
-        <v>0.46173299557830699</v>
+        <v>0.50210395254235807</v>
       </c>
       <c r="K9" s="26">
-        <v>50842</v>
+        <v>38253</v>
       </c>
       <c r="L9" s="25">
         <f t="shared" si="3"/>
-        <v>5.3640590529706371E-2</v>
+        <v>4.1852572336361069E-2</v>
       </c>
       <c r="M9" s="27">
-        <v>145679</v>
+        <v>116365</v>
       </c>
       <c r="N9" s="28">
         <f t="shared" si="5"/>
-        <v>0.15369787946534547</v>
+        <v>0.12731484014118255</v>
       </c>
       <c r="O9" s="29">
         <f t="shared" si="6"/>
-        <v>947827</v>
+        <v>913994</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -11364,50 +10513,50 @@
         <v>18</v>
       </c>
       <c r="C10" s="24">
-        <v>253107</v>
+        <v>257413</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="0"/>
-        <v>0.1568609101771469</v>
+        <v>0.15945273431523341</v>
       </c>
       <c r="E10" s="26">
-        <v>39108</v>
+        <v>40552</v>
       </c>
       <c r="F10" s="25">
         <f t="shared" si="1"/>
-        <v>2.423685032499244E-2</v>
+        <v>2.5119660941566063E-2</v>
       </c>
       <c r="G10" s="27">
-        <v>309781</v>
+        <v>280577</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="4"/>
-        <v>0.19198413957570018</v>
+        <v>0.17380151676863734</v>
       </c>
       <c r="I10" s="26">
-        <v>731227</v>
+        <v>753585</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="2"/>
-        <v>0.45317171301506715</v>
+        <v>0.46680310935712327</v>
       </c>
       <c r="K10" s="26">
-        <v>72506</v>
+        <v>58351</v>
       </c>
       <c r="L10" s="25">
         <f t="shared" si="3"/>
-        <v>4.4934976722509505E-2</v>
+        <v>3.6145130587919745E-2</v>
       </c>
       <c r="M10" s="27">
-        <v>207847</v>
+        <v>223875</v>
       </c>
       <c r="N10" s="28">
         <f t="shared" si="5"/>
-        <v>0.12881141018458381</v>
+        <v>0.13867784802952018</v>
       </c>
       <c r="O10" s="29">
         <f t="shared" si="6"/>
-        <v>1613576</v>
+        <v>1614353</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -11418,50 +10567,50 @@
         <v>20</v>
       </c>
       <c r="C11" s="24">
-        <v>239201</v>
+        <v>232193</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="0"/>
-        <v>0.1330040496005169</v>
+        <v>0.13045649914318622</v>
       </c>
       <c r="E11" s="26">
-        <v>37423</v>
+        <v>26875</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>2.0808485533923952E-2</v>
+        <v>1.509958704385201E-2</v>
       </c>
       <c r="G11" s="27">
-        <v>403566</v>
+        <v>342666</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
-        <v>0.22439668847990685</v>
+        <v>0.19252521279883136</v>
       </c>
       <c r="I11" s="26">
-        <v>693415</v>
+        <v>752562</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="2"/>
-        <v>0.3855627821528439</v>
+        <v>0.42282327162401329</v>
       </c>
       <c r="K11" s="26">
-        <v>93928</v>
+        <v>73909</v>
       </c>
       <c r="L11" s="25">
         <f t="shared" si="3"/>
-        <v>5.22272246808222E-2</v>
+        <v>4.1525409444616121E-2</v>
       </c>
       <c r="M11" s="27">
-        <v>330916</v>
+        <v>351645</v>
       </c>
       <c r="N11" s="28">
         <f t="shared" si="5"/>
-        <v>0.18400076955198619</v>
+        <v>0.19757001994550102</v>
       </c>
       <c r="O11" s="29">
         <f t="shared" si="6"/>
-        <v>1798449</v>
+        <v>1779850</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -11472,50 +10621,50 @@
         <v>22</v>
       </c>
       <c r="C12" s="24">
-        <v>119652</v>
+        <v>120915</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="0"/>
-        <v>0.14293103468871657</v>
+        <v>0.14977536482313464</v>
       </c>
       <c r="E12" s="26">
-        <v>16068</v>
+        <v>24261</v>
       </c>
       <c r="F12" s="25">
         <f t="shared" si="1"/>
-        <v>1.9194128517519959E-2</v>
+        <v>3.0051690244999128E-2</v>
       </c>
       <c r="G12" s="27">
-        <v>174133</v>
+        <v>130787</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>0.20801164931175647</v>
+        <v>0.16200364420562635</v>
       </c>
       <c r="I12" s="26">
-        <v>370570</v>
+        <v>388227</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="2"/>
-        <v>0.44266667940859911</v>
+        <v>0.48089021675715249</v>
       </c>
       <c r="K12" s="26">
-        <v>26791</v>
+        <v>27137</v>
       </c>
       <c r="L12" s="25">
         <f t="shared" si="3"/>
-        <v>3.2003354313721512E-2</v>
+        <v>3.3614142787953556E-2</v>
       </c>
       <c r="M12" s="27">
-        <v>129917</v>
+        <v>115982</v>
       </c>
       <c r="N12" s="28">
         <f t="shared" si="5"/>
-        <v>0.15519315375968637</v>
+        <v>0.14366494118113388</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="6"/>
-        <v>837131</v>
+        <v>807309</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -11526,50 +10675,50 @@
         <v>24</v>
       </c>
       <c r="C13" s="24">
-        <v>92299</v>
+        <v>102363</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" si="0"/>
-        <v>0.14470534192690654</v>
+        <v>0.15042653401617964</v>
       </c>
       <c r="E13" s="26">
-        <v>12715</v>
+        <v>10488</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" si="1"/>
-        <v>1.9934435070809182E-2</v>
+        <v>1.5412536646656429E-2</v>
       </c>
       <c r="G13" s="27">
-        <v>101728</v>
+        <v>120824</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
-        <v>0.15948802287717473</v>
+        <v>0.17755571393932268</v>
       </c>
       <c r="I13" s="26">
-        <v>321592</v>
+        <v>329764</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="2"/>
-        <v>0.50418834787980071</v>
+        <v>0.48460142398436407</v>
       </c>
       <c r="K13" s="26">
-        <v>15998</v>
+        <v>20972</v>
       </c>
       <c r="L13" s="25">
         <f t="shared" si="3"/>
-        <v>2.5081485824837223E-2</v>
+        <v>3.0819195132883163E-2</v>
       </c>
       <c r="M13" s="27">
-        <v>93509</v>
+        <v>96074</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="5"/>
-        <v>0.14660236642047156</v>
+        <v>0.14118459628059399</v>
       </c>
       <c r="O13" s="29">
         <f t="shared" si="6"/>
-        <v>637841</v>
+        <v>680485</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -11580,50 +10729,50 @@
         <v>26</v>
       </c>
       <c r="C14" s="24">
-        <v>691997</v>
+        <v>692864</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="0"/>
-        <v>0.13909708314966207</v>
+        <v>0.13895269667270316</v>
       </c>
       <c r="E14" s="26">
-        <v>141546</v>
+        <v>144458</v>
       </c>
       <c r="F14" s="25">
         <f t="shared" si="1"/>
-        <v>2.845190908559151E-2</v>
+        <v>2.8970806184107349E-2</v>
       </c>
       <c r="G14" s="27">
-        <v>941242</v>
+        <v>912527</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
-        <v>0.18919737619954166</v>
+        <v>0.18300573768683581</v>
       </c>
       <c r="I14" s="26">
-        <v>2320511</v>
+        <v>2378211</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="2"/>
-        <v>0.46644177867347042</v>
+        <v>0.47694617083105212</v>
       </c>
       <c r="K14" s="26">
-        <v>237787</v>
+        <v>243675</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="3"/>
-        <v>4.7797140899322826E-2</v>
+        <v>4.886860677091167E-2</v>
       </c>
       <c r="M14" s="27">
-        <v>641838</v>
+        <v>614595</v>
       </c>
       <c r="N14" s="28">
         <f t="shared" si="5"/>
-        <v>0.12901471199241155</v>
+        <v>0.12325598185438991</v>
       </c>
       <c r="O14" s="29">
         <f t="shared" si="6"/>
-        <v>4974921</v>
+        <v>4986330</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -11634,50 +10783,50 @@
         <v>28</v>
       </c>
       <c r="C15" s="24">
-        <v>258593</v>
+        <v>284261</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
-        <v>0.12064628221170309</v>
+        <v>0.13120178492140197</v>
       </c>
       <c r="E15" s="26">
-        <v>57612</v>
+        <v>49485</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>2.6878815786895386E-2</v>
+        <v>2.2839996787584568E-2</v>
       </c>
       <c r="G15" s="27">
-        <v>478854</v>
+        <v>455273</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>0.22340881161594814</v>
+        <v>0.21013304753913284</v>
       </c>
       <c r="I15" s="26">
-        <v>856328</v>
+        <v>890797</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="2"/>
-        <v>0.39951889476429481</v>
+        <v>0.4111508662905925</v>
       </c>
       <c r="K15" s="26">
-        <v>110476</v>
+        <v>91119</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="3"/>
-        <v>5.154245735043142E-2</v>
+        <v>4.2056333581649355E-2</v>
       </c>
       <c r="M15" s="27">
-        <v>381535</v>
+        <v>395659</v>
       </c>
       <c r="N15" s="28">
         <f t="shared" si="5"/>
-        <v>0.17800473827072713</v>
+        <v>0.18261797087963874</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="6"/>
-        <v>2143398</v>
+        <v>2166594</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -11688,50 +10837,50 @@
         <v>30</v>
       </c>
       <c r="C16" s="24">
-        <v>104523</v>
+        <v>125628</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="0"/>
-        <v>0.10571162147182925</v>
+        <v>0.12507728471539811</v>
       </c>
       <c r="E16" s="26">
-        <v>25334</v>
+        <v>32640</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="1"/>
-        <v>2.5622094834317061E-2</v>
+        <v>3.2496916078506334E-2</v>
       </c>
       <c r="G16" s="27">
-        <v>226112</v>
+        <v>211228</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>0.22868331519606455</v>
+        <v>0.21030204011736325</v>
       </c>
       <c r="I16" s="26">
-        <v>379422</v>
+        <v>402113</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="2"/>
-        <v>0.38373673585798723</v>
+        <v>0.40035025781484124</v>
       </c>
       <c r="K16" s="26">
-        <v>63339</v>
+        <v>64661</v>
       </c>
       <c r="L16" s="25">
         <f t="shared" si="3"/>
-        <v>6.4059282573253662E-2</v>
+        <v>6.4377545666430711E-2</v>
       </c>
       <c r="M16" s="27">
-        <v>190026</v>
+        <v>168133</v>
       </c>
       <c r="N16" s="28">
         <f t="shared" si="5"/>
-        <v>0.19218695006654826</v>
+        <v>0.16739595560746034</v>
       </c>
       <c r="O16" s="29">
         <f t="shared" si="6"/>
-        <v>988756</v>
+        <v>1004403</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -11742,50 +10891,50 @@
         <v>32</v>
       </c>
       <c r="C17" s="24">
-        <v>413915</v>
+        <v>418390</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="0"/>
-        <v>0.15575581353780921</v>
+        <v>0.15974888585470751</v>
       </c>
       <c r="E17" s="26">
-        <v>62564</v>
+        <v>72878</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>2.3542772593840511E-2</v>
+        <v>2.7826141407106705E-2</v>
       </c>
       <c r="G17" s="27">
-        <v>444352</v>
+        <v>421550</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>0.16720922715328654</v>
+        <v>0.16095543113375546</v>
       </c>
       <c r="I17" s="26">
-        <v>1315243</v>
+        <v>1280717</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="2"/>
-        <v>0.49492466681543024</v>
+        <v>0.48900096523622322</v>
       </c>
       <c r="K17" s="26">
-        <v>99068</v>
+        <v>94608</v>
       </c>
       <c r="L17" s="25">
         <f t="shared" si="3"/>
-        <v>3.7279192432174924E-2</v>
+        <v>3.6123049291192831E-2</v>
       </c>
       <c r="M17" s="27">
-        <v>322319</v>
+        <v>330905</v>
       </c>
       <c r="N17" s="28">
         <f t="shared" si="5"/>
-        <v>0.1212883274674586</v>
+        <v>0.12634552707701424</v>
       </c>
       <c r="O17" s="29">
         <f t="shared" si="6"/>
-        <v>2657461</v>
+        <v>2619048</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -11796,50 +10945,50 @@
         <v>34</v>
       </c>
       <c r="C18" s="24">
-        <v>242352</v>
+        <v>231242</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="0"/>
-        <v>0.10594831373731942</v>
+        <v>0.10204223922617314</v>
       </c>
       <c r="E18" s="26">
-        <v>53477</v>
+        <v>56056</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>2.3378383399892021E-2</v>
+        <v>2.473633579567017E-2</v>
       </c>
       <c r="G18" s="27">
-        <v>493489</v>
+        <v>467908</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
-        <v>0.2157371401841785</v>
+        <v>0.20647797576495716</v>
       </c>
       <c r="I18" s="26">
-        <v>909048</v>
+        <v>902734</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="2"/>
-        <v>0.3974058506068972</v>
+        <v>0.39835755955060148</v>
       </c>
       <c r="K18" s="26">
-        <v>137728</v>
+        <v>158877</v>
       </c>
       <c r="L18" s="25">
         <f t="shared" si="3"/>
-        <v>6.0210146210526547E-2</v>
+        <v>7.0109084169557051E-2</v>
       </c>
       <c r="M18" s="27">
-        <v>451361</v>
+        <v>449323</v>
       </c>
       <c r="N18" s="28">
         <f t="shared" si="5"/>
-        <v>0.19732016586118634</v>
+        <v>0.19827680549304103</v>
       </c>
       <c r="O18" s="29">
         <f t="shared" si="6"/>
-        <v>2287455</v>
+        <v>2266140</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -11850,50 +10999,50 @@
         <v>36</v>
       </c>
       <c r="C19" s="24">
-        <v>116257</v>
+        <v>151282</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="0"/>
-        <v>0.146662848405792</v>
+        <v>0.17502117163602371</v>
       </c>
       <c r="E19" s="26">
-        <v>23934</v>
+        <v>22495</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="1"/>
-        <v>3.0193696841860924E-2</v>
+        <v>2.6024915429147904E-2</v>
       </c>
       <c r="G19" s="27">
-        <v>183497</v>
+        <v>164215</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>0.23148879374074344</v>
+        <v>0.18998361801278166</v>
       </c>
       <c r="I19" s="26">
-        <v>292338</v>
+        <v>347536</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="2"/>
-        <v>0.36879606197693399</v>
+        <v>0.40207134957031992</v>
       </c>
       <c r="K19" s="26">
-        <v>37039</v>
+        <v>35987</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="3"/>
-        <v>4.6726177710607782E-2</v>
+        <v>4.1634080086630172E-2</v>
       </c>
       <c r="M19" s="27">
-        <v>139617</v>
+        <v>142849</v>
       </c>
       <c r="N19" s="28">
         <f t="shared" si="5"/>
-        <v>0.17613242132406184</v>
+        <v>0.16526486526509665</v>
       </c>
       <c r="O19" s="29">
         <f t="shared" si="6"/>
-        <v>792682</v>
+        <v>864364</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -11904,50 +11053,50 @@
         <v>38</v>
       </c>
       <c r="C20" s="24">
-        <v>347743</v>
+        <v>331289</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="0"/>
-        <v>9.4414999404039981E-2</v>
+        <v>9.1338893987947714E-2</v>
       </c>
       <c r="E20" s="26">
-        <v>75492</v>
+        <v>74696</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="1"/>
-        <v>2.0496680407685521E-2</v>
+        <v>2.0594254639676363E-2</v>
       </c>
       <c r="G20" s="27">
-        <v>955719</v>
+        <v>931742</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>0.25948533490373549</v>
+        <v>0.25688834752170575</v>
       </c>
       <c r="I20" s="26">
-        <v>1493455</v>
+        <v>1510479</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="2"/>
-        <v>0.40548494990542022</v>
+        <v>0.41645053488652289</v>
       </c>
       <c r="K20" s="26">
-        <v>235753</v>
+        <v>201184</v>
       </c>
       <c r="L20" s="25">
         <f t="shared" si="3"/>
-        <v>6.4008820751246295E-2</v>
+        <v>5.5467957125263062E-2</v>
       </c>
       <c r="M20" s="27">
-        <v>574971</v>
+        <v>577641</v>
       </c>
       <c r="N20" s="28">
         <f t="shared" si="5"/>
-        <v>0.15610921462787253</v>
+        <v>0.15926001183888419</v>
       </c>
       <c r="O20" s="29">
         <f t="shared" si="6"/>
-        <v>3683133</v>
+        <v>3627031</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -11958,50 +11107,50 @@
         <v>40</v>
       </c>
       <c r="C21" s="24">
-        <v>90766</v>
+        <v>111010</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="0"/>
-        <v>0.10559183241371208</v>
+        <v>0.12007519707864973</v>
       </c>
       <c r="E21" s="26">
-        <v>38710</v>
+        <v>29602</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="1"/>
-        <v>4.5032940007654787E-2</v>
+        <v>3.2019331446916398E-2</v>
       </c>
       <c r="G21" s="27">
-        <v>171519</v>
+        <v>186249</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>0.19953512883422736</v>
+        <v>0.20145829547519534</v>
       </c>
       <c r="I21" s="26">
-        <v>331018</v>
+        <v>378069</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" si="2"/>
-        <v>0.38508689577509359</v>
+        <v>0.40894252485657173</v>
       </c>
       <c r="K21" s="26">
-        <v>80752</v>
+        <v>38238</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" si="3"/>
-        <v>9.394213307925961E-2</v>
+        <v>4.136055657952805E-2</v>
       </c>
       <c r="M21" s="27">
-        <v>146828</v>
+        <v>181336</v>
       </c>
       <c r="N21" s="28">
         <f t="shared" si="5"/>
-        <v>0.17081106989005262</v>
+        <v>0.19614409456313872</v>
       </c>
       <c r="O21" s="29">
         <f t="shared" si="6"/>
-        <v>859593</v>
+        <v>924504</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -12012,50 +11161,50 @@
         <v>42</v>
       </c>
       <c r="C22" s="24">
-        <v>399392</v>
+        <v>435144</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="0"/>
-        <v>0.16366438540005762</v>
+        <v>0.16980082905622371</v>
       </c>
       <c r="E22" s="26">
-        <v>62257</v>
+        <v>73951</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="1"/>
-        <v>2.5511912211189477E-2</v>
+        <v>2.8856978631296305E-2</v>
       </c>
       <c r="G22" s="27">
-        <v>453656</v>
+        <v>439174</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>0.1859008954186577</v>
+        <v>0.17137340581494401</v>
       </c>
       <c r="I22" s="26">
-        <v>1176513</v>
+        <v>1227339</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="2"/>
-        <v>0.48211600898410079</v>
+        <v>0.4789292274121591</v>
       </c>
       <c r="K22" s="26">
-        <v>95409</v>
+        <v>101661</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="3"/>
-        <v>3.9097065906763526E-2</v>
+        <v>3.9669907163340776E-2</v>
       </c>
       <c r="M22" s="27">
-        <v>253084</v>
+        <v>285404</v>
       </c>
       <c r="N22" s="28">
         <f t="shared" si="5"/>
-        <v>0.10370973207923088</v>
+        <v>0.11136965192203609</v>
       </c>
       <c r="O22" s="29">
         <f t="shared" si="6"/>
-        <v>2440311</v>
+        <v>2562673</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -12066,50 +11215,50 @@
         <v>44</v>
       </c>
       <c r="C23" s="24">
-        <v>65971</v>
+        <v>68690</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="0"/>
-        <v>0.14436709871828818</v>
+        <v>0.14628900010648493</v>
       </c>
       <c r="E23" s="26">
-        <v>11444</v>
+        <v>10092</v>
       </c>
       <c r="F23" s="25">
         <f t="shared" si="1"/>
-        <v>2.5043383876735083E-2</v>
+        <v>2.1492918751996593E-2</v>
       </c>
       <c r="G23" s="27">
-        <v>84229</v>
+        <v>76095</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
-        <v>0.1843218438092904</v>
+        <v>0.16205941859226919</v>
       </c>
       <c r="I23" s="26">
-        <v>199401</v>
+        <v>230217</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="2"/>
-        <v>0.43635754879455191</v>
+        <v>0.49029283356405068</v>
       </c>
       <c r="K23" s="26">
-        <v>15084</v>
+        <v>17238</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="3"/>
-        <v>3.3008948129733658E-2</v>
+        <v>3.671174528804174E-2</v>
       </c>
       <c r="M23" s="27">
-        <v>80838</v>
+        <v>67218</v>
       </c>
       <c r="N23" s="28">
         <f t="shared" si="5"/>
-        <v>0.17690117667140079</v>
+        <v>0.14315408369715685</v>
       </c>
       <c r="O23" s="29">
         <f t="shared" si="6"/>
-        <v>456967</v>
+        <v>469550</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -12120,50 +11269,50 @@
         <v>46</v>
       </c>
       <c r="C24" s="24">
-        <v>14387</v>
+        <v>19899</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="0"/>
-        <v>0.10861884125809715</v>
+        <v>0.14374462736486243</v>
       </c>
       <c r="E24" s="26">
-        <v>3020</v>
+        <v>4672</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="1"/>
-        <v>2.2800368429794493E-2</v>
+        <v>3.374917830286131E-2</v>
       </c>
       <c r="G24" s="27">
-        <v>31614</v>
+        <v>32877</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
-        <v>0.23867908858924608</v>
+        <v>0.23749395014194594</v>
       </c>
       <c r="I24" s="26">
-        <v>49351</v>
+        <v>50528</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" si="2"/>
-        <v>0.37258972926449935</v>
+        <v>0.36499967493300006</v>
       </c>
       <c r="K24" s="26">
-        <v>6035</v>
+        <v>6406</v>
       </c>
       <c r="L24" s="25">
         <f t="shared" si="3"/>
-        <v>4.5562987905235025E-2</v>
+        <v>4.627509336646609E-2</v>
       </c>
       <c r="M24" s="27">
-        <v>28047</v>
+        <v>24051</v>
       </c>
       <c r="N24" s="28">
         <f t="shared" si="5"/>
-        <v>0.21174898455312788</v>
+        <v>0.17373747589086416</v>
       </c>
       <c r="O24" s="29">
         <f t="shared" si="6"/>
-        <v>132454</v>
+        <v>138433</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -12174,50 +11323,50 @@
         <v>48</v>
       </c>
       <c r="C25" s="24">
-        <v>273386</v>
+        <v>299016</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="0"/>
-        <v>0.17813922938783169</v>
+        <v>0.18714220356602607</v>
       </c>
       <c r="E25" s="26">
-        <v>30310</v>
+        <v>22897</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" si="1"/>
-        <v>1.975009708889694E-2</v>
+        <v>1.4330320233871426E-2</v>
       </c>
       <c r="G25" s="27">
-        <v>253197</v>
+        <v>241441</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
-        <v>0.16498400965415502</v>
+        <v>0.15110830447596416</v>
       </c>
       <c r="I25" s="26">
-        <v>795975</v>
+        <v>831166</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" si="2"/>
-        <v>0.51865996470916331</v>
+        <v>0.520193691204349</v>
       </c>
       <c r="K25" s="26">
-        <v>45793</v>
+        <v>43714</v>
       </c>
       <c r="L25" s="25">
         <f t="shared" si="3"/>
-        <v>2.9838871527280025E-2</v>
+        <v>2.735885132128469E-2</v>
       </c>
       <c r="M25" s="27">
-        <v>136015</v>
+        <v>159567</v>
       </c>
       <c r="N25" s="28">
         <f t="shared" si="5"/>
-        <v>8.8627827632672962E-2</v>
+        <v>9.9866629198504697E-2</v>
       </c>
       <c r="O25" s="29">
         <f t="shared" si="6"/>
-        <v>1534676</v>
+        <v>1597801</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -12228,50 +11377,50 @@
         <v>50</v>
       </c>
       <c r="C26" s="24">
-        <v>1311751</v>
+        <v>1396841</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" si="0"/>
-        <v>0.12855122802956573</v>
+        <v>0.13519440206300912</v>
       </c>
       <c r="E26" s="26">
-        <v>253112</v>
+        <v>308127</v>
       </c>
       <c r="F26" s="25">
         <f t="shared" si="1"/>
-        <v>2.4804904611484529E-2</v>
+        <v>2.9822324462461233E-2</v>
       </c>
       <c r="G26" s="27">
-        <v>1760417</v>
+        <v>1646133</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
-        <v>0.17252036948637661</v>
+        <v>0.15932233278604177</v>
       </c>
       <c r="I26" s="26">
-        <v>4986958</v>
+        <v>5175560</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" si="2"/>
-        <v>0.48872047746246589</v>
+        <v>0.50092082029467022</v>
       </c>
       <c r="K26" s="26">
-        <v>571442</v>
+        <v>578383</v>
       </c>
       <c r="L26" s="25">
         <f t="shared" si="3"/>
-        <v>5.6001154828676403E-2</v>
+        <v>5.5979273123003548E-2</v>
       </c>
       <c r="M26" s="27">
-        <v>1320431</v>
+        <v>1227048</v>
       </c>
       <c r="N26" s="28">
         <f t="shared" si="5"/>
-        <v>0.12940186558143085</v>
+        <v>0.11876084727081408</v>
       </c>
       <c r="O26" s="29">
         <f t="shared" si="6"/>
-        <v>10204111</v>
+        <v>10332092</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -12282,50 +11431,50 @@
         <v>52</v>
       </c>
       <c r="C27" s="24">
-        <v>69783</v>
+        <v>81205</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="0"/>
-        <v>0.12107957108651143</v>
+        <v>0.13586633717204605</v>
       </c>
       <c r="E27" s="26">
-        <v>20252</v>
+        <v>15138</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" si="1"/>
-        <v>3.5138980462921195E-2</v>
+        <v>2.5327807550156185E-2</v>
       </c>
       <c r="G27" s="27">
-        <v>133775</v>
+        <v>120090</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
-        <v>0.23211125377381406</v>
+        <v>0.20092590888481018</v>
       </c>
       <c r="I27" s="26">
-        <v>224897</v>
+        <v>245343</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" si="2"/>
-        <v>0.39021584481382515</v>
+        <v>0.41049017623054362</v>
       </c>
       <c r="K27" s="26">
-        <v>32540</v>
+        <v>35785</v>
       </c>
       <c r="L27" s="25">
         <f t="shared" si="3"/>
-        <v>5.6459728632404484E-2</v>
+        <v>5.9872875755208027E-2</v>
       </c>
       <c r="M27" s="27">
-        <v>95093</v>
+        <v>100122</v>
       </c>
       <c r="N27" s="28">
         <f t="shared" si="5"/>
-        <v>0.16499462123052364</v>
+        <v>0.16751689440723594</v>
       </c>
       <c r="O27" s="29">
         <f t="shared" si="6"/>
-        <v>576340</v>
+        <v>597683</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -12336,50 +11485,50 @@
         <v>54</v>
       </c>
       <c r="C28" s="24">
-        <v>55567</v>
+        <v>55527</v>
       </c>
       <c r="D28" s="25">
         <f t="shared" si="0"/>
-        <v>0.14499269387329089</v>
+        <v>0.14949720670391062</v>
       </c>
       <c r="E28" s="26">
-        <v>13092</v>
+        <v>13577</v>
       </c>
       <c r="F28" s="25">
         <f t="shared" si="1"/>
-        <v>3.4161361027032669E-2</v>
+        <v>3.6553813017432858E-2</v>
       </c>
       <c r="G28" s="27">
-        <v>89314</v>
+        <v>74674</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
-        <v>0.23304978603486065</v>
+        <v>0.20104731776267079</v>
       </c>
       <c r="I28" s="26">
-        <v>148344</v>
+        <v>157828</v>
       </c>
       <c r="J28" s="25">
         <f t="shared" si="2"/>
-        <v>0.38707859304874231</v>
+        <v>0.42492562428484887</v>
       </c>
       <c r="K28" s="26">
-        <v>16764</v>
+        <v>14550</v>
       </c>
       <c r="L28" s="25">
         <f t="shared" si="3"/>
-        <v>4.3742824339839267E-2</v>
+        <v>3.9173453590899909E-2</v>
       </c>
       <c r="M28" s="27">
-        <v>60159</v>
+        <v>55269</v>
       </c>
       <c r="N28" s="28">
         <f t="shared" si="5"/>
-        <v>0.15697474167623421</v>
+        <v>0.14880258464023693</v>
       </c>
       <c r="O28" s="29">
         <f t="shared" si="6"/>
-        <v>383240</v>
+        <v>371425</v>
       </c>
     </row>
   </sheetData>
@@ -12398,7 +11547,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12458,50 +11607,50 @@
         <v>2</v>
       </c>
       <c r="C2" s="24">
-        <v>32805</v>
+        <v>31174</v>
       </c>
       <c r="D2" s="25">
         <f t="shared" ref="D2:D28" si="0">C2/O2</f>
-        <v>0.1481546715803165</v>
+        <v>0.15118991614570956</v>
       </c>
       <c r="E2" s="26">
-        <v>6338</v>
+        <v>3690</v>
       </c>
       <c r="F2" s="25">
         <f t="shared" ref="F2:F28" si="1">E2/O2</f>
-        <v>2.8623816749765156E-2</v>
+        <v>1.7896028439650616E-2</v>
       </c>
       <c r="G2" s="27">
-        <v>45107</v>
+        <v>44627</v>
       </c>
       <c r="H2" s="3">
         <f>G2/O2</f>
-        <v>0.20371323795071899</v>
+        <v>0.21643524693124336</v>
       </c>
       <c r="I2" s="26">
-        <v>92814</v>
+        <v>83361</v>
       </c>
       <c r="J2" s="25">
         <f t="shared" ref="J2:J28" si="2">I2/O2</f>
-        <v>0.41916865380446566</v>
+        <v>0.40429019695331025</v>
       </c>
       <c r="K2" s="26">
-        <v>9506</v>
+        <v>7011</v>
       </c>
       <c r="L2" s="25">
         <f t="shared" ref="L2:L28" si="3">K2/O2</f>
-        <v>4.2931208902377338E-2</v>
+        <v>3.4002454035336166E-2</v>
       </c>
       <c r="M2" s="27">
-        <v>34854</v>
+        <v>36328</v>
       </c>
       <c r="N2" s="28">
         <f>M2/O2</f>
-        <v>0.15740841101235639</v>
+        <v>0.17618615749475</v>
       </c>
       <c r="O2" s="29">
         <f>SUM(C2,E2,I2,K2,G2,M2)</f>
-        <v>221424</v>
+        <v>206191</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -12512,50 +11661,50 @@
         <v>4</v>
       </c>
       <c r="C3" s="24">
-        <v>103077</v>
+        <v>86628</v>
       </c>
       <c r="D3" s="25">
         <f t="shared" si="0"/>
-        <v>0.11641620116148531</v>
+        <v>9.8266597546851547E-2</v>
       </c>
       <c r="E3" s="26">
-        <v>29538</v>
+        <v>24157</v>
       </c>
       <c r="F3" s="25">
         <f t="shared" si="1"/>
-        <v>3.3360514468872331E-2</v>
+        <v>2.7402528015644974E-2</v>
       </c>
       <c r="G3" s="27">
-        <v>194071</v>
+        <v>204480</v>
       </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H28" si="4">G3/O3</f>
-        <v>0.21918574052029663</v>
+        <v>0.23195218481761329</v>
       </c>
       <c r="I3" s="26">
-        <v>315828</v>
+        <v>321153</v>
       </c>
       <c r="J3" s="25">
         <f t="shared" si="2"/>
-        <v>0.35669932167631557</v>
+        <v>0.36430037172697066</v>
       </c>
       <c r="K3" s="26">
-        <v>57866</v>
+        <v>50090</v>
       </c>
       <c r="L3" s="25">
         <f t="shared" si="3"/>
-        <v>6.5354442760368545E-2</v>
+        <v>5.6819664209283305E-2</v>
       </c>
       <c r="M3" s="27">
-        <v>185038</v>
+        <v>195053</v>
       </c>
       <c r="N3" s="28">
         <f t="shared" ref="N3:N28" si="5">M3/O3</f>
-        <v>0.20898377941266158</v>
+        <v>0.22125865368363618</v>
       </c>
       <c r="O3" s="29">
         <f t="shared" ref="O3:O28" si="6">SUM(C3,E3,I3,K3,G3,M3)</f>
-        <v>885418</v>
+        <v>881561</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -12566,50 +11715,50 @@
         <v>6</v>
       </c>
       <c r="C4" s="24">
-        <v>15454</v>
+        <v>19526</v>
       </c>
       <c r="D4" s="25">
         <f t="shared" si="0"/>
-        <v>7.4738242050538028E-2</v>
+        <v>9.3711905241838728E-2</v>
       </c>
       <c r="E4" s="26">
-        <v>5393</v>
+        <v>8960</v>
       </c>
       <c r="F4" s="25">
         <f t="shared" si="1"/>
-        <v>2.608148954177246E-2</v>
+        <v>4.3002082913391117E-2</v>
       </c>
       <c r="G4" s="27">
-        <v>64766</v>
+        <v>57199</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" si="4"/>
-        <v>0.31321968323056465</v>
+        <v>0.27451742640212706</v>
       </c>
       <c r="I4" s="26">
-        <v>63764</v>
+        <v>63639</v>
       </c>
       <c r="J4" s="25">
         <f t="shared" si="2"/>
-        <v>0.30837383629549026</v>
+        <v>0.30542517349612691</v>
       </c>
       <c r="K4" s="26">
-        <v>12265</v>
+        <v>15617</v>
       </c>
       <c r="L4" s="25">
         <f t="shared" si="3"/>
-        <v>5.931568129609479E-2</v>
+        <v>7.4951286702949677E-2</v>
       </c>
       <c r="M4" s="27">
-        <v>45133</v>
+        <v>43421</v>
       </c>
       <c r="N4" s="28">
         <f t="shared" si="5"/>
-        <v>0.21827106758553982</v>
+        <v>0.20839212524356648</v>
       </c>
       <c r="O4" s="29">
         <f t="shared" si="6"/>
-        <v>206775</v>
+        <v>208362</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -12620,50 +11769,50 @@
         <v>8</v>
       </c>
       <c r="C5" s="24">
-        <v>143731</v>
+        <v>148727</v>
       </c>
       <c r="D5" s="25">
         <f t="shared" si="0"/>
-        <v>0.14065955789383033</v>
+        <v>0.14707825278626596</v>
       </c>
       <c r="E5" s="26">
-        <v>27241</v>
+        <v>31313</v>
       </c>
       <c r="F5" s="25">
         <f t="shared" si="1"/>
-        <v>2.6658876766917586E-2</v>
+        <v>3.0965872568507035E-2</v>
       </c>
       <c r="G5" s="27">
-        <v>237764</v>
+        <v>243026</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" si="4"/>
-        <v>0.23268313114824687</v>
+        <v>0.24033187962935493</v>
       </c>
       <c r="I5" s="26">
-        <v>379790</v>
+        <v>357526</v>
       </c>
       <c r="J5" s="25">
         <f t="shared" si="2"/>
-        <v>0.37167412383200438</v>
+        <v>0.35356256366135619</v>
       </c>
       <c r="K5" s="26">
-        <v>47009</v>
+        <v>52842</v>
       </c>
       <c r="L5" s="25">
         <f t="shared" si="3"/>
-        <v>4.6004446897545202E-2</v>
+        <v>5.2256207909336341E-2</v>
       </c>
       <c r="M5" s="27">
-        <v>186301</v>
+        <v>177776</v>
       </c>
       <c r="N5" s="28">
         <f t="shared" si="5"/>
-        <v>0.18231986346145565</v>
+        <v>0.17580522344517954</v>
       </c>
       <c r="O5" s="29">
         <f t="shared" si="6"/>
-        <v>1021836</v>
+        <v>1011210</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -12674,50 +11823,50 @@
         <v>10</v>
       </c>
       <c r="C6" s="24">
-        <v>489815</v>
+        <v>497724</v>
       </c>
       <c r="D6" s="25">
         <f t="shared" si="0"/>
-        <v>0.12888650782728683</v>
+        <v>0.13081912689999903</v>
       </c>
       <c r="E6" s="26">
-        <v>135042</v>
+        <v>146488</v>
       </c>
       <c r="F6" s="25">
         <f t="shared" si="1"/>
-        <v>3.5534011392081642E-2</v>
+        <v>3.8502126201121624E-2</v>
       </c>
       <c r="G6" s="27">
-        <v>759815</v>
+        <v>743344</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="4"/>
-        <v>0.19993242743646061</v>
+        <v>0.1953765803263513</v>
       </c>
       <c r="I6" s="26">
-        <v>1515208</v>
+        <v>1603289</v>
       </c>
       <c r="J6" s="25">
         <f t="shared" si="2"/>
-        <v>0.39870128058954429</v>
+        <v>0.42139994685482823</v>
       </c>
       <c r="K6" s="26">
-        <v>251350</v>
+        <v>275330</v>
       </c>
       <c r="L6" s="25">
         <f t="shared" si="3"/>
-        <v>6.6138488495428985E-2</v>
+        <v>7.2366271687474851E-2</v>
       </c>
       <c r="M6" s="27">
-        <v>649129</v>
+        <v>538498</v>
       </c>
       <c r="N6" s="28">
         <f t="shared" si="5"/>
-        <v>0.17080728425919761</v>
+        <v>0.14153594803022493</v>
       </c>
       <c r="O6" s="29">
         <f t="shared" si="6"/>
-        <v>3800359</v>
+        <v>3804673</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -12728,50 +11877,50 @@
         <v>12</v>
       </c>
       <c r="C7" s="24">
-        <v>283803</v>
+        <v>273004</v>
       </c>
       <c r="D7" s="25">
         <f t="shared" si="0"/>
-        <v>0.12113036742062908</v>
+        <v>0.11873141043455494</v>
       </c>
       <c r="E7" s="26">
-        <v>45240</v>
+        <v>38073</v>
       </c>
       <c r="F7" s="25">
         <f t="shared" si="1"/>
-        <v>1.9308949595702861E-2</v>
+        <v>1.6558222551591957E-2</v>
       </c>
       <c r="G7" s="27">
-        <v>499568</v>
+        <v>509665</v>
       </c>
       <c r="H7" s="3">
         <f t="shared" si="4"/>
-        <v>0.21322133801118673</v>
+        <v>0.22165698780650631</v>
       </c>
       <c r="I7" s="26">
-        <v>999522</v>
+        <v>936478</v>
       </c>
       <c r="J7" s="25">
         <f t="shared" si="2"/>
-        <v>0.42660742523864092</v>
+        <v>0.40728104269875587</v>
       </c>
       <c r="K7" s="26">
-        <v>108030</v>
+        <v>101468</v>
       </c>
       <c r="L7" s="25">
         <f t="shared" si="3"/>
-        <v>4.6108439982842177E-2</v>
+        <v>4.4129165704434446E-2</v>
       </c>
       <c r="M7" s="27">
-        <v>406792</v>
+        <v>440653</v>
       </c>
       <c r="N7" s="28">
         <f t="shared" si="5"/>
-        <v>0.17362347975099821</v>
+        <v>0.19164317080415649</v>
       </c>
       <c r="O7" s="29">
         <f t="shared" si="6"/>
-        <v>2342955</v>
+        <v>2299341</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -12782,50 +11931,50 @@
         <v>14</v>
       </c>
       <c r="C8" s="24">
-        <v>103775</v>
+        <v>104574</v>
       </c>
       <c r="D8" s="25">
         <f t="shared" si="0"/>
-        <v>0.14120815122437094</v>
+        <v>0.14610653619061723</v>
       </c>
       <c r="E8" s="26">
-        <v>32737</v>
+        <v>25154</v>
       </c>
       <c r="F8" s="25">
         <f t="shared" si="1"/>
-        <v>4.4545711844203625E-2</v>
+        <v>3.5144144924539426E-2</v>
       </c>
       <c r="G8" s="27">
-        <v>152892</v>
+        <v>159758</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="4"/>
-        <v>0.2080423672078682</v>
+        <v>0.22320737476562652</v>
       </c>
       <c r="I8" s="26">
-        <v>319227</v>
+        <v>293159</v>
       </c>
       <c r="J8" s="25">
         <f t="shared" si="2"/>
-        <v>0.43437681995569516</v>
+        <v>0.40958982197396254</v>
       </c>
       <c r="K8" s="26">
-        <v>45292</v>
+        <v>43548</v>
       </c>
       <c r="L8" s="25">
         <f t="shared" si="3"/>
-        <v>6.162948287404682E-2</v>
+        <v>6.0843493010012045E-2</v>
       </c>
       <c r="M8" s="27">
-        <v>80985</v>
+        <v>89545</v>
       </c>
       <c r="N8" s="28">
         <f t="shared" si="5"/>
-        <v>0.11019746689381528</v>
+        <v>0.12510862913524223</v>
       </c>
       <c r="O8" s="29">
         <f t="shared" si="6"/>
-        <v>734908</v>
+        <v>715738</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -12836,50 +11985,50 @@
         <v>16</v>
       </c>
       <c r="C9" s="24">
-        <v>123459</v>
+        <v>131059</v>
       </c>
       <c r="D9" s="25">
         <f t="shared" si="0"/>
-        <v>0.13507637905719294</v>
+        <v>0.13452282830605256</v>
       </c>
       <c r="E9" s="26">
-        <v>21852</v>
+        <v>29476</v>
       </c>
       <c r="F9" s="25">
         <f t="shared" si="1"/>
-        <v>2.3908253227045255E-2</v>
+        <v>3.0255036946331079E-2</v>
       </c>
       <c r="G9" s="27">
-        <v>155145</v>
+        <v>153156</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="4"/>
-        <v>0.16974400269586015</v>
+        <v>0.15720384172046012</v>
       </c>
       <c r="I9" s="26">
-        <v>458920</v>
+        <v>476335</v>
       </c>
       <c r="J9" s="25">
         <f t="shared" si="2"/>
-        <v>0.50210395254235807</v>
+        <v>0.48892431211258702</v>
       </c>
       <c r="K9" s="26">
-        <v>38253</v>
+        <v>67368</v>
       </c>
       <c r="L9" s="25">
         <f t="shared" si="3"/>
-        <v>4.1852572336361069E-2</v>
+        <v>6.9148504851419199E-2</v>
       </c>
       <c r="M9" s="27">
-        <v>116365</v>
+        <v>116857</v>
       </c>
       <c r="N9" s="28">
         <f t="shared" si="5"/>
-        <v>0.12731484014118255</v>
+        <v>0.11994547606315005</v>
       </c>
       <c r="O9" s="29">
         <f t="shared" si="6"/>
-        <v>913994</v>
+        <v>974251</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -12890,50 +12039,50 @@
         <v>18</v>
       </c>
       <c r="C10" s="24">
-        <v>257413</v>
+        <v>244923</v>
       </c>
       <c r="D10" s="25">
         <f t="shared" si="0"/>
-        <v>0.15945273431523341</v>
+        <v>0.15303459919197321</v>
       </c>
       <c r="E10" s="26">
-        <v>40552</v>
+        <v>38581</v>
       </c>
       <c r="F10" s="25">
         <f t="shared" si="1"/>
-        <v>2.5119660941566063E-2</v>
+        <v>2.4106465588881073E-2</v>
       </c>
       <c r="G10" s="27">
-        <v>280577</v>
+        <v>276385</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" si="4"/>
-        <v>0.17380151676863734</v>
+        <v>0.17269291858124194</v>
       </c>
       <c r="I10" s="26">
-        <v>753585</v>
+        <v>769194</v>
       </c>
       <c r="J10" s="25">
         <f t="shared" si="2"/>
-        <v>0.46680310935712327</v>
+        <v>0.48061348052600467</v>
       </c>
       <c r="K10" s="26">
-        <v>58351</v>
+        <v>58714</v>
       </c>
       <c r="L10" s="25">
         <f t="shared" si="3"/>
-        <v>3.6145130587919745E-2</v>
+        <v>3.6686115460604012E-2</v>
       </c>
       <c r="M10" s="27">
-        <v>223875</v>
+        <v>212645</v>
       </c>
       <c r="N10" s="28">
         <f t="shared" si="5"/>
-        <v>0.13867784802952018</v>
+        <v>0.13286642065129509</v>
       </c>
       <c r="O10" s="29">
         <f t="shared" si="6"/>
-        <v>1614353</v>
+        <v>1600442</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -12944,50 +12093,50 @@
         <v>20</v>
       </c>
       <c r="C11" s="24">
-        <v>232193</v>
+        <v>231724</v>
       </c>
       <c r="D11" s="25">
         <f t="shared" si="0"/>
-        <v>0.13045649914318622</v>
+        <v>0.12720206400614811</v>
       </c>
       <c r="E11" s="26">
-        <v>26875</v>
+        <v>30605</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="1"/>
-        <v>1.509958704385201E-2</v>
+        <v>1.6800241532634354E-2</v>
       </c>
       <c r="G11" s="27">
-        <v>342666</v>
+        <v>353409</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="4"/>
-        <v>0.19252521279883136</v>
+        <v>0.19399956084975573</v>
       </c>
       <c r="I11" s="26">
-        <v>752562</v>
+        <v>760728</v>
       </c>
       <c r="J11" s="25">
         <f t="shared" si="2"/>
-        <v>0.42282327162401329</v>
+        <v>0.41759235878574957</v>
       </c>
       <c r="K11" s="26">
-        <v>73909</v>
+        <v>102743</v>
       </c>
       <c r="L11" s="25">
         <f t="shared" si="3"/>
-        <v>4.1525409444616121E-2</v>
+        <v>5.6399516934731296E-2</v>
       </c>
       <c r="M11" s="27">
-        <v>351645</v>
+        <v>342491</v>
       </c>
       <c r="N11" s="28">
         <f t="shared" si="5"/>
-        <v>0.19757001994550102</v>
+        <v>0.18800625789098097</v>
       </c>
       <c r="O11" s="29">
         <f t="shared" si="6"/>
-        <v>1779850</v>
+        <v>1821700</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -12998,50 +12147,50 @@
         <v>22</v>
       </c>
       <c r="C12" s="24">
-        <v>120915</v>
+        <v>135490</v>
       </c>
       <c r="D12" s="25">
         <f t="shared" si="0"/>
-        <v>0.14977536482313464</v>
+        <v>0.16165865671428095</v>
       </c>
       <c r="E12" s="26">
-        <v>24261</v>
+        <v>35762</v>
       </c>
       <c r="F12" s="25">
         <f t="shared" si="1"/>
-        <v>3.0051690244999128E-2</v>
+        <v>4.2669103855754044E-2</v>
       </c>
       <c r="G12" s="27">
-        <v>130787</v>
+        <v>145576</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="4"/>
-        <v>0.16200364420562635</v>
+        <v>0.17369267554681647</v>
       </c>
       <c r="I12" s="26">
-        <v>388227</v>
+        <v>366466</v>
       </c>
       <c r="J12" s="25">
         <f t="shared" si="2"/>
-        <v>0.48089021675715249</v>
+        <v>0.43724556270909792</v>
       </c>
       <c r="K12" s="26">
-        <v>27137</v>
+        <v>42916</v>
       </c>
       <c r="L12" s="25">
         <f t="shared" si="3"/>
-        <v>3.3614142787953556E-2</v>
+        <v>5.1204833652299657E-2</v>
       </c>
       <c r="M12" s="27">
-        <v>115982</v>
+        <v>111914</v>
       </c>
       <c r="N12" s="28">
         <f t="shared" si="5"/>
-        <v>0.14366494118113388</v>
+        <v>0.13352916752175095</v>
       </c>
       <c r="O12" s="29">
         <f t="shared" si="6"/>
-        <v>807309</v>
+        <v>838124</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -13052,50 +12201,50 @@
         <v>24</v>
       </c>
       <c r="C13" s="24">
-        <v>102363</v>
+        <v>87521</v>
       </c>
       <c r="D13" s="25">
         <f t="shared" si="0"/>
-        <v>0.15042653401617964</v>
+        <v>0.13712716236817407</v>
       </c>
       <c r="E13" s="26">
-        <v>10488</v>
+        <v>15378</v>
       </c>
       <c r="F13" s="25">
         <f t="shared" si="1"/>
-        <v>1.5412536646656429E-2</v>
+        <v>2.4094120301388022E-2</v>
       </c>
       <c r="G13" s="27">
-        <v>120824</v>
+        <v>117072</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="4"/>
-        <v>0.17755571393932268</v>
+        <v>0.18342741916530747</v>
       </c>
       <c r="I13" s="26">
-        <v>329764</v>
+        <v>300798</v>
       </c>
       <c r="J13" s="25">
         <f t="shared" si="2"/>
-        <v>0.48460142398436407</v>
+        <v>0.47128776163460229</v>
       </c>
       <c r="K13" s="26">
-        <v>20972</v>
+        <v>24051</v>
       </c>
       <c r="L13" s="25">
         <f t="shared" si="3"/>
-        <v>3.0819195132883163E-2</v>
+        <v>3.7682903327395191E-2</v>
       </c>
       <c r="M13" s="27">
-        <v>96074</v>
+        <v>93427</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="5"/>
-        <v>0.14118459628059399</v>
+        <v>0.14638063320313296</v>
       </c>
       <c r="O13" s="29">
         <f t="shared" si="6"/>
-        <v>680485</v>
+        <v>638247</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -13106,50 +12255,50 @@
         <v>26</v>
       </c>
       <c r="C14" s="24">
-        <v>692864</v>
+        <v>678102</v>
       </c>
       <c r="D14" s="25">
         <f t="shared" si="0"/>
-        <v>0.13895269667270316</v>
+        <v>0.13504266048989214</v>
       </c>
       <c r="E14" s="26">
-        <v>144458</v>
+        <v>145035</v>
       </c>
       <c r="F14" s="25">
         <f t="shared" si="1"/>
-        <v>2.8970806184107349E-2</v>
+        <v>2.8883430905898386E-2</v>
       </c>
       <c r="G14" s="27">
-        <v>912527</v>
+        <v>865047</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="4"/>
-        <v>0.18300573768683581</v>
+        <v>0.17227238428554956</v>
       </c>
       <c r="I14" s="26">
-        <v>2378211</v>
+        <v>2433073</v>
       </c>
       <c r="J14" s="25">
         <f t="shared" si="2"/>
-        <v>0.47694617083105212</v>
+        <v>0.48454163398150035</v>
       </c>
       <c r="K14" s="26">
-        <v>243675</v>
+        <v>252790</v>
       </c>
       <c r="L14" s="25">
         <f t="shared" si="3"/>
-        <v>4.886860677091167E-2</v>
+        <v>5.0342624185210828E-2</v>
       </c>
       <c r="M14" s="27">
-        <v>614595</v>
+        <v>647344</v>
       </c>
       <c r="N14" s="28">
         <f t="shared" si="5"/>
-        <v>0.12325598185438991</v>
+        <v>0.12891726615194873</v>
       </c>
       <c r="O14" s="29">
         <f t="shared" si="6"/>
-        <v>4986330</v>
+        <v>5021391</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -13160,50 +12309,50 @@
         <v>28</v>
       </c>
       <c r="C15" s="24">
-        <v>284261</v>
+        <v>289388</v>
       </c>
       <c r="D15" s="25">
         <f t="shared" si="0"/>
-        <v>0.13120178492140197</v>
+        <v>0.13098255017396418</v>
       </c>
       <c r="E15" s="26">
-        <v>49485</v>
+        <v>62698</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" si="1"/>
-        <v>2.2839996787584568E-2</v>
+        <v>2.8378315378686073E-2</v>
       </c>
       <c r="G15" s="27">
-        <v>455273</v>
+        <v>479118</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="4"/>
-        <v>0.21013304753913284</v>
+        <v>0.21685798123712582</v>
       </c>
       <c r="I15" s="26">
-        <v>890797</v>
+        <v>914644</v>
       </c>
       <c r="J15" s="25">
         <f t="shared" si="2"/>
-        <v>0.4111508662905925</v>
+        <v>0.41398538854864503</v>
       </c>
       <c r="K15" s="26">
-        <v>91119</v>
+        <v>102441</v>
       </c>
       <c r="L15" s="25">
         <f t="shared" si="3"/>
-        <v>4.2056333581649355E-2</v>
+        <v>4.6366758201345816E-2</v>
       </c>
       <c r="M15" s="27">
-        <v>395659</v>
+        <v>361074</v>
       </c>
       <c r="N15" s="28">
         <f t="shared" si="5"/>
-        <v>0.18261797087963874</v>
+        <v>0.16342900646023312</v>
       </c>
       <c r="O15" s="29">
         <f t="shared" si="6"/>
-        <v>2166594</v>
+        <v>2209363</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -13214,50 +12363,50 @@
         <v>30</v>
       </c>
       <c r="C16" s="24">
-        <v>125628</v>
+        <v>118807</v>
       </c>
       <c r="D16" s="25">
         <f t="shared" si="0"/>
-        <v>0.12507728471539811</v>
+        <v>0.11706207274368266</v>
       </c>
       <c r="E16" s="26">
-        <v>32640</v>
+        <v>30018</v>
       </c>
       <c r="F16" s="25">
         <f t="shared" si="1"/>
-        <v>3.2496916078506334E-2</v>
+        <v>2.9577123398620168E-2</v>
       </c>
       <c r="G16" s="27">
-        <v>211228</v>
+        <v>226362</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="4"/>
-        <v>0.21030204011736325</v>
+        <v>0.22303740444927905</v>
       </c>
       <c r="I16" s="26">
-        <v>402113</v>
+        <v>381450</v>
       </c>
       <c r="J16" s="25">
         <f t="shared" si="2"/>
-        <v>0.40035025781484124</v>
+        <v>0.37584761544418893</v>
       </c>
       <c r="K16" s="26">
-        <v>64661</v>
+        <v>73791</v>
       </c>
       <c r="L16" s="25">
         <f t="shared" si="3"/>
-        <v>6.4377545666430711E-2</v>
+        <v>7.2707226087933272E-2</v>
       </c>
       <c r="M16" s="27">
-        <v>168133</v>
+        <v>184478</v>
       </c>
       <c r="N16" s="28">
         <f t="shared" si="5"/>
-        <v>0.16739595560746034</v>
+        <v>0.18176855787629592</v>
       </c>
       <c r="O16" s="29">
         <f t="shared" si="6"/>
-        <v>1004403</v>
+        <v>1014906</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -13268,50 +12417,50 @@
         <v>32</v>
       </c>
       <c r="C17" s="24">
-        <v>418390</v>
+        <v>443189</v>
       </c>
       <c r="D17" s="25">
         <f t="shared" si="0"/>
-        <v>0.15974888585470751</v>
+        <v>0.1626540425597508</v>
       </c>
       <c r="E17" s="26">
-        <v>72878</v>
+        <v>69098</v>
       </c>
       <c r="F17" s="25">
         <f t="shared" si="1"/>
-        <v>2.7826141407106705E-2</v>
+        <v>2.535953968350672E-2</v>
       </c>
       <c r="G17" s="27">
-        <v>421550</v>
+        <v>452942</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="4"/>
-        <v>0.16095543113375546</v>
+        <v>0.16623347453366091</v>
       </c>
       <c r="I17" s="26">
-        <v>1280717</v>
+        <v>1341956</v>
       </c>
       <c r="J17" s="25">
         <f t="shared" si="2"/>
-        <v>0.48900096523622322</v>
+        <v>0.49250899353845184</v>
       </c>
       <c r="K17" s="26">
-        <v>94608</v>
+        <v>114919</v>
       </c>
       <c r="L17" s="25">
         <f t="shared" si="3"/>
-        <v>3.6123049291192831E-2</v>
+        <v>4.2176227110609699E-2</v>
       </c>
       <c r="M17" s="27">
-        <v>330905</v>
+        <v>302630</v>
       </c>
       <c r="N17" s="28">
         <f t="shared" si="5"/>
-        <v>0.12634552707701424</v>
+        <v>0.11106772257402008</v>
       </c>
       <c r="O17" s="29">
         <f t="shared" si="6"/>
-        <v>2619048</v>
+        <v>2724734</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -13322,50 +12471,50 @@
         <v>34</v>
       </c>
       <c r="C18" s="24">
-        <v>231242</v>
+        <v>208612</v>
       </c>
       <c r="D18" s="25">
         <f t="shared" si="0"/>
-        <v>0.10204223922617314</v>
+        <v>8.8178467008736605E-2</v>
       </c>
       <c r="E18" s="26">
-        <v>56056</v>
+        <v>51146</v>
       </c>
       <c r="F18" s="25">
         <f t="shared" si="1"/>
-        <v>2.473633579567017E-2</v>
+        <v>2.1618966663609199E-2</v>
       </c>
       <c r="G18" s="27">
-        <v>467908</v>
+        <v>541146</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="4"/>
-        <v>0.20647797576495716</v>
+        <v>0.22873767907843162</v>
       </c>
       <c r="I18" s="26">
-        <v>902734</v>
+        <v>923724</v>
       </c>
       <c r="J18" s="25">
         <f t="shared" si="2"/>
-        <v>0.39835755955060148</v>
+        <v>0.3904500520544274</v>
       </c>
       <c r="K18" s="26">
-        <v>158877</v>
+        <v>124697</v>
       </c>
       <c r="L18" s="25">
         <f t="shared" si="3"/>
-        <v>7.0109084169557051E-2</v>
+        <v>5.2708330779573702E-2</v>
       </c>
       <c r="M18" s="27">
-        <v>449323</v>
+        <v>516468</v>
       </c>
       <c r="N18" s="28">
         <f t="shared" si="5"/>
-        <v>0.19827680549304103</v>
+        <v>0.21830650441522145</v>
       </c>
       <c r="O18" s="29">
         <f t="shared" si="6"/>
-        <v>2266140</v>
+        <v>2365793</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -13376,50 +12525,50 @@
         <v>36</v>
       </c>
       <c r="C19" s="24">
-        <v>151282</v>
+        <v>125457</v>
       </c>
       <c r="D19" s="25">
         <f t="shared" si="0"/>
-        <v>0.17502117163602371</v>
+        <v>0.15616146779855111</v>
       </c>
       <c r="E19" s="26">
-        <v>22495</v>
+        <v>30383</v>
       </c>
       <c r="F19" s="25">
         <f t="shared" si="1"/>
-        <v>2.6024915429147904E-2</v>
+        <v>3.7818964873409841E-2</v>
       </c>
       <c r="G19" s="27">
-        <v>164215</v>
+        <v>173838</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="4"/>
-        <v>0.18998361801278166</v>
+        <v>0.21638328063929896</v>
       </c>
       <c r="I19" s="26">
-        <v>347536</v>
+        <v>314479</v>
       </c>
       <c r="J19" s="25">
         <f t="shared" si="2"/>
-        <v>0.40207134957031992</v>
+        <v>0.39144489531728449</v>
       </c>
       <c r="K19" s="26">
-        <v>35987</v>
+        <v>40512</v>
       </c>
       <c r="L19" s="25">
         <f t="shared" si="3"/>
-        <v>4.1634080086630172E-2</v>
+        <v>5.0426946152505661E-2</v>
       </c>
       <c r="M19" s="27">
-        <v>142849</v>
+        <v>118711</v>
       </c>
       <c r="N19" s="28">
         <f t="shared" si="5"/>
-        <v>0.16526486526509665</v>
+        <v>0.14776444521894994</v>
       </c>
       <c r="O19" s="29">
         <f t="shared" si="6"/>
-        <v>864364</v>
+        <v>803380</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -13430,50 +12579,50 @@
         <v>38</v>
       </c>
       <c r="C20" s="24">
-        <v>331289</v>
+        <v>344197</v>
       </c>
       <c r="D20" s="25">
         <f t="shared" si="0"/>
-        <v>9.1338893987947714E-2</v>
+        <v>9.3110569359051765E-2</v>
       </c>
       <c r="E20" s="26">
-        <v>74696</v>
+        <v>100488</v>
       </c>
       <c r="F20" s="25">
         <f t="shared" si="1"/>
-        <v>2.0594254639676363E-2</v>
+        <v>2.7183545741980304E-2</v>
       </c>
       <c r="G20" s="27">
-        <v>931742</v>
+        <v>961558</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="4"/>
-        <v>0.25688834752170575</v>
+        <v>0.26011619174993128</v>
       </c>
       <c r="I20" s="26">
-        <v>1510479</v>
+        <v>1518982</v>
       </c>
       <c r="J20" s="25">
         <f t="shared" si="2"/>
-        <v>0.41645053488652289</v>
+        <v>0.41090793605450127</v>
       </c>
       <c r="K20" s="26">
-        <v>201184</v>
+        <v>250577</v>
       </c>
       <c r="L20" s="25">
         <f t="shared" si="3"/>
-        <v>5.5467957125263062E-2</v>
+        <v>6.7784922989692284E-2</v>
       </c>
       <c r="M20" s="27">
-        <v>577641</v>
+        <v>520846</v>
       </c>
       <c r="N20" s="28">
         <f t="shared" si="5"/>
-        <v>0.15926001183888419</v>
+        <v>0.14089683410484308</v>
       </c>
       <c r="O20" s="29">
         <f t="shared" si="6"/>
-        <v>3627031</v>
+        <v>3696648</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -13484,50 +12633,50 @@
         <v>40</v>
       </c>
       <c r="C21" s="24">
-        <v>111010</v>
+        <v>86615</v>
       </c>
       <c r="D21" s="25">
         <f t="shared" si="0"/>
-        <v>0.12007519707864973</v>
+        <v>9.9650134435354254E-2</v>
       </c>
       <c r="E21" s="26">
-        <v>29602</v>
+        <v>31717</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="1"/>
-        <v>3.2019331446916398E-2</v>
+        <v>3.6490253580628421E-2</v>
       </c>
       <c r="G21" s="27">
-        <v>186249</v>
+        <v>183596</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="4"/>
-        <v>0.20145829547519534</v>
+        <v>0.21122630123873809</v>
       </c>
       <c r="I21" s="26">
-        <v>378069</v>
+        <v>340968</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" si="2"/>
-        <v>0.40894252485657173</v>
+        <v>0.39228201856669015</v>
       </c>
       <c r="K21" s="26">
-        <v>38238</v>
+        <v>59780</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" si="3"/>
-        <v>4.136055657952805E-2</v>
+        <v>6.8776598008953152E-2</v>
       </c>
       <c r="M21" s="27">
-        <v>181336</v>
+        <v>166515</v>
       </c>
       <c r="N21" s="28">
         <f t="shared" si="5"/>
-        <v>0.19614409456313872</v>
+        <v>0.19157469416963591</v>
       </c>
       <c r="O21" s="29">
         <f t="shared" si="6"/>
-        <v>924504</v>
+        <v>869191</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -13538,50 +12687,50 @@
         <v>42</v>
       </c>
       <c r="C22" s="24">
-        <v>435144</v>
+        <v>408436</v>
       </c>
       <c r="D22" s="25">
         <f t="shared" si="0"/>
-        <v>0.16980082905622371</v>
+        <v>0.15891041572965511</v>
       </c>
       <c r="E22" s="26">
-        <v>73951</v>
+        <v>60653</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="1"/>
-        <v>2.8856978631296305E-2</v>
+        <v>2.3598295559771353E-2</v>
       </c>
       <c r="G22" s="27">
-        <v>439174</v>
+        <v>438850</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="4"/>
-        <v>0.17137340581494401</v>
+        <v>0.17074360718193093</v>
       </c>
       <c r="I22" s="26">
-        <v>1227339</v>
+        <v>1268157</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="2"/>
-        <v>0.4789292274121591</v>
+        <v>0.493402530826059</v>
       </c>
       <c r="K22" s="26">
-        <v>101661</v>
+        <v>113358</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="3"/>
-        <v>3.9669907163340776E-2</v>
+        <v>4.4104258454891937E-2</v>
       </c>
       <c r="M22" s="27">
-        <v>285404</v>
+        <v>280774</v>
       </c>
       <c r="N22" s="28">
         <f t="shared" si="5"/>
-        <v>0.11136965192203609</v>
+        <v>0.10924089224769165</v>
       </c>
       <c r="O22" s="29">
         <f t="shared" si="6"/>
-        <v>2562673</v>
+        <v>2570228</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -13592,50 +12741,50 @@
         <v>44</v>
       </c>
       <c r="C23" s="24">
-        <v>68690</v>
+        <v>65160</v>
       </c>
       <c r="D23" s="25">
         <f t="shared" si="0"/>
-        <v>0.14628900010648493</v>
+        <v>0.14225831805082526</v>
       </c>
       <c r="E23" s="26">
-        <v>10092</v>
+        <v>6937</v>
       </c>
       <c r="F23" s="25">
         <f t="shared" si="1"/>
-        <v>2.1492918751996593E-2</v>
+        <v>1.5144965505196053E-2</v>
       </c>
       <c r="G23" s="27">
-        <v>76095</v>
+        <v>89179</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="4"/>
-        <v>0.16205941859226919</v>
+        <v>0.1946969696969697</v>
       </c>
       <c r="I23" s="26">
-        <v>230217</v>
+        <v>202379</v>
       </c>
       <c r="J23" s="25">
         <f t="shared" si="2"/>
-        <v>0.49029283356405068</v>
+        <v>0.44183695747096324</v>
       </c>
       <c r="K23" s="26">
-        <v>17238</v>
+        <v>10649</v>
       </c>
       <c r="L23" s="25">
         <f t="shared" si="3"/>
-        <v>3.671174528804174E-2</v>
+        <v>2.3249061217360929E-2</v>
       </c>
       <c r="M23" s="27">
-        <v>67218</v>
+        <v>83736</v>
       </c>
       <c r="N23" s="28">
         <f t="shared" si="5"/>
-        <v>0.14315408369715685</v>
+        <v>0.18281372805868484</v>
       </c>
       <c r="O23" s="29">
         <f t="shared" si="6"/>
-        <v>469550</v>
+        <v>458040</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -13646,50 +12795,50 @@
         <v>46</v>
       </c>
       <c r="C24" s="24">
-        <v>19899</v>
+        <v>28165</v>
       </c>
       <c r="D24" s="25">
         <f t="shared" si="0"/>
-        <v>0.14374462736486243</v>
+        <v>0.20629619049711778</v>
       </c>
       <c r="E24" s="26">
-        <v>4672</v>
+        <v>3778</v>
       </c>
       <c r="F24" s="25">
         <f t="shared" si="1"/>
-        <v>3.374917830286131E-2</v>
+        <v>2.7672182059226381E-2</v>
       </c>
       <c r="G24" s="27">
-        <v>32877</v>
+        <v>29193</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="4"/>
-        <v>0.23749395014194594</v>
+        <v>0.21382583664769605</v>
       </c>
       <c r="I24" s="26">
-        <v>50528</v>
+        <v>48256</v>
       </c>
       <c r="J24" s="25">
         <f t="shared" si="2"/>
-        <v>0.36499967493300006</v>
+        <v>0.35345389556644474</v>
       </c>
       <c r="K24" s="26">
-        <v>6406</v>
+        <v>6700</v>
       </c>
       <c r="L24" s="25">
         <f t="shared" si="3"/>
-        <v>4.627509336646609E-2</v>
+        <v>4.9074542031979022E-2</v>
       </c>
       <c r="M24" s="27">
-        <v>24051</v>
+        <v>20435</v>
       </c>
       <c r="N24" s="28">
         <f t="shared" si="5"/>
-        <v>0.17373747589086416</v>
+        <v>0.14967735319753603</v>
       </c>
       <c r="O24" s="29">
         <f t="shared" si="6"/>
-        <v>138433</v>
+        <v>136527</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -13700,50 +12849,50 @@
         <v>48</v>
       </c>
       <c r="C25" s="24">
-        <v>299016</v>
+        <v>270017</v>
       </c>
       <c r="D25" s="25">
         <f t="shared" si="0"/>
-        <v>0.18714220356602607</v>
+        <v>0.16181220658402379</v>
       </c>
       <c r="E25" s="26">
-        <v>22897</v>
+        <v>31258</v>
       </c>
       <c r="F25" s="25">
         <f t="shared" si="1"/>
-        <v>1.4330320233871426E-2</v>
+        <v>1.87318796720333E-2</v>
       </c>
       <c r="G25" s="27">
-        <v>241441</v>
+        <v>264037</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="4"/>
-        <v>0.15110830447596416</v>
+        <v>0.15822859149544619</v>
       </c>
       <c r="I25" s="26">
-        <v>831166</v>
+        <v>885241</v>
       </c>
       <c r="J25" s="25">
         <f t="shared" si="2"/>
-        <v>0.520193691204349</v>
+        <v>0.53049548572366856</v>
       </c>
       <c r="K25" s="26">
-        <v>43714</v>
+        <v>49878</v>
       </c>
       <c r="L25" s="25">
         <f t="shared" si="3"/>
-        <v>2.735885132128469E-2</v>
+        <v>2.989022631907598E-2</v>
       </c>
       <c r="M25" s="27">
-        <v>159567</v>
+        <v>168275</v>
       </c>
       <c r="N25" s="28">
         <f t="shared" si="5"/>
-        <v>9.9866629198504697E-2</v>
+        <v>0.10084161020575225</v>
       </c>
       <c r="O25" s="29">
         <f t="shared" si="6"/>
-        <v>1597801</v>
+        <v>1668706</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -13754,50 +12903,50 @@
         <v>50</v>
       </c>
       <c r="C26" s="24">
-        <v>1396841</v>
+        <v>1332711</v>
       </c>
       <c r="D26" s="25">
         <f t="shared" si="0"/>
-        <v>0.13519440206300912</v>
+        <v>0.12692032427413308</v>
       </c>
       <c r="E26" s="26">
-        <v>308127</v>
+        <v>286845</v>
       </c>
       <c r="F26" s="25">
         <f t="shared" si="1"/>
-        <v>2.9822324462461233E-2</v>
+        <v>2.7317595800149995E-2</v>
       </c>
       <c r="G26" s="27">
-        <v>1646133</v>
+        <v>1607485</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="4"/>
-        <v>0.15932233278604177</v>
+        <v>0.15308834208302086</v>
       </c>
       <c r="I26" s="26">
-        <v>5175560</v>
+        <v>5374650</v>
       </c>
       <c r="J26" s="25">
         <f t="shared" si="2"/>
-        <v>0.50092082029467022</v>
+        <v>0.51185314810185345</v>
       </c>
       <c r="K26" s="26">
-        <v>578383</v>
+        <v>666408</v>
       </c>
       <c r="L26" s="25">
         <f t="shared" si="3"/>
-        <v>5.5979273123003548E-2</v>
+        <v>6.3465161958501479E-2</v>
       </c>
       <c r="M26" s="27">
-        <v>1227048</v>
+        <v>1232276</v>
       </c>
       <c r="N26" s="28">
         <f t="shared" si="5"/>
-        <v>0.11876084727081408</v>
+        <v>0.11735542778234111</v>
       </c>
       <c r="O26" s="29">
         <f t="shared" si="6"/>
-        <v>10332092</v>
+        <v>10500375</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -13808,50 +12957,50 @@
         <v>52</v>
       </c>
       <c r="C27" s="24">
-        <v>81205</v>
+        <v>76664</v>
       </c>
       <c r="D27" s="25">
         <f t="shared" si="0"/>
-        <v>0.13586633717204605</v>
+        <v>0.12995087685991599</v>
       </c>
       <c r="E27" s="26">
-        <v>15138</v>
+        <v>16060</v>
       </c>
       <c r="F27" s="25">
         <f t="shared" si="1"/>
-        <v>2.5327807550156185E-2</v>
+        <v>2.7222830564153328E-2</v>
       </c>
       <c r="G27" s="27">
-        <v>120090</v>
+        <v>111353</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="4"/>
-        <v>0.20092590888481018</v>
+        <v>0.18875117383624943</v>
       </c>
       <c r="I27" s="26">
-        <v>245343</v>
+        <v>244226</v>
       </c>
       <c r="J27" s="25">
         <f t="shared" si="2"/>
-        <v>0.41049017623054362</v>
+        <v>0.41398026260030579</v>
       </c>
       <c r="K27" s="26">
-        <v>35785</v>
+        <v>42712</v>
       </c>
       <c r="L27" s="25">
         <f t="shared" si="3"/>
-        <v>5.9872875755208027E-2</v>
+        <v>7.2399846765636183E-2</v>
       </c>
       <c r="M27" s="27">
-        <v>100122</v>
+        <v>98931</v>
       </c>
       <c r="N27" s="28">
         <f t="shared" si="5"/>
-        <v>0.16751689440723594</v>
+        <v>0.1676950093737393</v>
       </c>
       <c r="O27" s="29">
         <f t="shared" si="6"/>
-        <v>597683</v>
+        <v>589946</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -13862,55 +13011,54 @@
         <v>54</v>
       </c>
       <c r="C28" s="24">
-        <v>55527</v>
+        <v>63951</v>
       </c>
       <c r="D28" s="25">
         <f t="shared" si="0"/>
-        <v>0.14949720670391062</v>
+        <v>0.16720046224518342</v>
       </c>
       <c r="E28" s="26">
-        <v>13577</v>
+        <v>11760</v>
       </c>
       <c r="F28" s="25">
         <f t="shared" si="1"/>
-        <v>3.6553813017432858E-2</v>
+        <v>3.0746625322565044E-2</v>
       </c>
       <c r="G28" s="27">
-        <v>74674</v>
+        <v>68358</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="4"/>
-        <v>0.20104731776267079</v>
+        <v>0.1787226032142773</v>
       </c>
       <c r="I28" s="26">
-        <v>157828</v>
+        <v>165150</v>
       </c>
       <c r="J28" s="25">
         <f t="shared" si="2"/>
-        <v>0.42492562428484887</v>
+        <v>0.43178615408347082</v>
       </c>
       <c r="K28" s="26">
-        <v>14550</v>
+        <v>18866</v>
       </c>
       <c r="L28" s="25">
         <f t="shared" si="3"/>
-        <v>3.9173453590899909E-2</v>
+        <v>4.9325325963904092E-2</v>
       </c>
       <c r="M28" s="27">
-        <v>55269</v>
+        <v>54396</v>
       </c>
       <c r="N28" s="28">
         <f t="shared" si="5"/>
-        <v>0.14880258464023693</v>
+        <v>0.14221882917059933</v>
       </c>
       <c r="O28" s="29">
         <f t="shared" si="6"/>
-        <v>371425</v>
+        <v>382481</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/dados/Excel/Eixo3_EstudaTrabalha.xlsx
+++ b/dados/Excel/Eixo3_EstudaTrabalha.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rebeca\Documents\Ibict\cotec-indicadores\dados\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcasa\Ibict\cotec-indicadores\visao-2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14205" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="14196" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="2012" sheetId="7" r:id="rId8"/>
     <sheet name="2011" sheetId="8" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -595,44 +598,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="39">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -646,6 +649,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Dicionário da Planilha"/>
+      <sheetName val="Eixo 2"/>
+      <sheetName val="Eixo 3 - Série Histórica"/>
+      <sheetName val="Eixo 1"/>
+      <sheetName val="Eixo 3"/>
+      <sheetName val="Eixo 4"/>
+      <sheetName val="Eixo 5"/>
+      <sheetName val="Eixo 6 e 7"/>
+      <sheetName val="Eixo 8"/>
+      <sheetName val="Eixo 9"/>
+      <sheetName val="Eixo 10"/>
+      <sheetName val="Outros"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -976,22 +1014,22 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.69921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -1026,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
@@ -1061,7 +1099,7 @@
         <v>255286</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1134,7 @@
         <v>107764</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>7</v>
       </c>
@@ -1131,7 +1169,7 @@
         <v>596866</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>45</v>
       </c>
@@ -1166,7 +1204,7 @@
         <v>83107</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>27</v>
       </c>
@@ -1201,7 +1239,7 @@
         <v>1076035</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
@@ -1236,7 +1274,7 @@
         <v>124459</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>53</v>
       </c>
@@ -1271,7 +1309,7 @@
         <v>205498</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>19</v>
       </c>
@@ -1306,7 +1344,7 @@
         <v>809146</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>35</v>
       </c>
@@ -1341,7 +1379,7 @@
         <v>407634</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>11</v>
       </c>
@@ -1376,7 +1414,7 @@
         <v>1185543</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>39</v>
       </c>
@@ -1411,7 +1449,7 @@
         <v>412143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1484,7 @@
         <v>449642</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>33</v>
       </c>
@@ -1481,7 +1519,7 @@
         <v>1225384</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>3</v>
       </c>
@@ -1516,7 +1554,7 @@
         <v>343017</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>51</v>
       </c>
@@ -1551,7 +1589,7 @@
         <v>303323</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>9</v>
       </c>
@@ -1586,7 +1624,7 @@
         <v>1967446</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>25</v>
       </c>
@@ -1621,7 +1659,7 @@
         <v>3073011</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>15</v>
       </c>
@@ -1656,7 +1694,7 @@
         <v>565247</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>37</v>
       </c>
@@ -1691,7 +1729,7 @@
         <v>2116572</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>49</v>
       </c>
@@ -1726,7 +1764,7 @@
         <v>7114999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>31</v>
       </c>
@@ -1761,7 +1799,7 @@
         <v>1659087</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>47</v>
       </c>
@@ -1796,7 +1834,7 @@
         <v>1084234</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>41</v>
       </c>
@@ -1831,7 +1869,7 @@
         <v>1622599</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
         <v>23</v>
       </c>
@@ -1866,7 +1904,7 @@
         <v>396876</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
         <v>21</v>
       </c>
@@ -1901,7 +1939,7 @@
         <v>520065</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>17</v>
       </c>
@@ -1936,7 +1974,7 @@
         <v>1050795</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
         <v>13</v>
       </c>
@@ -1980,24 +2018,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -2032,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
@@ -2072,7 +2110,7 @@
         <v>116875.9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>3</v>
       </c>
@@ -2112,7 +2150,7 @@
         <v>342469.60000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -2152,7 +2190,7 @@
         <v>131326.9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
@@ -2192,7 +2230,7 @@
         <v>561290.9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
@@ -2232,7 +2270,7 @@
         <v>1990077.8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>11</v>
       </c>
@@ -2272,7 +2310,7 @@
         <v>1241752.5999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
@@ -2312,7 +2350,7 @@
         <v>457984.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
@@ -2352,7 +2390,7 @@
         <v>564158.80000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
@@ -2392,7 +2430,7 @@
         <v>1044033</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2470,7 @@
         <v>814318.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
@@ -2472,7 +2510,7 @@
         <v>499973.30000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>23</v>
       </c>
@@ -2512,7 +2550,7 @@
         <v>402154</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>25</v>
       </c>
@@ -2552,7 +2590,7 @@
         <v>3305207.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
@@ -2592,7 +2630,7 @@
         <v>1140272.2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
@@ -2632,7 +2670,7 @@
         <v>483044.70000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2672,7 +2710,7 @@
         <v>1745776.4</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>33</v>
       </c>
@@ -2712,7 +2750,7 @@
         <v>1247588</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
@@ -2752,7 +2790,7 @@
         <v>393779.4</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>37</v>
       </c>
@@ -2792,7 +2830,7 @@
         <v>2180486.2999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>39</v>
       </c>
@@ -2832,7 +2870,7 @@
         <v>445655.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
@@ -2872,7 +2910,7 @@
         <v>1539896.5999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
@@ -2912,7 +2950,7 @@
         <v>277969.10000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>45</v>
       </c>
@@ -2952,7 +2990,7 @@
         <v>73848.700000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>47</v>
       </c>
@@ -2992,7 +3030,7 @@
         <v>1135364.2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>49</v>
       </c>
@@ -3032,7 +3070,7 @@
         <v>7054850.7999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>51</v>
       </c>
@@ -3072,7 +3110,7 @@
         <v>324566.09999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
@@ -3131,22 +3169,22 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -3181,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -3221,7 +3259,7 @@
         <v>116077.5</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -3261,7 +3299,7 @@
         <v>351779.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -3301,7 +3339,7 @@
         <v>126402.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -3341,7 +3379,7 @@
         <v>577331</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -3381,7 +3419,7 @@
         <v>2061788.6</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -3421,7 +3459,7 @@
         <v>1234420.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -3461,7 +3499,7 @@
         <v>447357.2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
@@ -3501,7 +3539,7 @@
         <v>567121.30000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
@@ -3541,7 +3579,7 @@
         <v>1062756.8999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
@@ -3581,7 +3619,7 @@
         <v>875343.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
@@ -3621,7 +3659,7 @@
         <v>494873.10000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -3661,7 +3699,7 @@
         <v>391603.10000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
@@ -3701,7 +3739,7 @@
         <v>3255844.9000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -3741,7 +3779,7 @@
         <v>1173080.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -3781,7 +3819,7 @@
         <v>477923.39999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
@@ -3821,7 +3859,7 @@
         <v>1724084.4000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>33</v>
       </c>
@@ -3861,7 +3899,7 @@
         <v>1196650.3999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
@@ -3901,7 +3939,7 @@
         <v>387319.19999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
@@ -3941,7 +3979,7 @@
         <v>2105287.4</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
@@ -3981,7 +4019,7 @@
         <v>440955.80000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -4021,7 +4059,7 @@
         <v>1640078.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>43</v>
       </c>
@@ -4061,7 +4099,7 @@
         <v>262651.09999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>45</v>
       </c>
@@ -4101,7 +4139,7 @@
         <v>69074.5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -4141,7 +4179,7 @@
         <v>1144834.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>49</v>
       </c>
@@ -4181,7 +4219,7 @@
         <v>6910690.2999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>51</v>
       </c>
@@ -4221,7 +4259,7 @@
         <v>300033.90000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>53</v>
       </c>
@@ -4276,26 +4314,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -4330,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
@@ -4341,36 +4379,31 @@
         <v>24967.599999999999</v>
       </c>
       <c r="D2" s="3">
-        <f>C2/K2</f>
         <v>0.24113639568327255</v>
       </c>
       <c r="E2" s="4">
         <v>5726.7</v>
       </c>
       <c r="F2" s="3">
-        <f>E2/K2</f>
         <v>5.5308311458025478E-2</v>
       </c>
       <c r="G2" s="4">
         <v>57182.8</v>
       </c>
       <c r="H2" s="3">
-        <f>G2/K2</f>
         <v>0.55226991329072239</v>
       </c>
       <c r="I2" s="4">
         <v>15664.3</v>
       </c>
       <c r="J2" s="3">
-        <f>I2/K2</f>
         <v>0.15128537956797955</v>
       </c>
       <c r="K2" s="21">
-        <f>SUM(C2,E2,G2,I2)</f>
         <v>103541.40000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
@@ -4381,36 +4414,31 @@
         <v>66746.5</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D20" si="0">C3/K3</f>
         <v>0.16722880204282886</v>
       </c>
       <c r="E3" s="4">
         <v>26463.9</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F28" si="1">E3/K3</f>
         <v>6.6303495979283089E-2</v>
       </c>
       <c r="G3" s="4">
         <v>231279.1</v>
       </c>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H28" si="2">G3/K3</f>
         <v>0.57945400628562727</v>
       </c>
       <c r="I3" s="4">
         <v>74643.3</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J28" si="3">I3/K3</f>
         <v>0.18701369569226084</v>
       </c>
       <c r="K3" s="21">
-        <f t="shared" ref="K3:K28" si="4">SUM(C3,E3,G3,I3)</f>
         <v>399132.8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -4421,36 +4449,31 @@
         <v>14474.7</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
         <v>0.13845213522008368</v>
       </c>
       <c r="E4" s="4">
         <v>13036.6</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
         <v>0.12469654680305242</v>
       </c>
       <c r="G4" s="4">
         <v>58587.9</v>
       </c>
       <c r="H4" s="3">
-        <f t="shared" si="2"/>
         <v>0.56039985996675168</v>
       </c>
       <c r="I4" s="4">
         <v>18447.400000000001</v>
       </c>
       <c r="J4" s="3">
-        <f t="shared" si="3"/>
         <v>0.17645145801011225</v>
       </c>
       <c r="K4" s="21">
-        <f t="shared" si="4"/>
         <v>104546.6</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>7</v>
       </c>
@@ -4458,39 +4481,34 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>391881.1</v>
+        <v>115455</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.1809464245312204</v>
+        <v>0.19965528314804271</v>
       </c>
       <c r="E5" s="4">
-        <v>225990.8</v>
+        <v>53710</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.10434855683764827</v>
+        <v>9.2880215303636687E-2</v>
       </c>
       <c r="G5" s="4">
-        <v>1196219.8999999999</v>
+        <v>319067</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" si="2"/>
-        <v>0.55234027325659241</v>
+        <v>0.55175966591482861</v>
       </c>
       <c r="I5" s="4">
-        <v>351638.2</v>
+        <v>90039.7</v>
       </c>
       <c r="J5" s="3">
-        <f t="shared" si="3"/>
-        <v>0.16236474537453885</v>
+        <v>0.15570483563349202</v>
       </c>
       <c r="K5" s="21">
-        <f t="shared" si="4"/>
-        <v>2165730</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>578271.69999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
@@ -4498,39 +4516,34 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>160088.70000000001</v>
+        <v>391881</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.13594216352321745</v>
+        <v>0.18094637835741298</v>
       </c>
       <c r="E6" s="4">
-        <v>67007</v>
+        <v>225991</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>5.6900184405271767E-2</v>
+        <v>0.10434864918526317</v>
       </c>
       <c r="G6" s="4">
-        <v>749490.4</v>
+        <v>1196220</v>
       </c>
       <c r="H6" s="3">
-        <f t="shared" si="2"/>
-        <v>0.63644308758757884</v>
+        <v>0.55234031943039996</v>
       </c>
       <c r="I6" s="4">
-        <v>201037.5</v>
+        <v>351638</v>
       </c>
       <c r="J6" s="3">
-        <f t="shared" si="3"/>
-        <v>0.17071456448393185</v>
+        <v>0.16236465302692396</v>
       </c>
       <c r="K6" s="21">
-        <f t="shared" si="4"/>
-        <v>1177623.6000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2165730</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>11</v>
       </c>
@@ -4538,39 +4551,34 @@
         <v>12</v>
       </c>
       <c r="C7" s="2">
-        <v>78188</v>
+        <v>160089</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.19499557576416579</v>
+        <v>0.13594248753633378</v>
       </c>
       <c r="E7" s="4">
-        <v>35876.300000000003</v>
+        <v>67007</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>8.9473062040056547E-2</v>
+        <v>5.6900213395967979E-2</v>
       </c>
       <c r="G7" s="4">
-        <v>225223.2</v>
+        <v>749490</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.56169140481209223</v>
+        <v>0.6364430721886376</v>
       </c>
       <c r="I7" s="4">
-        <v>61685.7</v>
+        <v>201037</v>
       </c>
       <c r="J7" s="3">
-        <f t="shared" si="3"/>
-        <v>0.15383995738368547</v>
+        <v>0.17071422687906063</v>
       </c>
       <c r="K7" s="21">
-        <f t="shared" si="4"/>
-        <v>400973.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1177623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -4578,39 +4586,34 @@
         <v>14</v>
       </c>
       <c r="C8" s="2">
-        <v>89265.8</v>
+        <v>78188</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.16349760300906888</v>
+        <v>0.1949956730253658</v>
       </c>
       <c r="E8" s="4">
-        <v>34710.400000000001</v>
+        <v>35876.300000000003</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>6.3574932387162664E-2</v>
+        <v>8.9473106668030031E-2</v>
       </c>
       <c r="G8" s="4">
-        <v>332085.40000000002</v>
+        <v>225223</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.60824153140741299</v>
+        <v>0.56169118618959379</v>
       </c>
       <c r="I8" s="4">
-        <v>89914.6</v>
+        <v>61685.7</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="3"/>
-        <v>0.16468593319635544</v>
+        <v>0.15384003411701036</v>
       </c>
       <c r="K8" s="21">
-        <f t="shared" si="4"/>
-        <v>545976.20000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>400973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>15</v>
       </c>
@@ -4621,36 +4624,31 @@
         <v>89265.8</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
         <v>0.16349760300906888</v>
       </c>
       <c r="E9" s="4">
         <v>34710.400000000001</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
         <v>6.3574932387162664E-2</v>
       </c>
       <c r="G9" s="4">
         <v>332085.40000000002</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="2"/>
         <v>0.60824153140741299</v>
       </c>
       <c r="I9" s="4">
         <v>89914.6</v>
       </c>
       <c r="J9" s="3">
-        <f t="shared" si="3"/>
         <v>0.16468593319635544</v>
       </c>
       <c r="K9" s="21">
-        <f t="shared" si="4"/>
         <v>545976.20000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>17</v>
       </c>
@@ -4661,36 +4659,31 @@
         <v>217325.7</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" si="0"/>
         <v>0.21167406594157961</v>
       </c>
       <c r="E10" s="4">
         <v>68505.600000000006</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
         <v>6.6724086897074195E-2</v>
       </c>
       <c r="G10" s="4">
         <v>604082.4</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="2"/>
         <v>0.58837301695909716</v>
       </c>
       <c r="I10" s="4">
         <v>136786</v>
       </c>
       <c r="J10" s="3">
-        <f t="shared" si="3"/>
         <v>0.13322883020224902</v>
       </c>
       <c r="K10" s="21">
-        <f t="shared" si="4"/>
         <v>1026699.7000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>19</v>
       </c>
@@ -4701,36 +4694,31 @@
         <v>149969.29999999999</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
         <v>0.16385395657199797</v>
       </c>
       <c r="E11" s="4">
         <v>45140.5</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
         <v>4.9319757621314998E-2</v>
       </c>
       <c r="G11" s="4">
         <v>568020.6</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="2"/>
         <v>0.62060983630916622</v>
       </c>
       <c r="I11" s="4">
         <v>152131.6</v>
       </c>
       <c r="J11" s="3">
-        <f t="shared" si="3"/>
         <v>0.16621644949752096</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="4"/>
         <v>915261.99999999988</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>21</v>
       </c>
@@ -4741,36 +4729,31 @@
         <v>109358.8</v>
       </c>
       <c r="D12" s="3">
-        <f t="shared" si="0"/>
         <v>0.21389951345932862</v>
       </c>
       <c r="E12" s="4">
         <v>29625.200000000001</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
         <v>5.7945184714310163E-2</v>
       </c>
       <c r="G12" s="4">
         <v>313415.5</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="2"/>
         <v>0.61302266448253095</v>
       </c>
       <c r="I12" s="4">
         <v>58863</v>
       </c>
       <c r="J12" s="3">
-        <f t="shared" si="3"/>
         <v>0.11513263734383022</v>
       </c>
       <c r="K12" s="21">
-        <f t="shared" si="4"/>
         <v>511262.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>23</v>
       </c>
@@ -4781,36 +4764,31 @@
         <v>87186.7</v>
       </c>
       <c r="D13" s="3">
-        <f t="shared" si="0"/>
         <v>0.2185749895521763</v>
       </c>
       <c r="E13" s="4">
         <v>25085.4</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
         <v>6.2888502981672242E-2</v>
       </c>
       <c r="G13" s="4">
         <v>250363.9</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="2"/>
         <v>0.62765636073784314</v>
       </c>
       <c r="I13" s="4">
         <v>36250.9</v>
       </c>
       <c r="J13" s="3">
-        <f t="shared" si="3"/>
         <v>9.08801467283082E-2</v>
       </c>
       <c r="K13" s="21">
-        <f t="shared" si="4"/>
         <v>398886.9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>25</v>
       </c>
@@ -4821,36 +4799,31 @@
         <v>614122</v>
       </c>
       <c r="D14" s="3">
-        <f t="shared" si="0"/>
         <v>0.19115232679234603</v>
       </c>
       <c r="E14" s="4">
         <v>222882.5</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="1"/>
         <v>6.9374665744420597E-2</v>
       </c>
       <c r="G14" s="4">
         <v>1960533.6</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="2"/>
         <v>0.61023796476038084</v>
       </c>
       <c r="I14" s="4">
         <v>415198.1</v>
       </c>
       <c r="J14" s="3">
-        <f t="shared" si="3"/>
         <v>0.12923504270285247</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" si="4"/>
         <v>3212736.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
@@ -4861,36 +4834,31 @@
         <v>220339.1</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" si="0"/>
         <v>0.18081957212041971</v>
       </c>
       <c r="E15" s="4">
         <v>76548.100000000006</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="1"/>
         <v>6.2818604090835908E-2</v>
       </c>
       <c r="G15" s="4">
         <v>751284.1</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="2"/>
         <v>0.61653546512114565</v>
       </c>
       <c r="I15" s="4">
         <v>170386.5</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" si="3"/>
         <v>0.13982635866759868</v>
       </c>
       <c r="K15" s="21">
-        <f t="shared" si="4"/>
         <v>1218557.8</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
@@ -4901,36 +4869,31 @@
         <v>92420.800000000003</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="0"/>
         <v>0.18629244556606855</v>
       </c>
       <c r="E16" s="4">
         <v>31675.599999999999</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="1"/>
         <v>6.3848451742168008E-2</v>
       </c>
       <c r="G16" s="4">
         <v>299352</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="2"/>
         <v>0.60340330493886385</v>
       </c>
       <c r="I16" s="4">
         <v>72657.600000000006</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="3"/>
         <v>0.1464557977528996</v>
       </c>
       <c r="K16" s="21">
-        <f t="shared" si="4"/>
         <v>496106</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>31</v>
       </c>
@@ -4941,36 +4904,31 @@
         <v>356412.1</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="0"/>
         <v>0.20997339779211396</v>
       </c>
       <c r="E17" s="4">
         <v>100924.6</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="1"/>
         <v>5.9457805116072064E-2</v>
       </c>
       <c r="G17" s="4">
         <v>1061051.8999999999</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="2"/>
         <v>0.62509851005837991</v>
       </c>
       <c r="I17" s="4">
         <v>179026.9</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="3"/>
         <v>0.10547028703343407</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" si="4"/>
         <v>1697415.4999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>33</v>
       </c>
@@ -4981,36 +4939,31 @@
         <v>163398.29999999999</v>
       </c>
       <c r="D18" s="3">
-        <f t="shared" si="0"/>
         <v>0.13300048137884352</v>
       </c>
       <c r="E18" s="4">
         <v>74606.100000000006</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="1"/>
         <v>6.0726746935544244E-2</v>
       </c>
       <c r="G18" s="4">
         <v>751467.2</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="2"/>
         <v>0.6116679264130146</v>
       </c>
       <c r="I18" s="4">
         <v>239082.6</v>
       </c>
       <c r="J18" s="3">
-        <f t="shared" si="3"/>
         <v>0.19460484527259767</v>
       </c>
       <c r="K18" s="21">
-        <f t="shared" si="4"/>
         <v>1228554.2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>35</v>
       </c>
@@ -5021,36 +4974,31 @@
         <v>83480.600000000006</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="0"/>
         <v>0.19949152489719019</v>
       </c>
       <c r="E19" s="4">
         <v>20658.400000000001</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="1"/>
         <v>4.9366867487010323E-2</v>
       </c>
       <c r="G19" s="4">
         <v>255111.4</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="2"/>
         <v>0.60963340230732699</v>
       </c>
       <c r="I19" s="4">
         <v>59216.5</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="3"/>
         <v>0.14150820530847241</v>
       </c>
       <c r="K19" s="21">
-        <f t="shared" si="4"/>
         <v>418466.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>37</v>
       </c>
@@ -5061,36 +5009,31 @@
         <v>291567.40000000002</v>
       </c>
       <c r="D20" s="3">
-        <f t="shared" si="0"/>
         <v>0.1406628139915134</v>
       </c>
       <c r="E20" s="4">
         <v>117542.8</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="1"/>
         <v>5.6706960423015942E-2</v>
       </c>
       <c r="G20" s="4">
         <v>1316404.5</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="2"/>
         <v>0.6350818415264915</v>
       </c>
       <c r="I20" s="4">
         <v>347296.1</v>
       </c>
       <c r="J20" s="3">
-        <f t="shared" si="3"/>
         <v>0.16754838405897923</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" si="4"/>
         <v>2072810.7999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>39</v>
       </c>
@@ -5101,36 +5044,31 @@
         <v>74043.199999999997</v>
       </c>
       <c r="D21" s="3">
-        <f>C21/K21</f>
         <v>0.16690286172839783</v>
       </c>
       <c r="E21" s="4">
         <v>30918.9</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="1"/>
         <v>6.9695162979100861E-2</v>
       </c>
       <c r="G21" s="4">
         <v>254817.5</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="2"/>
         <v>0.57439130086862833</v>
       </c>
       <c r="I21" s="4">
         <v>83850.899999999994</v>
       </c>
       <c r="J21" s="3">
-        <f t="shared" si="3"/>
         <v>0.18901067442387301</v>
       </c>
       <c r="K21" s="21">
-        <f t="shared" si="4"/>
         <v>443630.5</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>41</v>
       </c>
@@ -5141,36 +5079,31 @@
         <v>390608.6</v>
       </c>
       <c r="D22" s="3">
-        <f t="shared" ref="D22:D28" si="5">C22/K22</f>
         <v>0.22945799877319625</v>
       </c>
       <c r="E22" s="4">
         <v>110917.9</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="1"/>
         <v>6.5157293930869692E-2</v>
       </c>
       <c r="G22" s="4">
         <v>1029362.6</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="2"/>
         <v>0.60468582158194706</v>
       </c>
       <c r="I22" s="4">
         <v>171420.7</v>
       </c>
       <c r="J22" s="3">
-        <f t="shared" si="3"/>
         <v>0.10069888571398697</v>
       </c>
       <c r="K22" s="21">
-        <f t="shared" si="4"/>
         <v>1702309.8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>43</v>
       </c>
@@ -5181,36 +5114,31 @@
         <v>61992.800000000003</v>
       </c>
       <c r="D23" s="3">
-        <f t="shared" si="5"/>
         <v>0.22698531783649081</v>
       </c>
       <c r="E23" s="4">
         <v>15154.3</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="1"/>
         <v>5.5487146928184121E-2</v>
       </c>
       <c r="G23" s="4">
         <v>170625.9</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="2"/>
         <v>0.62474310149948531</v>
       </c>
       <c r="I23" s="4">
         <v>25340.7</v>
       </c>
       <c r="J23" s="3">
-        <f t="shared" si="3"/>
         <v>9.2784433735839694E-2</v>
       </c>
       <c r="K23" s="21">
-        <f t="shared" si="4"/>
         <v>273113.7</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>45</v>
       </c>
@@ -5221,36 +5149,31 @@
         <v>14216</v>
       </c>
       <c r="D24" s="3">
-        <f t="shared" si="5"/>
         <v>0.2037940441563319</v>
       </c>
       <c r="E24" s="4">
         <v>5101.3</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="1"/>
         <v>7.3129892899176707E-2</v>
       </c>
       <c r="G24" s="4">
         <v>41805.300000000003</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" si="2"/>
         <v>0.59930157246544058</v>
       </c>
       <c r="I24" s="4">
         <v>8634.1</v>
       </c>
       <c r="J24" s="3">
-        <f t="shared" si="3"/>
         <v>0.12377449047905074</v>
       </c>
       <c r="K24" s="21">
-        <f t="shared" si="4"/>
         <v>69756.700000000012</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>47</v>
       </c>
@@ -5261,36 +5184,31 @@
         <v>241180</v>
       </c>
       <c r="D25" s="3">
-        <f t="shared" si="5"/>
         <v>0.2237800909205204</v>
       </c>
       <c r="E25" s="4">
         <v>50590.5</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="1"/>
         <v>4.6940652996577605E-2</v>
       </c>
       <c r="G25" s="4">
         <v>709946.8</v>
       </c>
       <c r="H25" s="3">
-        <f t="shared" si="2"/>
         <v>0.65872775293445773</v>
       </c>
       <c r="I25" s="4">
         <v>76037.2</v>
       </c>
       <c r="J25" s="3">
-        <f t="shared" si="3"/>
         <v>7.0551503148444286E-2</v>
       </c>
       <c r="K25" s="21">
-        <f t="shared" si="4"/>
         <v>1077754.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>49</v>
       </c>
@@ -5301,36 +5219,31 @@
         <v>1121492.2</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="5"/>
         <v>0.16052702699201649</v>
       </c>
       <c r="E26" s="4">
         <v>611464.30000000005</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="1"/>
         <v>8.752316439717947E-2</v>
       </c>
       <c r="G26" s="4">
         <v>4202489.9000000004</v>
       </c>
       <c r="H26" s="3">
-        <f t="shared" si="2"/>
         <v>0.60153178917425976</v>
       </c>
       <c r="I26" s="4">
         <v>1050867.5</v>
       </c>
       <c r="J26" s="3">
-        <f t="shared" si="3"/>
         <v>0.15041801943654434</v>
       </c>
       <c r="K26" s="21">
-        <f t="shared" si="4"/>
         <v>6986313.9000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>51</v>
       </c>
@@ -5341,36 +5254,31 @@
         <v>54995.6</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" si="5"/>
         <v>0.17909605918067742</v>
       </c>
       <c r="E27" s="4">
         <v>15008.5</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="1"/>
         <v>4.8875968335888642E-2</v>
       </c>
       <c r="G27" s="4">
         <v>179943.1</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" si="2"/>
         <v>0.58599415383693532</v>
       </c>
       <c r="I27" s="4">
         <v>57126</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" si="3"/>
         <v>0.18603381864649862</v>
       </c>
       <c r="K27" s="21">
-        <f t="shared" si="4"/>
         <v>307073.2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>53</v>
       </c>
@@ -5381,32 +5289,27 @@
         <v>41758.5</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="5"/>
         <v>0.19103092241148606</v>
       </c>
       <c r="E28" s="4">
         <v>14120.2</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="1"/>
         <v>6.4595108316502406E-2</v>
       </c>
       <c r="G28" s="4">
         <v>133163</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" si="2"/>
         <v>0.60917539473593918</v>
       </c>
       <c r="I28" s="4">
         <v>29553.8</v>
       </c>
       <c r="J28" s="3">
-        <f t="shared" si="3"/>
         <v>0.13519857453607234</v>
       </c>
       <c r="K28" s="21">
-        <f t="shared" si="4"/>
         <v>218595.5</v>
       </c>
     </row>
@@ -5429,26 +5332,26 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.796875" customWidth="1"/>
+    <col min="2" max="2" width="20.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="34.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -5495,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -5549,7 +5452,7 @@
         <v>226004</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -5603,7 +5506,7 @@
         <v>817999</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
@@ -5657,7 +5560,7 @@
         <v>209954</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -5711,7 +5614,7 @@
         <v>1074692</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -5765,7 +5668,7 @@
         <v>3625890</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -5819,7 +5722,7 @@
         <v>2292212</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -5873,7 +5776,7 @@
         <v>727574</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -5927,7 +5830,7 @@
         <v>865331</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -5981,7 +5884,7 @@
         <v>1571118</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
@@ -6035,7 +5938,7 @@
         <v>1792607</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
@@ -6089,7 +5992,7 @@
         <v>784689</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -6143,7 +6046,7 @@
         <v>634478</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
@@ -6197,7 +6100,7 @@
         <v>4871826</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
@@ -6251,7 +6154,7 @@
         <v>2139650</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -6305,7 +6208,7 @@
         <v>964483</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
@@ -6359,7 +6262,7 @@
         <v>2614040</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
@@ -6413,7 +6316,7 @@
         <v>2263021</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>35</v>
       </c>
@@ -6467,7 +6370,7 @@
         <v>791948</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
@@ -6521,7 +6424,7 @@
         <v>3591796</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>39</v>
       </c>
@@ -6575,7 +6478,7 @@
         <v>884510</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
@@ -6629,7 +6532,7 @@
         <v>2390782</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -6683,7 +6586,7 @@
         <v>454442</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
@@ -6737,7 +6640,7 @@
         <v>134330</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -6791,7 +6694,7 @@
         <v>1521962</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -6845,7 +6748,7 @@
         <v>10147915</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
@@ -6899,7 +6802,7 @@
         <v>589482</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>53</v>
       </c>
@@ -6972,9 +6875,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -7021,7 +6924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -7075,7 +6978,7 @@
         <v>217716</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -7129,7 +7032,7 @@
         <v>905825</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
@@ -7183,7 +7086,7 @@
         <v>215775</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -7237,7 +7140,7 @@
         <v>1073723</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -7291,7 +7194,7 @@
         <v>3719035</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -7345,7 +7248,7 @@
         <v>2300480</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -7399,7 +7302,7 @@
         <v>710230</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -7453,7 +7356,7 @@
         <v>905677</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -7507,7 +7410,7 @@
         <v>1606357</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
@@ -7561,7 +7464,7 @@
         <v>1798538</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
@@ -7615,7 +7518,7 @@
         <v>786950</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -7669,7 +7572,7 @@
         <v>621160</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
@@ -7723,7 +7626,7 @@
         <v>4961486</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
@@ -7777,7 +7680,7 @@
         <v>2146988</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -7831,7 +7734,7 @@
         <v>980917</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
@@ -7885,7 +7788,7 @@
         <v>2600936</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
@@ -7939,7 +7842,7 @@
         <v>2274846</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>35</v>
       </c>
@@ -7993,7 +7896,7 @@
         <v>822314</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
@@ -8047,7 +7950,7 @@
         <v>3649085</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>39</v>
       </c>
@@ -8101,7 +8004,7 @@
         <v>913566</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
@@ -8155,7 +8058,7 @@
         <v>2460684</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -8209,7 +8112,7 @@
         <v>452622</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
@@ -8263,7 +8166,7 @@
         <v>141819</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -8317,7 +8220,7 @@
         <v>1530835</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -8371,7 +8274,7 @@
         <v>10218686</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
@@ -8425,7 +8328,7 @@
         <v>573979</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>53</v>
       </c>
@@ -8498,9 +8401,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -8547,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -8601,7 +8504,7 @@
         <v>220209</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -8655,7 +8558,7 @@
         <v>848704</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
@@ -8709,7 +8612,7 @@
         <v>215128</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -8763,7 +8666,7 @@
         <v>1047839</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -8817,7 +8720,7 @@
         <v>3677120</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -8871,7 +8774,7 @@
         <v>2345589</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -8925,7 +8828,7 @@
         <v>704611</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -8979,7 +8882,7 @@
         <v>947827</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -9033,7 +8936,7 @@
         <v>1613576</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
@@ -9087,7 +8990,7 @@
         <v>1798449</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
@@ -9141,7 +9044,7 @@
         <v>837131</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -9195,7 +9098,7 @@
         <v>637841</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
@@ -9249,7 +9152,7 @@
         <v>4974921</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
@@ -9303,7 +9206,7 @@
         <v>2143398</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -9357,7 +9260,7 @@
         <v>988756</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
@@ -9411,7 +9314,7 @@
         <v>2657461</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
@@ -9465,7 +9368,7 @@
         <v>2287455</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>35</v>
       </c>
@@ -9519,7 +9422,7 @@
         <v>792682</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
@@ -9573,7 +9476,7 @@
         <v>3683133</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>39</v>
       </c>
@@ -9627,7 +9530,7 @@
         <v>859593</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
@@ -9681,7 +9584,7 @@
         <v>2440311</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -9735,7 +9638,7 @@
         <v>456967</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
@@ -9789,7 +9692,7 @@
         <v>132454</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -9843,7 +9746,7 @@
         <v>1534676</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -9897,7 +9800,7 @@
         <v>10204111</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
@@ -9951,7 +9854,7 @@
         <v>576340</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>53</v>
       </c>
@@ -10024,9 +9927,9 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -10073,7 +9976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -10127,7 +10030,7 @@
         <v>221424</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -10181,7 +10084,7 @@
         <v>885418</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
@@ -10235,7 +10138,7 @@
         <v>206775</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -10289,7 +10192,7 @@
         <v>1021836</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -10343,7 +10246,7 @@
         <v>3800359</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -10397,7 +10300,7 @@
         <v>2342955</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -10451,7 +10354,7 @@
         <v>734908</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -10505,7 +10408,7 @@
         <v>913994</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -10559,7 +10462,7 @@
         <v>1614353</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
@@ -10613,7 +10516,7 @@
         <v>1779850</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
@@ -10667,7 +10570,7 @@
         <v>807309</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -10721,7 +10624,7 @@
         <v>680485</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
@@ -10775,7 +10678,7 @@
         <v>4986330</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
@@ -10829,7 +10732,7 @@
         <v>2166594</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -10883,7 +10786,7 @@
         <v>1004403</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
@@ -10937,7 +10840,7 @@
         <v>2619048</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
@@ -10991,7 +10894,7 @@
         <v>2266140</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>35</v>
       </c>
@@ -11045,7 +10948,7 @@
         <v>864364</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
@@ -11099,7 +11002,7 @@
         <v>3627031</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>39</v>
       </c>
@@ -11153,7 +11056,7 @@
         <v>924504</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
@@ -11207,7 +11110,7 @@
         <v>2562673</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -11261,7 +11164,7 @@
         <v>469550</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
@@ -11315,7 +11218,7 @@
         <v>138433</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -11369,7 +11272,7 @@
         <v>1597801</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -11423,7 +11326,7 @@
         <v>10332092</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
@@ -11477,7 +11380,7 @@
         <v>597683</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>53</v>
       </c>
@@ -11550,9 +11453,9 @@
       <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
@@ -11599,7 +11502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
@@ -11653,7 +11556,7 @@
         <v>206191</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -11707,7 +11610,7 @@
         <v>881561</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
         <v>5</v>
       </c>
@@ -11761,7 +11664,7 @@
         <v>208362</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -11815,7 +11718,7 @@
         <v>1011210</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -11869,7 +11772,7 @@
         <v>3804673</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -11923,7 +11826,7 @@
         <v>2299341</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>13</v>
       </c>
@@ -11977,7 +11880,7 @@
         <v>715738</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -12031,7 +11934,7 @@
         <v>974251</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
@@ -12085,7 +11988,7 @@
         <v>1600442</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
@@ -12139,7 +12042,7 @@
         <v>1821700</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>21</v>
       </c>
@@ -12193,7 +12096,7 @@
         <v>838124</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>23</v>
       </c>
@@ -12247,7 +12150,7 @@
         <v>638247</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>25</v>
       </c>
@@ -12301,7 +12204,7 @@
         <v>5021391</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>27</v>
       </c>
@@ -12355,7 +12258,7 @@
         <v>2209363</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>29</v>
       </c>
@@ -12409,7 +12312,7 @@
         <v>1014906</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>31</v>
       </c>
@@ -12463,7 +12366,7 @@
         <v>2724734</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>33</v>
       </c>
@@ -12517,7 +12420,7 @@
         <v>2365793</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
         <v>35</v>
       </c>
@@ -12571,7 +12474,7 @@
         <v>803380</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>37</v>
       </c>
@@ -12625,7 +12528,7 @@
         <v>3696648</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="22" t="s">
         <v>39</v>
       </c>
@@ -12679,7 +12582,7 @@
         <v>869191</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="22" t="s">
         <v>41</v>
       </c>
@@ -12733,7 +12636,7 @@
         <v>2570228</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="22" t="s">
         <v>43</v>
       </c>
@@ -12787,7 +12690,7 @@
         <v>458040</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
         <v>45</v>
       </c>
@@ -12841,7 +12744,7 @@
         <v>136527</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="22" t="s">
         <v>47</v>
       </c>
@@ -12895,7 +12798,7 @@
         <v>1668706</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="22" t="s">
         <v>49</v>
       </c>
@@ -12949,7 +12852,7 @@
         <v>10500375</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>51</v>
       </c>
@@ -13003,7 +12906,7 @@
         <v>589946</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>53</v>
       </c>
